--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1015"/>
+  <dimension ref="A1:T1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79315,7 +79315,7 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
@@ -79324,16 +79324,16 @@
         </is>
       </c>
       <c r="M987" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N987" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="O987" t="n">
-        <v>330000</v>
+        <v>140000</v>
       </c>
       <c r="P987" t="n">
-        <v>330000</v>
+        <v>130000</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
@@ -79346,7 +79346,7 @@
         </is>
       </c>
       <c r="S987" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="T987" t="n">
         <v>400</v>
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79395,29 +79395,29 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="N988" t="n">
-        <v>290000</v>
+        <v>5000</v>
       </c>
       <c r="O988" t="n">
-        <v>290000</v>
+        <v>6000</v>
       </c>
       <c r="P988" t="n">
-        <v>290000</v>
+        <v>5500</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R988" t="inlineStr">
@@ -79426,10 +79426,10 @@
         </is>
       </c>
       <c r="S988" t="n">
-        <v>725</v>
+        <v>306</v>
       </c>
       <c r="T988" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="989">
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79475,25 +79475,25 @@
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M989" t="n">
         <v>20</v>
       </c>
       <c r="N989" t="n">
-        <v>360000</v>
+        <v>100000</v>
       </c>
       <c r="O989" t="n">
-        <v>360000</v>
+        <v>100000</v>
       </c>
       <c r="P989" t="n">
-        <v>360000</v>
+        <v>100000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79502,11 +79502,11 @@
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="T989" t="n">
         <v>400</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79555,41 +79555,41 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N990" t="n">
-        <v>340000</v>
+        <v>3500</v>
       </c>
       <c r="O990" t="n">
-        <v>340000</v>
+        <v>4000</v>
       </c>
       <c r="P990" t="n">
-        <v>340000</v>
+        <v>3750</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>850</v>
+        <v>208</v>
       </c>
       <c r="T990" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="991">
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79635,7 +79635,7 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
@@ -79644,20 +79644,20 @@
         </is>
       </c>
       <c r="M991" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="N991" t="n">
-        <v>13000</v>
+        <v>120000</v>
       </c>
       <c r="O991" t="n">
-        <v>13000</v>
+        <v>130000</v>
       </c>
       <c r="P991" t="n">
-        <v>13000</v>
+        <v>125000</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R991" t="inlineStr">
@@ -79666,10 +79666,10 @@
         </is>
       </c>
       <c r="S991" t="n">
-        <v>867</v>
+        <v>312</v>
       </c>
       <c r="T991" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="992">
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -79715,41 +79715,41 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M992" t="n">
-        <v>25</v>
+        <v>827</v>
       </c>
       <c r="N992" t="n">
-        <v>300000</v>
+        <v>7000</v>
       </c>
       <c r="O992" t="n">
-        <v>300000</v>
+        <v>7000</v>
       </c>
       <c r="P992" t="n">
-        <v>300000</v>
+        <v>7000</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>750</v>
+        <v>467</v>
       </c>
       <c r="T992" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="993">
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79795,7 +79795,7 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
@@ -79804,20 +79804,20 @@
         </is>
       </c>
       <c r="M993" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="N993" t="n">
-        <v>430000</v>
+        <v>5000</v>
       </c>
       <c r="O993" t="n">
-        <v>440000</v>
+        <v>6000</v>
       </c>
       <c r="P993" t="n">
-        <v>435000</v>
+        <v>5500</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R993" t="inlineStr">
@@ -79826,10 +79826,10 @@
         </is>
       </c>
       <c r="S993" t="n">
-        <v>1088</v>
+        <v>306</v>
       </c>
       <c r="T993" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="994">
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79875,41 +79875,41 @@
       </c>
       <c r="K994" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="N994" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="O994" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P994" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R994" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S994" t="n">
-        <v>1062</v>
+        <v>250</v>
       </c>
       <c r="T994" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="995">
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79955,41 +79955,41 @@
       </c>
       <c r="K995" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="N995" t="n">
-        <v>16000</v>
+        <v>330000</v>
       </c>
       <c r="O995" t="n">
-        <v>16000</v>
+        <v>330000</v>
       </c>
       <c r="P995" t="n">
-        <v>16000</v>
+        <v>330000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R995" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S995" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="T995" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="996">
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80035,25 +80035,25 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N996" t="n">
-        <v>130000</v>
+        <v>290000</v>
       </c>
       <c r="O996" t="n">
-        <v>140000</v>
+        <v>290000</v>
       </c>
       <c r="P996" t="n">
-        <v>135000</v>
+        <v>290000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
@@ -80066,7 +80066,7 @@
         </is>
       </c>
       <c r="S996" t="n">
-        <v>338</v>
+        <v>725</v>
       </c>
       <c r="T996" t="n">
         <v>400</v>
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80115,25 +80115,25 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M997" t="n">
         <v>20</v>
       </c>
       <c r="N997" t="n">
-        <v>100000</v>
+        <v>360000</v>
       </c>
       <c r="O997" t="n">
-        <v>100000</v>
+        <v>360000</v>
       </c>
       <c r="P997" t="n">
-        <v>100000</v>
+        <v>360000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80142,11 +80142,11 @@
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="T997" t="n">
         <v>400</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80195,7 +80195,7 @@
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
@@ -80204,32 +80204,32 @@
         </is>
       </c>
       <c r="M998" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="N998" t="n">
-        <v>6000</v>
+        <v>340000</v>
       </c>
       <c r="O998" t="n">
-        <v>7000</v>
+        <v>340000</v>
       </c>
       <c r="P998" t="n">
-        <v>6500</v>
+        <v>340000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>361</v>
+        <v>850</v>
       </c>
       <c r="T998" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="999">
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80275,7 +80275,7 @@
       </c>
       <c r="K999" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L999" t="inlineStr">
@@ -80284,20 +80284,20 @@
         </is>
       </c>
       <c r="M999" t="n">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="N999" t="n">
-        <v>120000</v>
+        <v>13000</v>
       </c>
       <c r="O999" t="n">
-        <v>130000</v>
+        <v>13000</v>
       </c>
       <c r="P999" t="n">
-        <v>125000</v>
+        <v>13000</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R999" t="inlineStr">
@@ -80306,10 +80306,10 @@
         </is>
       </c>
       <c r="S999" t="n">
-        <v>312</v>
+        <v>867</v>
       </c>
       <c r="T999" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1000">
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80355,41 +80355,41 @@
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N1000" t="n">
-        <v>6000</v>
+        <v>300000</v>
       </c>
       <c r="O1000" t="n">
-        <v>7000</v>
+        <v>300000</v>
       </c>
       <c r="P1000" t="n">
-        <v>6500</v>
+        <v>300000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>361</v>
+        <v>750</v>
       </c>
       <c r="T1000" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1001">
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80435,25 +80435,25 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N1001" t="n">
-        <v>90000</v>
+        <v>430000</v>
       </c>
       <c r="O1001" t="n">
-        <v>90000</v>
+        <v>440000</v>
       </c>
       <c r="P1001" t="n">
-        <v>90000</v>
+        <v>435000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80466,7 +80466,7 @@
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>225</v>
+        <v>1088</v>
       </c>
       <c r="T1001" t="n">
         <v>400</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80515,41 +80515,41 @@
       </c>
       <c r="K1002" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N1002" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O1002" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P1002" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>278</v>
+        <v>1062</v>
       </c>
       <c r="T1002" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1003">
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80595,41 +80595,41 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N1003" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O1003" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P1003" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>361</v>
+        <v>1000</v>
       </c>
       <c r="T1003" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1004">
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -80675,29 +80675,29 @@
       </c>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N1004" t="n">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="O1004" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="P1004" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1004" t="inlineStr">
@@ -80706,10 +80706,10 @@
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="T1004" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1005">
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -80755,25 +80755,25 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N1005" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="O1005" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P1005" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80782,11 +80782,11 @@
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="T1005" t="n">
         <v>400</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80835,7 +80835,7 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
@@ -80847,13 +80847,13 @@
         <v>250</v>
       </c>
       <c r="N1006" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O1006" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P1006" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80862,11 +80862,11 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="T1006" t="n">
         <v>18</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80915,25 +80915,25 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1007" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="O1007" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P1007" t="n">
-        <v>90000</v>
+        <v>125000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80942,11 +80942,11 @@
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="T1007" t="n">
         <v>400</v>
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -80995,25 +80995,25 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="N1008" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O1008" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P1008" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81022,11 +81022,11 @@
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="T1008" t="n">
         <v>18</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -81080,20 +81080,20 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N1009" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="O1009" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="P1009" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="T1009" t="n">
         <v>400</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81160,36 +81160,36 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N1010" t="n">
-        <v>130000</v>
+        <v>5000</v>
       </c>
       <c r="O1010" t="n">
-        <v>130000</v>
+        <v>5000</v>
       </c>
       <c r="P1010" t="n">
-        <v>130000</v>
+        <v>5000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="T1010" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1011">
@@ -81235,7 +81235,7 @@
       </c>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1011" t="inlineStr">
@@ -81244,20 +81244,20 @@
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N1011" t="n">
-        <v>120000</v>
+        <v>6000</v>
       </c>
       <c r="O1011" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="P1011" t="n">
-        <v>125000</v>
+        <v>6500</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1011" t="inlineStr">
@@ -81266,10 +81266,10 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="T1011" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1012">
@@ -81315,25 +81315,25 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N1012" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O1012" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P1012" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81342,11 +81342,11 @@
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="T1012" t="n">
         <v>18</v>
@@ -81395,25 +81395,25 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N1013" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="O1013" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P1013" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81426,7 +81426,7 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T1013" t="n">
         <v>400</v>
@@ -81475,41 +81475,41 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="N1014" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="O1014" t="n">
-        <v>100000</v>
+        <v>5500</v>
       </c>
       <c r="P1014" t="n">
-        <v>100000</v>
+        <v>5250</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="T1014" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1015">
@@ -81555,40 +81555,680 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L1015" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1015" t="n">
+        <v>23</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>90000</v>
+      </c>
+      <c r="Q1015" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1015" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1015" t="n">
+        <v>225</v>
+      </c>
+      <c r="T1015" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1016" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1016" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1016" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1016" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1016" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>Lane Late</t>
+        </is>
+      </c>
+      <c r="L1016" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1016" t="n">
+        <v>175</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q1016" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1016" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1016" t="n">
+        <v>194</v>
+      </c>
+      <c r="T1016" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1017" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1017" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1017" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1017" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1017" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1017" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1017" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q1017" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1017" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1017" t="n">
+        <v>375</v>
+      </c>
+      <c r="T1017" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1018" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1018" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1018" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1018" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1018" t="n">
+        <v>25</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>130000</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>130000</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>130000</v>
+      </c>
+      <c r="Q1018" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1018" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1018" t="n">
+        <v>325</v>
+      </c>
+      <c r="T1018" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1019" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1019" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1019" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1019" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1019" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1019" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>130000</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q1019" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1019" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1019" t="n">
+        <v>312</v>
+      </c>
+      <c r="T1019" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1020" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1020" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1020" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1020" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1020" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1020" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q1020" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1020" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1020" t="n">
+        <v>361</v>
+      </c>
+      <c r="T1020" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1021" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1021" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1021" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1021" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1021" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1021" t="n">
+        <v>25</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q1021" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1021" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1021" t="n">
+        <v>250</v>
+      </c>
+      <c r="T1021" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1022" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1022" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1022" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1022" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1022" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1022" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q1022" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1022" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1022" t="n">
+        <v>250</v>
+      </c>
+      <c r="T1022" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1023" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1023" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1023" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1023" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
           <t>Thompson</t>
         </is>
       </c>
-      <c r="L1015" t="inlineStr">
+      <c r="L1023" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1015" t="n">
+      <c r="M1023" t="n">
         <v>630</v>
       </c>
-      <c r="N1015" t="n">
+      <c r="N1023" t="n">
         <v>9000</v>
       </c>
-      <c r="O1015" t="n">
+      <c r="O1023" t="n">
         <v>9000</v>
       </c>
-      <c r="P1015" t="n">
+      <c r="P1023" t="n">
         <v>9000</v>
       </c>
-      <c r="Q1015" t="inlineStr">
+      <c r="Q1023" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R1015" t="inlineStr">
+      <c r="R1023" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1015" t="n">
+      <c r="S1023" t="n">
         <v>600</v>
       </c>
-      <c r="T1015" t="n">
+      <c r="T1023" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1023"/>
+  <dimension ref="A1:T1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71367,7 +71367,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -71395,7 +71395,7 @@
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
@@ -71404,16 +71404,16 @@
         </is>
       </c>
       <c r="M888" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N888" t="n">
-        <v>310000</v>
+        <v>110000</v>
       </c>
       <c r="O888" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="P888" t="n">
-        <v>320000</v>
+        <v>115000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
@@ -71422,11 +71422,11 @@
       </c>
       <c r="R888" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S888" t="n">
-        <v>800</v>
+        <v>288</v>
       </c>
       <c r="T888" t="n">
         <v>400</v>
@@ -71447,7 +71447,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -71475,41 +71475,41 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M889" t="n">
+        <v>300</v>
+      </c>
+      <c r="N889" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O889" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P889" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q889" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R889" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S889" t="n">
+        <v>306</v>
+      </c>
+      <c r="T889" t="n">
         <v>18</v>
-      </c>
-      <c r="N889" t="n">
-        <v>270000</v>
-      </c>
-      <c r="O889" t="n">
-        <v>270000</v>
-      </c>
-      <c r="P889" t="n">
-        <v>270000</v>
-      </c>
-      <c r="Q889" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R889" t="inlineStr">
-        <is>
-          <t>Cabildo</t>
-        </is>
-      </c>
-      <c r="S889" t="n">
-        <v>675</v>
-      </c>
-      <c r="T889" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="890">
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -71555,25 +71555,25 @@
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N890" t="n">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="O890" t="n">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="P890" t="n">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
@@ -71582,11 +71582,11 @@
       </c>
       <c r="R890" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S890" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="T890" t="n">
         <v>400</v>
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -71635,7 +71635,7 @@
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
@@ -71644,32 +71644,32 @@
         </is>
       </c>
       <c r="M891" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N891" t="n">
-        <v>320000</v>
+        <v>5000</v>
       </c>
       <c r="O891" t="n">
-        <v>320000</v>
+        <v>6000</v>
       </c>
       <c r="P891" t="n">
-        <v>320000</v>
+        <v>5500</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R891" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S891" t="n">
-        <v>800</v>
+        <v>306</v>
       </c>
       <c r="T891" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="892">
@@ -71715,7 +71715,7 @@
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
@@ -71724,32 +71724,32 @@
         </is>
       </c>
       <c r="M892" t="n">
-        <v>440</v>
+        <v>24</v>
       </c>
       <c r="N892" t="n">
-        <v>13000</v>
+        <v>310000</v>
       </c>
       <c r="O892" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="P892" t="n">
-        <v>13000</v>
+        <v>320000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R892" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S892" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T892" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="893">
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -71795,25 +71795,25 @@
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M893" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N893" t="n">
-        <v>130000</v>
+        <v>270000</v>
       </c>
       <c r="O893" t="n">
-        <v>140000</v>
+        <v>270000</v>
       </c>
       <c r="P893" t="n">
-        <v>135455</v>
+        <v>270000</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
@@ -71822,11 +71822,11 @@
       </c>
       <c r="R893" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S893" t="n">
-        <v>339</v>
+        <v>675</v>
       </c>
       <c r="T893" t="n">
         <v>400</v>
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -71875,25 +71875,25 @@
       </c>
       <c r="K894" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M894" t="n">
         <v>24</v>
       </c>
       <c r="N894" t="n">
-        <v>110000</v>
+        <v>320000</v>
       </c>
       <c r="O894" t="n">
-        <v>110000</v>
+        <v>320000</v>
       </c>
       <c r="P894" t="n">
-        <v>110000</v>
+        <v>320000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
@@ -71902,11 +71902,11 @@
       </c>
       <c r="R894" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S894" t="n">
-        <v>275</v>
+        <v>800</v>
       </c>
       <c r="T894" t="n">
         <v>400</v>
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -71955,7 +71955,7 @@
       </c>
       <c r="K895" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L895" t="inlineStr">
@@ -71964,16 +71964,16 @@
         </is>
       </c>
       <c r="M895" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N895" t="n">
-        <v>120000</v>
+        <v>320000</v>
       </c>
       <c r="O895" t="n">
-        <v>120000</v>
+        <v>320000</v>
       </c>
       <c r="P895" t="n">
-        <v>120000</v>
+        <v>320000</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
@@ -71982,11 +71982,11 @@
       </c>
       <c r="R895" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S895" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T895" t="n">
         <v>400</v>
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -72035,7 +72035,7 @@
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
@@ -72044,32 +72044,32 @@
         </is>
       </c>
       <c r="M896" t="n">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="N896" t="n">
-        <v>120000</v>
+        <v>13000</v>
       </c>
       <c r="O896" t="n">
-        <v>130000</v>
+        <v>13000</v>
       </c>
       <c r="P896" t="n">
-        <v>125000</v>
+        <v>13000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R896" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S896" t="n">
-        <v>312</v>
+        <v>867</v>
       </c>
       <c r="T896" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="897">
@@ -72115,7 +72115,7 @@
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
@@ -72124,32 +72124,32 @@
         </is>
       </c>
       <c r="M897" t="n">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="N897" t="n">
-        <v>4000</v>
+        <v>130000</v>
       </c>
       <c r="O897" t="n">
-        <v>4500</v>
+        <v>140000</v>
       </c>
       <c r="P897" t="n">
-        <v>4250</v>
+        <v>135455</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S897" t="n">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="T897" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="898">
@@ -72195,29 +72195,29 @@
       </c>
       <c r="K898" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="N898" t="n">
-        <v>5000</v>
+        <v>110000</v>
       </c>
       <c r="O898" t="n">
-        <v>5000</v>
+        <v>110000</v>
       </c>
       <c r="P898" t="n">
-        <v>5000</v>
+        <v>110000</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R898" t="inlineStr">
@@ -72226,10 +72226,10 @@
         </is>
       </c>
       <c r="S898" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="T898" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="899">
@@ -72280,20 +72280,20 @@
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M899" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N899" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O899" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P899" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
@@ -72306,7 +72306,7 @@
         </is>
       </c>
       <c r="S899" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T899" t="n">
         <v>400</v>
@@ -72360,20 +72360,20 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N900" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O900" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P900" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
@@ -72386,7 +72386,7 @@
         </is>
       </c>
       <c r="S900" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="T900" t="n">
         <v>400</v>
@@ -72440,20 +72440,20 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M901" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N901" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O901" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P901" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
@@ -72466,7 +72466,7 @@
         </is>
       </c>
       <c r="S901" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="T901" t="n">
         <v>18</v>
@@ -72520,20 +72520,20 @@
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M902" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N902" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O902" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P902" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
@@ -72546,7 +72546,7 @@
         </is>
       </c>
       <c r="S902" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="T902" t="n">
         <v>18</v>
@@ -72600,36 +72600,36 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M903" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N903" t="n">
-        <v>2500</v>
+        <v>100000</v>
       </c>
       <c r="O903" t="n">
-        <v>2500</v>
+        <v>100000</v>
       </c>
       <c r="P903" t="n">
-        <v>2500</v>
+        <v>100000</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R903" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S903" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="T903" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="904">
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -72675,25 +72675,25 @@
       </c>
       <c r="K904" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M904" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N904" t="n">
-        <v>480000</v>
+        <v>100000</v>
       </c>
       <c r="O904" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="P904" t="n">
-        <v>490000</v>
+        <v>100000</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
@@ -72702,11 +72702,11 @@
       </c>
       <c r="R904" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S904" t="n">
-        <v>1225</v>
+        <v>250</v>
       </c>
       <c r="T904" t="n">
         <v>400</v>
@@ -72727,7 +72727,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -72755,41 +72755,41 @@
       </c>
       <c r="K905" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M905" t="n">
-        <v>840</v>
+        <v>180</v>
       </c>
       <c r="N905" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O905" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P905" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R905" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S905" t="n">
-        <v>1133</v>
+        <v>194</v>
       </c>
       <c r="T905" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="906">
@@ -72807,7 +72807,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -72835,7 +72835,7 @@
       </c>
       <c r="K906" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L906" t="inlineStr">
@@ -72844,20 +72844,20 @@
         </is>
       </c>
       <c r="M906" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N906" t="n">
-        <v>440000</v>
+        <v>4000</v>
       </c>
       <c r="O906" t="n">
-        <v>440000</v>
+        <v>4000</v>
       </c>
       <c r="P906" t="n">
-        <v>440000</v>
+        <v>4000</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R906" t="inlineStr">
@@ -72866,10 +72866,10 @@
         </is>
       </c>
       <c r="S906" t="n">
-        <v>1100</v>
+        <v>222</v>
       </c>
       <c r="T906" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="907">
@@ -72887,7 +72887,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -72915,41 +72915,41 @@
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M907" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="N907" t="n">
-        <v>120000</v>
+        <v>2500</v>
       </c>
       <c r="O907" t="n">
-        <v>120000</v>
+        <v>2500</v>
       </c>
       <c r="P907" t="n">
-        <v>120000</v>
+        <v>2500</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R907" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S907" t="n">
-        <v>300</v>
+        <v>139</v>
       </c>
       <c r="T907" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="908">
@@ -72967,7 +72967,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -72995,25 +72995,25 @@
       </c>
       <c r="K908" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M908" t="n">
         <v>16</v>
       </c>
       <c r="N908" t="n">
-        <v>100000</v>
+        <v>480000</v>
       </c>
       <c r="O908" t="n">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="P908" t="n">
-        <v>100000</v>
+        <v>490000</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
@@ -73022,11 +73022,11 @@
       </c>
       <c r="R908" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S908" t="n">
-        <v>250</v>
+        <v>1225</v>
       </c>
       <c r="T908" t="n">
         <v>400</v>
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -73075,41 +73075,41 @@
       </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M909" t="n">
-        <v>8</v>
+        <v>840</v>
       </c>
       <c r="N909" t="n">
-        <v>70000</v>
+        <v>17000</v>
       </c>
       <c r="O909" t="n">
-        <v>70000</v>
+        <v>17000</v>
       </c>
       <c r="P909" t="n">
-        <v>70000</v>
+        <v>17000</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R909" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S909" t="n">
-        <v>175</v>
+        <v>1133</v>
       </c>
       <c r="T909" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="910">
@@ -73127,7 +73127,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -73155,25 +73155,25 @@
       </c>
       <c r="K910" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N910" t="n">
-        <v>120000</v>
+        <v>440000</v>
       </c>
       <c r="O910" t="n">
-        <v>130000</v>
+        <v>440000</v>
       </c>
       <c r="P910" t="n">
-        <v>125000</v>
+        <v>440000</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
@@ -73182,11 +73182,11 @@
       </c>
       <c r="R910" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S910" t="n">
-        <v>312</v>
+        <v>1100</v>
       </c>
       <c r="T910" t="n">
         <v>400</v>
@@ -73235,7 +73235,7 @@
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
@@ -73244,32 +73244,32 @@
         </is>
       </c>
       <c r="M911" t="n">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="N911" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O911" t="n">
-        <v>6000</v>
+        <v>120000</v>
       </c>
       <c r="P911" t="n">
-        <v>5500</v>
+        <v>120000</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R911" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S911" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="T911" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="912">
@@ -73315,7 +73315,7 @@
       </c>
       <c r="K912" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L912" t="inlineStr">
@@ -73324,7 +73324,7 @@
         </is>
       </c>
       <c r="M912" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N912" t="n">
         <v>100000</v>
@@ -73342,7 +73342,7 @@
       </c>
       <c r="R912" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S912" t="n">
@@ -73395,41 +73395,41 @@
       </c>
       <c r="K913" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M913" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N913" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="O913" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="P913" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R913" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S913" t="n">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="T913" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="914">
@@ -73447,7 +73447,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -73475,7 +73475,7 @@
       </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L914" t="inlineStr">
@@ -73484,7 +73484,7 @@
         </is>
       </c>
       <c r="M914" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N914" t="n">
         <v>120000</v>
@@ -73502,7 +73502,7 @@
       </c>
       <c r="R914" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S914" t="n">
@@ -73527,7 +73527,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -73555,7 +73555,7 @@
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
@@ -73564,32 +73564,32 @@
         </is>
       </c>
       <c r="M915" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="N915" t="n">
-        <v>130000</v>
+        <v>5000</v>
       </c>
       <c r="O915" t="n">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="P915" t="n">
-        <v>135000</v>
+        <v>5500</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R915" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S915" t="n">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="T915" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="916">
@@ -73607,7 +73607,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -73640,20 +73640,20 @@
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M916" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N916" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="O916" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P916" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
@@ -73666,7 +73666,7 @@
         </is>
       </c>
       <c r="S916" t="n">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="T916" t="n">
         <v>400</v>
@@ -73687,7 +73687,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -73720,20 +73720,20 @@
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M917" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N917" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O917" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P917" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
@@ -73746,7 +73746,7 @@
         </is>
       </c>
       <c r="S917" t="n">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="T917" t="n">
         <v>18</v>
@@ -73795,25 +73795,25 @@
       </c>
       <c r="K918" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L918" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M918" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N918" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O918" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P918" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="Q918" t="inlineStr">
         <is>
@@ -73822,11 +73822,11 @@
       </c>
       <c r="R918" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S918" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="T918" t="n">
         <v>400</v>
@@ -73875,41 +73875,41 @@
       </c>
       <c r="K919" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M919" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="N919" t="n">
-        <v>3500</v>
+        <v>130000</v>
       </c>
       <c r="O919" t="n">
-        <v>4000</v>
+        <v>140000</v>
       </c>
       <c r="P919" t="n">
-        <v>3750</v>
+        <v>135000</v>
       </c>
       <c r="Q919" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R919" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S919" t="n">
-        <v>208</v>
+        <v>338</v>
       </c>
       <c r="T919" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="920">
@@ -73927,7 +73927,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -73955,7 +73955,7 @@
       </c>
       <c r="K920" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L920" t="inlineStr">
@@ -73982,7 +73982,7 @@
       </c>
       <c r="R920" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S920" t="n">
@@ -74007,7 +74007,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -74035,41 +74035,41 @@
       </c>
       <c r="K921" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M921" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="N921" t="n">
-        <v>100000</v>
+        <v>4500</v>
       </c>
       <c r="O921" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="P921" t="n">
-        <v>100000</v>
+        <v>4750</v>
       </c>
       <c r="Q921" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R921" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S921" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="T921" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="922">
@@ -74087,7 +74087,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -74115,25 +74115,25 @@
       </c>
       <c r="K922" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M922" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N922" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O922" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P922" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q922" t="inlineStr">
         <is>
@@ -74146,7 +74146,7 @@
         </is>
       </c>
       <c r="S922" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="T922" t="n">
         <v>400</v>
@@ -74167,7 +74167,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -74195,29 +74195,29 @@
       </c>
       <c r="K923" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M923" t="n">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="N923" t="n">
-        <v>140000</v>
+        <v>3500</v>
       </c>
       <c r="O923" t="n">
-        <v>150000</v>
+        <v>4000</v>
       </c>
       <c r="P923" t="n">
-        <v>145000</v>
+        <v>3750</v>
       </c>
       <c r="Q923" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R923" t="inlineStr">
@@ -74226,10 +74226,10 @@
         </is>
       </c>
       <c r="S923" t="n">
-        <v>362</v>
+        <v>208</v>
       </c>
       <c r="T923" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="924">
@@ -74275,16 +74275,16 @@
       </c>
       <c r="K924" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M924" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N924" t="n">
         <v>130000</v>
@@ -74302,7 +74302,7 @@
       </c>
       <c r="R924" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S924" t="n">
@@ -74355,25 +74355,25 @@
       </c>
       <c r="K925" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L925" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M925" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N925" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="O925" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="P925" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="Q925" t="inlineStr">
         <is>
@@ -74382,11 +74382,11 @@
       </c>
       <c r="R925" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S925" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="T925" t="n">
         <v>400</v>
@@ -74435,7 +74435,7 @@
       </c>
       <c r="K926" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L926" t="inlineStr">
@@ -74444,16 +74444,16 @@
         </is>
       </c>
       <c r="M926" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N926" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O926" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P926" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q926" t="inlineStr">
         <is>
@@ -74462,11 +74462,11 @@
       </c>
       <c r="R926" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S926" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="T926" t="n">
         <v>400</v>
@@ -74515,7 +74515,7 @@
       </c>
       <c r="K927" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L927" t="inlineStr">
@@ -74524,16 +74524,16 @@
         </is>
       </c>
       <c r="M927" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N927" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O927" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P927" t="n">
-        <v>131429</v>
+        <v>145000</v>
       </c>
       <c r="Q927" t="inlineStr">
         <is>
@@ -74542,11 +74542,11 @@
       </c>
       <c r="R927" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S927" t="n">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="T927" t="n">
         <v>400</v>
@@ -74595,25 +74595,25 @@
       </c>
       <c r="K928" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M928" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N928" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="O928" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P928" t="n">
-        <v>115000</v>
+        <v>130000</v>
       </c>
       <c r="Q928" t="inlineStr">
         <is>
@@ -74626,7 +74626,7 @@
         </is>
       </c>
       <c r="S928" t="n">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="T928" t="n">
         <v>400</v>
@@ -74675,25 +74675,25 @@
       </c>
       <c r="K929" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M929" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="N929" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="O929" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="P929" t="n">
-        <v>126522</v>
+        <v>80000</v>
       </c>
       <c r="Q929" t="inlineStr">
         <is>
@@ -74702,11 +74702,11 @@
       </c>
       <c r="R929" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S929" t="n">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="T929" t="n">
         <v>400</v>
@@ -74760,20 +74760,20 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M930" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N930" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="O930" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P930" t="n">
-        <v>108000</v>
+        <v>150000</v>
       </c>
       <c r="Q930" t="inlineStr">
         <is>
@@ -74782,11 +74782,11 @@
       </c>
       <c r="R930" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S930" t="n">
-        <v>270</v>
+        <v>375</v>
       </c>
       <c r="T930" t="n">
         <v>400</v>
@@ -74840,20 +74840,20 @@
       </c>
       <c r="L931" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M931" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N931" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="O931" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="P931" t="n">
-        <v>95000</v>
+        <v>131429</v>
       </c>
       <c r="Q931" t="inlineStr">
         <is>
@@ -74862,11 +74862,11 @@
       </c>
       <c r="R931" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S931" t="n">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="T931" t="n">
         <v>400</v>
@@ -74920,20 +74920,20 @@
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M932" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N932" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="O932" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P932" t="n">
-        <v>106875</v>
+        <v>115000</v>
       </c>
       <c r="Q932" t="inlineStr">
         <is>
@@ -74942,11 +74942,11 @@
       </c>
       <c r="R932" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S932" t="n">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="T932" t="n">
         <v>400</v>
@@ -75000,24 +75000,24 @@
       </c>
       <c r="L933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M933" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N933" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O933" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P933" t="n">
-        <v>100000</v>
+        <v>126522</v>
       </c>
       <c r="Q933" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R933" t="inlineStr">
@@ -75026,10 +75026,10 @@
         </is>
       </c>
       <c r="S933" t="n">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="T933" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="934">
@@ -75080,20 +75080,20 @@
       </c>
       <c r="L934" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M934" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N934" t="n">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="O934" t="n">
-        <v>70000</v>
+        <v>120000</v>
       </c>
       <c r="P934" t="n">
-        <v>70000</v>
+        <v>108000</v>
       </c>
       <c r="Q934" t="inlineStr">
         <is>
@@ -75106,7 +75106,7 @@
         </is>
       </c>
       <c r="S934" t="n">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="T934" t="n">
         <v>400</v>
@@ -75155,25 +75155,25 @@
       </c>
       <c r="K935" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M935" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N935" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="O935" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="P935" t="n">
-        <v>128000</v>
+        <v>95000</v>
       </c>
       <c r="Q935" t="inlineStr">
         <is>
@@ -75182,11 +75182,11 @@
       </c>
       <c r="R935" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S935" t="n">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="T935" t="n">
         <v>400</v>
@@ -75235,25 +75235,25 @@
       </c>
       <c r="K936" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M936" t="n">
         <v>32</v>
       </c>
       <c r="N936" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O936" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P936" t="n">
-        <v>125000</v>
+        <v>106875</v>
       </c>
       <c r="Q936" t="inlineStr">
         <is>
@@ -75262,11 +75262,11 @@
       </c>
       <c r="R936" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S936" t="n">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="T936" t="n">
         <v>400</v>
@@ -75315,41 +75315,41 @@
       </c>
       <c r="K937" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M937" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N937" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O937" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P937" t="n">
-        <v>123500</v>
+        <v>100000</v>
       </c>
       <c r="Q937" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R937" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S937" t="n">
-        <v>309</v>
+        <v>222</v>
       </c>
       <c r="T937" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="938">
@@ -75395,25 +75395,25 @@
       </c>
       <c r="K938" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L938" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M938" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="N938" t="n">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="O938" t="n">
-        <v>130000</v>
+        <v>70000</v>
       </c>
       <c r="P938" t="n">
-        <v>126667</v>
+        <v>70000</v>
       </c>
       <c r="Q938" t="inlineStr">
         <is>
@@ -75422,11 +75422,11 @@
       </c>
       <c r="R938" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S938" t="n">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="T938" t="n">
         <v>400</v>
@@ -75484,20 +75484,20 @@
         </is>
       </c>
       <c r="M939" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N939" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O939" t="n">
-        <v>6000</v>
+        <v>140000</v>
       </c>
       <c r="P939" t="n">
-        <v>5500</v>
+        <v>128000</v>
       </c>
       <c r="Q939" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R939" t="inlineStr">
@@ -75506,10 +75506,10 @@
         </is>
       </c>
       <c r="S939" t="n">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="T939" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="940">
@@ -75564,20 +75564,20 @@
         </is>
       </c>
       <c r="M940" t="n">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="N940" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O940" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="P940" t="n">
-        <v>5500</v>
+        <v>125000</v>
       </c>
       <c r="Q940" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R940" t="inlineStr">
@@ -75586,10 +75586,10 @@
         </is>
       </c>
       <c r="S940" t="n">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="T940" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="941">
@@ -75644,20 +75644,20 @@
         </is>
       </c>
       <c r="M941" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N941" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O941" t="n">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="P941" t="n">
-        <v>5000</v>
+        <v>123500</v>
       </c>
       <c r="Q941" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R941" t="inlineStr">
@@ -75666,10 +75666,10 @@
         </is>
       </c>
       <c r="S941" t="n">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="T941" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="942">
@@ -75724,20 +75724,20 @@
         </is>
       </c>
       <c r="M942" t="n">
-        <v>660</v>
+        <v>75</v>
       </c>
       <c r="N942" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O942" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="P942" t="n">
-        <v>5500</v>
+        <v>126667</v>
       </c>
       <c r="Q942" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R942" t="inlineStr">
@@ -75746,10 +75746,10 @@
         </is>
       </c>
       <c r="S942" t="n">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="T942" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="943">
@@ -75800,24 +75800,24 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M943" t="n">
-        <v>34</v>
+        <v>360</v>
       </c>
       <c r="N943" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="O943" t="n">
-        <v>120000</v>
+        <v>6000</v>
       </c>
       <c r="P943" t="n">
-        <v>110588</v>
+        <v>5500</v>
       </c>
       <c r="Q943" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R943" t="inlineStr">
@@ -75826,10 +75826,10 @@
         </is>
       </c>
       <c r="S943" t="n">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="T943" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="944">
@@ -75880,24 +75880,24 @@
       </c>
       <c r="L944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M944" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="N944" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="O944" t="n">
-        <v>100000</v>
+        <v>6000</v>
       </c>
       <c r="P944" t="n">
-        <v>100000</v>
+        <v>5500</v>
       </c>
       <c r="Q944" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R944" t="inlineStr">
@@ -75906,10 +75906,10 @@
         </is>
       </c>
       <c r="S944" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="T944" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="945">
@@ -75960,24 +75960,24 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M945" t="n">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="N945" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="O945" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="P945" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="Q945" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R945" t="inlineStr">
@@ -75986,10 +75986,10 @@
         </is>
       </c>
       <c r="S945" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="T945" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="946">
@@ -76040,24 +76040,24 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M946" t="n">
-        <v>52</v>
+        <v>660</v>
       </c>
       <c r="N946" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="O946" t="n">
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="P946" t="n">
-        <v>103462</v>
+        <v>5500</v>
       </c>
       <c r="Q946" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R946" t="inlineStr">
@@ -76066,10 +76066,10 @@
         </is>
       </c>
       <c r="S946" t="n">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="T946" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="947">
@@ -76124,20 +76124,20 @@
         </is>
       </c>
       <c r="M947" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="N947" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="O947" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="P947" t="n">
-        <v>4000</v>
+        <v>110588</v>
       </c>
       <c r="Q947" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R947" t="inlineStr">
@@ -76146,10 +76146,10 @@
         </is>
       </c>
       <c r="S947" t="n">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="T947" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="948">
@@ -76204,32 +76204,32 @@
         </is>
       </c>
       <c r="M948" t="n">
+        <v>20</v>
+      </c>
+      <c r="N948" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O948" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P948" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q948" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R948" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S948" t="n">
         <v>250</v>
       </c>
-      <c r="N948" t="n">
-        <v>4000</v>
-      </c>
-      <c r="O948" t="n">
-        <v>4000</v>
-      </c>
-      <c r="P948" t="n">
-        <v>4000</v>
-      </c>
-      <c r="Q948" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R948" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S948" t="n">
-        <v>222</v>
-      </c>
       <c r="T948" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="949">
@@ -76284,32 +76284,32 @@
         </is>
       </c>
       <c r="M949" t="n">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="N949" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="O949" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="P949" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="Q949" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R949" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S949" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="T949" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="950">
@@ -76360,20 +76360,20 @@
       </c>
       <c r="L950" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M950" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="N950" t="n">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="O950" t="n">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="P950" t="n">
-        <v>70000</v>
+        <v>103462</v>
       </c>
       <c r="Q950" t="inlineStr">
         <is>
@@ -76382,11 +76382,11 @@
       </c>
       <c r="R950" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S950" t="n">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="T950" t="n">
         <v>400</v>
@@ -76440,36 +76440,36 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M951" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N951" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="O951" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="P951" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="Q951" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R951" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S951" t="n">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="T951" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="952">
@@ -76515,29 +76515,29 @@
       </c>
       <c r="K952" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M952" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="N952" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="O952" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="P952" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="Q952" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R952" t="inlineStr">
@@ -76546,10 +76546,10 @@
         </is>
       </c>
       <c r="S952" t="n">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="T952" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="953">
@@ -76595,7 +76595,7 @@
       </c>
       <c r="K953" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L953" t="inlineStr">
@@ -76604,32 +76604,32 @@
         </is>
       </c>
       <c r="M953" t="n">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="N953" t="n">
-        <v>100000</v>
+        <v>4000</v>
       </c>
       <c r="O953" t="n">
-        <v>100000</v>
+        <v>4000</v>
       </c>
       <c r="P953" t="n">
-        <v>100000</v>
+        <v>4000</v>
       </c>
       <c r="Q953" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R953" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S953" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="T953" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="954">
@@ -76647,7 +76647,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -76675,25 +76675,25 @@
       </c>
       <c r="K954" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M954" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N954" t="n">
-        <v>360000</v>
+        <v>70000</v>
       </c>
       <c r="O954" t="n">
-        <v>370000</v>
+        <v>70000</v>
       </c>
       <c r="P954" t="n">
-        <v>365000</v>
+        <v>70000</v>
       </c>
       <c r="Q954" t="inlineStr">
         <is>
@@ -76702,11 +76702,11 @@
       </c>
       <c r="R954" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S954" t="n">
-        <v>912</v>
+        <v>175</v>
       </c>
       <c r="T954" t="n">
         <v>400</v>
@@ -76727,7 +76727,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -76755,41 +76755,41 @@
       </c>
       <c r="K955" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M955" t="n">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="N955" t="n">
-        <v>16000</v>
+        <v>70000</v>
       </c>
       <c r="O955" t="n">
-        <v>16000</v>
+        <v>70000</v>
       </c>
       <c r="P955" t="n">
-        <v>16000</v>
+        <v>70000</v>
       </c>
       <c r="Q955" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R955" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S955" t="n">
-        <v>1067</v>
+        <v>175</v>
       </c>
       <c r="T955" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="956">
@@ -76807,7 +76807,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -76835,7 +76835,7 @@
       </c>
       <c r="K956" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L956" t="inlineStr">
@@ -76844,16 +76844,16 @@
         </is>
       </c>
       <c r="M956" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N956" t="n">
-        <v>315000</v>
+        <v>120000</v>
       </c>
       <c r="O956" t="n">
-        <v>350000</v>
+        <v>120000</v>
       </c>
       <c r="P956" t="n">
-        <v>334091</v>
+        <v>120000</v>
       </c>
       <c r="Q956" t="inlineStr">
         <is>
@@ -76862,11 +76862,11 @@
       </c>
       <c r="R956" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S956" t="n">
-        <v>835</v>
+        <v>300</v>
       </c>
       <c r="T956" t="n">
         <v>400</v>
@@ -76887,7 +76887,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -76915,7 +76915,7 @@
       </c>
       <c r="K957" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L957" t="inlineStr">
@@ -76924,16 +76924,16 @@
         </is>
       </c>
       <c r="M957" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N957" t="n">
-        <v>270000</v>
+        <v>100000</v>
       </c>
       <c r="O957" t="n">
-        <v>320000</v>
+        <v>100000</v>
       </c>
       <c r="P957" t="n">
-        <v>292222</v>
+        <v>100000</v>
       </c>
       <c r="Q957" t="inlineStr">
         <is>
@@ -76942,11 +76942,11 @@
       </c>
       <c r="R957" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S957" t="n">
-        <v>731</v>
+        <v>250</v>
       </c>
       <c r="T957" t="n">
         <v>400</v>
@@ -76967,7 +76967,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -77004,16 +77004,16 @@
         </is>
       </c>
       <c r="M958" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N958" t="n">
-        <v>130000</v>
+        <v>360000</v>
       </c>
       <c r="O958" t="n">
-        <v>130000</v>
+        <v>370000</v>
       </c>
       <c r="P958" t="n">
-        <v>130000</v>
+        <v>365000</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
@@ -77022,11 +77022,11 @@
       </c>
       <c r="R958" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S958" t="n">
-        <v>325</v>
+        <v>912</v>
       </c>
       <c r="T958" t="n">
         <v>400</v>
@@ -77047,7 +77047,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -77084,20 +77084,20 @@
         </is>
       </c>
       <c r="M959" t="n">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="N959" t="n">
-        <v>130000</v>
+        <v>16000</v>
       </c>
       <c r="O959" t="n">
-        <v>140000</v>
+        <v>16000</v>
       </c>
       <c r="P959" t="n">
-        <v>135000</v>
+        <v>16000</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R959" t="inlineStr">
@@ -77106,10 +77106,10 @@
         </is>
       </c>
       <c r="S959" t="n">
-        <v>338</v>
+        <v>1067</v>
       </c>
       <c r="T959" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="960">
@@ -77127,7 +77127,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -77155,7 +77155,7 @@
       </c>
       <c r="K960" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L960" t="inlineStr">
@@ -77164,20 +77164,20 @@
         </is>
       </c>
       <c r="M960" t="n">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="N960" t="n">
-        <v>11000</v>
+        <v>315000</v>
       </c>
       <c r="O960" t="n">
-        <v>11000</v>
+        <v>350000</v>
       </c>
       <c r="P960" t="n">
-        <v>11000</v>
+        <v>334091</v>
       </c>
       <c r="Q960" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R960" t="inlineStr">
@@ -77186,10 +77186,10 @@
         </is>
       </c>
       <c r="S960" t="n">
-        <v>733</v>
+        <v>835</v>
       </c>
       <c r="T960" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="961">
@@ -77207,7 +77207,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -77235,7 +77235,7 @@
       </c>
       <c r="K961" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L961" t="inlineStr">
@@ -77244,16 +77244,16 @@
         </is>
       </c>
       <c r="M961" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N961" t="n">
-        <v>100000</v>
+        <v>270000</v>
       </c>
       <c r="O961" t="n">
-        <v>100000</v>
+        <v>320000</v>
       </c>
       <c r="P961" t="n">
-        <v>100000</v>
+        <v>292222</v>
       </c>
       <c r="Q961" t="inlineStr">
         <is>
@@ -77262,11 +77262,11 @@
       </c>
       <c r="R961" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S961" t="n">
-        <v>250</v>
+        <v>731</v>
       </c>
       <c r="T961" t="n">
         <v>400</v>
@@ -77320,20 +77320,20 @@
       </c>
       <c r="L962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M962" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N962" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O962" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P962" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
@@ -77342,11 +77342,11 @@
       </c>
       <c r="R962" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S962" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="T962" t="n">
         <v>400</v>
@@ -77395,7 +77395,7 @@
       </c>
       <c r="K963" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L963" t="inlineStr">
@@ -77410,10 +77410,10 @@
         <v>130000</v>
       </c>
       <c r="O963" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P963" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
@@ -77426,7 +77426,7 @@
         </is>
       </c>
       <c r="S963" t="n">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="T963" t="n">
         <v>400</v>
@@ -77475,7 +77475,7 @@
       </c>
       <c r="K964" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L964" t="inlineStr">
@@ -77484,20 +77484,20 @@
         </is>
       </c>
       <c r="M964" t="n">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="N964" t="n">
-        <v>130000</v>
+        <v>11000</v>
       </c>
       <c r="O964" t="n">
-        <v>130000</v>
+        <v>11000</v>
       </c>
       <c r="P964" t="n">
-        <v>130000</v>
+        <v>11000</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R964" t="inlineStr">
@@ -77506,10 +77506,10 @@
         </is>
       </c>
       <c r="S964" t="n">
-        <v>325</v>
+        <v>733</v>
       </c>
       <c r="T964" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="965">
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -77555,25 +77555,25 @@
       </c>
       <c r="K965" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M965" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N965" t="n">
-        <v>470000</v>
+        <v>100000</v>
       </c>
       <c r="O965" t="n">
-        <v>470000</v>
+        <v>100000</v>
       </c>
       <c r="P965" t="n">
-        <v>470000</v>
+        <v>100000</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77586,7 +77586,7 @@
         </is>
       </c>
       <c r="S965" t="n">
-        <v>1175</v>
+        <v>250</v>
       </c>
       <c r="T965" t="n">
         <v>400</v>
@@ -77607,7 +77607,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -77635,25 +77635,25 @@
       </c>
       <c r="K966" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M966" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N966" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="O966" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P966" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
@@ -77662,11 +77662,11 @@
       </c>
       <c r="R966" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S966" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="T966" t="n">
         <v>400</v>
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -77715,25 +77715,25 @@
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M967" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N967" t="n">
-        <v>430000</v>
+        <v>130000</v>
       </c>
       <c r="O967" t="n">
-        <v>430000</v>
+        <v>130000</v>
       </c>
       <c r="P967" t="n">
-        <v>430000</v>
+        <v>130000</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
@@ -77742,11 +77742,11 @@
       </c>
       <c r="R967" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S967" t="n">
-        <v>1075</v>
+        <v>325</v>
       </c>
       <c r="T967" t="n">
         <v>400</v>
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -77795,25 +77795,25 @@
       </c>
       <c r="K968" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M968" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N968" t="n">
-        <v>450000</v>
+        <v>130000</v>
       </c>
       <c r="O968" t="n">
-        <v>450000</v>
+        <v>130000</v>
       </c>
       <c r="P968" t="n">
-        <v>450000</v>
+        <v>130000</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77822,11 +77822,11 @@
       </c>
       <c r="R968" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S968" t="n">
-        <v>1125</v>
+        <v>325</v>
       </c>
       <c r="T968" t="n">
         <v>400</v>
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -77875,7 +77875,7 @@
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
@@ -77887,13 +77887,13 @@
         <v>15</v>
       </c>
       <c r="N969" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="O969" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="P969" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77902,11 +77902,11 @@
       </c>
       <c r="R969" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S969" t="n">
-        <v>300</v>
+        <v>1175</v>
       </c>
       <c r="T969" t="n">
         <v>400</v>
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -77955,25 +77955,25 @@
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M970" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N970" t="n">
-        <v>100000</v>
+        <v>480000</v>
       </c>
       <c r="O970" t="n">
-        <v>100000</v>
+        <v>480000</v>
       </c>
       <c r="P970" t="n">
-        <v>100000</v>
+        <v>480000</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77982,11 +77982,11 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S970" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="T970" t="n">
         <v>400</v>
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -78035,25 +78035,25 @@
       </c>
       <c r="K971" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M971" t="n">
         <v>15</v>
       </c>
       <c r="N971" t="n">
-        <v>100000</v>
+        <v>430000</v>
       </c>
       <c r="O971" t="n">
-        <v>100000</v>
+        <v>430000</v>
       </c>
       <c r="P971" t="n">
-        <v>100000</v>
+        <v>430000</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
@@ -78062,11 +78062,11 @@
       </c>
       <c r="R971" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S971" t="n">
-        <v>250</v>
+        <v>1075</v>
       </c>
       <c r="T971" t="n">
         <v>400</v>
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -78115,7 +78115,7 @@
       </c>
       <c r="K972" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L972" t="inlineStr">
@@ -78124,16 +78124,16 @@
         </is>
       </c>
       <c r="M972" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N972" t="n">
-        <v>80000</v>
+        <v>450000</v>
       </c>
       <c r="O972" t="n">
-        <v>80000</v>
+        <v>450000</v>
       </c>
       <c r="P972" t="n">
-        <v>80000</v>
+        <v>450000</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
@@ -78142,11 +78142,11 @@
       </c>
       <c r="R972" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S972" t="n">
-        <v>200</v>
+        <v>1125</v>
       </c>
       <c r="T972" t="n">
         <v>400</v>
@@ -78195,7 +78195,7 @@
       </c>
       <c r="K973" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L973" t="inlineStr">
@@ -78204,16 +78204,16 @@
         </is>
       </c>
       <c r="M973" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N973" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="O973" t="n">
         <v>120000</v>
       </c>
       <c r="P973" t="n">
-        <v>117273</v>
+        <v>120000</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
@@ -78226,7 +78226,7 @@
         </is>
       </c>
       <c r="S973" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="T973" t="n">
         <v>400</v>
@@ -78275,41 +78275,41 @@
       </c>
       <c r="K974" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M974" t="n">
+        <v>15</v>
+      </c>
+      <c r="N974" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O974" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P974" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q974" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R974" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S974" t="n">
         <v>250</v>
       </c>
-      <c r="N974" t="n">
-        <v>5000</v>
-      </c>
-      <c r="O974" t="n">
-        <v>6000</v>
-      </c>
-      <c r="P974" t="n">
-        <v>5500</v>
-      </c>
-      <c r="Q974" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R974" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S974" t="n">
-        <v>306</v>
-      </c>
       <c r="T974" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="975">
@@ -78355,25 +78355,25 @@
       </c>
       <c r="K975" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N975" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="O975" t="n">
         <v>100000</v>
       </c>
       <c r="P975" t="n">
-        <v>97143</v>
+        <v>100000</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
@@ -78386,7 +78386,7 @@
         </is>
       </c>
       <c r="S975" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="T975" t="n">
         <v>400</v>
@@ -78435,7 +78435,7 @@
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L976" t="inlineStr">
@@ -78444,32 +78444,32 @@
         </is>
       </c>
       <c r="M976" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N976" t="n">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="O976" t="n">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="P976" t="n">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="T976" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="977">
@@ -78520,20 +78520,20 @@
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N977" t="n">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="O977" t="n">
-        <v>70000</v>
+        <v>120000</v>
       </c>
       <c r="P977" t="n">
-        <v>70000</v>
+        <v>117273</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78546,7 +78546,7 @@
         </is>
       </c>
       <c r="S977" t="n">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="T977" t="n">
         <v>400</v>
@@ -78567,7 +78567,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -78595,7 +78595,7 @@
       </c>
       <c r="K978" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L978" t="inlineStr">
@@ -78604,32 +78604,32 @@
         </is>
       </c>
       <c r="M978" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="N978" t="n">
-        <v>480000</v>
+        <v>5000</v>
       </c>
       <c r="O978" t="n">
-        <v>500000</v>
+        <v>6000</v>
       </c>
       <c r="P978" t="n">
-        <v>490000</v>
+        <v>5500</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R978" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S978" t="n">
-        <v>1225</v>
+        <v>306</v>
       </c>
       <c r="T978" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="979">
@@ -78647,7 +78647,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -78675,29 +78675,29 @@
       </c>
       <c r="K979" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M979" t="n">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="N979" t="n">
-        <v>17000</v>
+        <v>90000</v>
       </c>
       <c r="O979" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P979" t="n">
-        <v>17000</v>
+        <v>97143</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R979" t="inlineStr">
@@ -78706,10 +78706,10 @@
         </is>
       </c>
       <c r="S979" t="n">
-        <v>1133</v>
+        <v>243</v>
       </c>
       <c r="T979" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="980">
@@ -78727,7 +78727,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -78755,7 +78755,7 @@
       </c>
       <c r="K980" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L980" t="inlineStr">
@@ -78764,32 +78764,32 @@
         </is>
       </c>
       <c r="M980" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N980" t="n">
-        <v>430000</v>
+        <v>4000</v>
       </c>
       <c r="O980" t="n">
-        <v>430000</v>
+        <v>4000</v>
       </c>
       <c r="P980" t="n">
-        <v>430000</v>
+        <v>4000</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R980" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S980" t="n">
-        <v>1075</v>
+        <v>222</v>
       </c>
       <c r="T980" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="981">
@@ -78807,7 +78807,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -78835,25 +78835,25 @@
       </c>
       <c r="K981" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N981" t="n">
-        <v>360000</v>
+        <v>70000</v>
       </c>
       <c r="O981" t="n">
-        <v>370000</v>
+        <v>70000</v>
       </c>
       <c r="P981" t="n">
-        <v>365000</v>
+        <v>70000</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78862,11 +78862,11 @@
       </c>
       <c r="R981" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S981" t="n">
-        <v>912</v>
+        <v>175</v>
       </c>
       <c r="T981" t="n">
         <v>400</v>
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -78915,7 +78915,7 @@
       </c>
       <c r="K982" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L982" t="inlineStr">
@@ -78924,16 +78924,16 @@
         </is>
       </c>
       <c r="M982" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N982" t="n">
-        <v>350000</v>
+        <v>480000</v>
       </c>
       <c r="O982" t="n">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="P982" t="n">
-        <v>350000</v>
+        <v>490000</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78942,11 +78942,11 @@
       </c>
       <c r="R982" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S982" t="n">
-        <v>875</v>
+        <v>1225</v>
       </c>
       <c r="T982" t="n">
         <v>400</v>
@@ -78967,7 +78967,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -78995,7 +78995,7 @@
       </c>
       <c r="K983" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L983" t="inlineStr">
@@ -79004,32 +79004,32 @@
         </is>
       </c>
       <c r="M983" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N983" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O983" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P983" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S983" t="n">
-        <v>833</v>
+        <v>1133</v>
       </c>
       <c r="T983" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="984">
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -79075,7 +79075,7 @@
       </c>
       <c r="K984" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L984" t="inlineStr">
@@ -79084,16 +79084,16 @@
         </is>
       </c>
       <c r="M984" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N984" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="O984" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="P984" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79102,11 +79102,11 @@
       </c>
       <c r="R984" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S984" t="n">
-        <v>750</v>
+        <v>1075</v>
       </c>
       <c r="T984" t="n">
         <v>400</v>
@@ -79160,36 +79160,36 @@
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M985" t="n">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="N985" t="n">
-        <v>12000</v>
+        <v>360000</v>
       </c>
       <c r="O985" t="n">
-        <v>13000</v>
+        <v>370000</v>
       </c>
       <c r="P985" t="n">
-        <v>12500</v>
+        <v>365000</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S985" t="n">
-        <v>694</v>
+        <v>912</v>
       </c>
       <c r="T985" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="986">
@@ -79235,7 +79235,7 @@
       </c>
       <c r="K986" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L986" t="inlineStr">
@@ -79244,32 +79244,32 @@
         </is>
       </c>
       <c r="M986" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
       <c r="N986" t="n">
-        <v>16000</v>
+        <v>350000</v>
       </c>
       <c r="O986" t="n">
-        <v>16000</v>
+        <v>350000</v>
       </c>
       <c r="P986" t="n">
-        <v>16000</v>
+        <v>350000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>1067</v>
+        <v>875</v>
       </c>
       <c r="T986" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="987">
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79315,7 +79315,7 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
@@ -79324,32 +79324,32 @@
         </is>
       </c>
       <c r="M987" t="n">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="N987" t="n">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="O987" t="n">
-        <v>140000</v>
+        <v>15000</v>
       </c>
       <c r="P987" t="n">
-        <v>130000</v>
+        <v>15000</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>325</v>
+        <v>833</v>
       </c>
       <c r="T987" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="988">
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79395,41 +79395,41 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="N988" t="n">
-        <v>5000</v>
+        <v>300000</v>
       </c>
       <c r="O988" t="n">
-        <v>6000</v>
+        <v>300000</v>
       </c>
       <c r="P988" t="n">
-        <v>5500</v>
+        <v>300000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>306</v>
+        <v>750</v>
       </c>
       <c r="T988" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="989">
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79475,7 +79475,7 @@
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
@@ -79484,32 +79484,32 @@
         </is>
       </c>
       <c r="M989" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N989" t="n">
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="O989" t="n">
-        <v>100000</v>
+        <v>13000</v>
       </c>
       <c r="P989" t="n">
-        <v>100000</v>
+        <v>12500</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>250</v>
+        <v>694</v>
       </c>
       <c r="T989" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="990">
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79555,29 +79555,29 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="N990" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="O990" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="P990" t="n">
-        <v>3750</v>
+        <v>16000</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R990" t="inlineStr">
@@ -79586,10 +79586,10 @@
         </is>
       </c>
       <c r="S990" t="n">
-        <v>208</v>
+        <v>1067</v>
       </c>
       <c r="T990" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="991">
@@ -79635,7 +79635,7 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
@@ -79650,11 +79650,11 @@
         <v>120000</v>
       </c>
       <c r="O991" t="n">
+        <v>140000</v>
+      </c>
+      <c r="P991" t="n">
         <v>130000</v>
       </c>
-      <c r="P991" t="n">
-        <v>125000</v>
-      </c>
       <c r="Q991" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
@@ -79666,7 +79666,7 @@
         </is>
       </c>
       <c r="S991" t="n">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="T991" t="n">
         <v>400</v>
@@ -79715,7 +79715,7 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
@@ -79724,20 +79724,20 @@
         </is>
       </c>
       <c r="M992" t="n">
-        <v>827</v>
+        <v>300</v>
       </c>
       <c r="N992" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O992" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P992" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R992" t="inlineStr">
@@ -79746,10 +79746,10 @@
         </is>
       </c>
       <c r="S992" t="n">
-        <v>467</v>
+        <v>306</v>
       </c>
       <c r="T992" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="993">
@@ -79795,29 +79795,29 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M993" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="N993" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="O993" t="n">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="P993" t="n">
-        <v>5500</v>
+        <v>100000</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R993" t="inlineStr">
@@ -79826,10 +79826,10 @@
         </is>
       </c>
       <c r="S993" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="T993" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="994">
@@ -79875,7 +79875,7 @@
       </c>
       <c r="K994" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L994" t="inlineStr">
@@ -79884,20 +79884,20 @@
         </is>
       </c>
       <c r="M994" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N994" t="n">
-        <v>100000</v>
+        <v>3500</v>
       </c>
       <c r="O994" t="n">
-        <v>100000</v>
+        <v>4000</v>
       </c>
       <c r="P994" t="n">
-        <v>100000</v>
+        <v>3750</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R994" t="inlineStr">
@@ -79906,10 +79906,10 @@
         </is>
       </c>
       <c r="S994" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="T994" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="995">
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79964,16 +79964,16 @@
         </is>
       </c>
       <c r="M995" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N995" t="n">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="O995" t="n">
-        <v>330000</v>
+        <v>130000</v>
       </c>
       <c r="P995" t="n">
-        <v>330000</v>
+        <v>125000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79986,7 +79986,7 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>825</v>
+        <v>312</v>
       </c>
       <c r="T995" t="n">
         <v>400</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80040,36 +80040,36 @@
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M996" t="n">
+        <v>827</v>
+      </c>
+      <c r="N996" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O996" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P996" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q996" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R996" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S996" t="n">
+        <v>467</v>
+      </c>
+      <c r="T996" t="n">
         <v>15</v>
-      </c>
-      <c r="N996" t="n">
-        <v>290000</v>
-      </c>
-      <c r="O996" t="n">
-        <v>290000</v>
-      </c>
-      <c r="P996" t="n">
-        <v>290000</v>
-      </c>
-      <c r="Q996" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R996" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S996" t="n">
-        <v>725</v>
-      </c>
-      <c r="T996" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="997">
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80115,41 +80115,41 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M997" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="N997" t="n">
-        <v>360000</v>
+        <v>5000</v>
       </c>
       <c r="O997" t="n">
-        <v>360000</v>
+        <v>6000</v>
       </c>
       <c r="P997" t="n">
-        <v>360000</v>
+        <v>5500</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>900</v>
+        <v>306</v>
       </c>
       <c r="T997" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="998">
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80195,25 +80195,25 @@
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N998" t="n">
-        <v>340000</v>
+        <v>100000</v>
       </c>
       <c r="O998" t="n">
-        <v>340000</v>
+        <v>100000</v>
       </c>
       <c r="P998" t="n">
-        <v>340000</v>
+        <v>100000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80222,11 +80222,11 @@
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="T998" t="n">
         <v>400</v>
@@ -80275,7 +80275,7 @@
       </c>
       <c r="K999" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L999" t="inlineStr">
@@ -80284,20 +80284,20 @@
         </is>
       </c>
       <c r="M999" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="N999" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="O999" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="P999" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R999" t="inlineStr">
@@ -80306,10 +80306,10 @@
         </is>
       </c>
       <c r="S999" t="n">
-        <v>867</v>
+        <v>825</v>
       </c>
       <c r="T999" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1000">
@@ -80355,7 +80355,7 @@
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
@@ -80364,16 +80364,16 @@
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N1000" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="O1000" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P1000" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
@@ -80382,11 +80382,11 @@
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="T1000" t="n">
         <v>400</v>
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80440,20 +80440,20 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N1001" t="n">
-        <v>430000</v>
+        <v>360000</v>
       </c>
       <c r="O1001" t="n">
-        <v>440000</v>
+        <v>360000</v>
       </c>
       <c r="P1001" t="n">
-        <v>435000</v>
+        <v>360000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>1088</v>
+        <v>900</v>
       </c>
       <c r="T1001" t="n">
         <v>400</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80524,20 +80524,20 @@
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="N1002" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="O1002" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="P1002" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1002" t="inlineStr">
@@ -80546,10 +80546,10 @@
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>1062</v>
+        <v>850</v>
       </c>
       <c r="T1002" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1003">
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80600,36 +80600,36 @@
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="N1003" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O1003" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P1003" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T1003" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1004">
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -80675,25 +80675,25 @@
       </c>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N1004" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="O1004" t="n">
-        <v>140000</v>
+        <v>300000</v>
       </c>
       <c r="P1004" t="n">
-        <v>135000</v>
+        <v>300000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80702,11 +80702,11 @@
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>338</v>
+        <v>750</v>
       </c>
       <c r="T1004" t="n">
         <v>400</v>
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -80755,25 +80755,25 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N1005" t="n">
-        <v>100000</v>
+        <v>430000</v>
       </c>
       <c r="O1005" t="n">
-        <v>100000</v>
+        <v>440000</v>
       </c>
       <c r="P1005" t="n">
-        <v>100000</v>
+        <v>435000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80786,7 +80786,7 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>250</v>
+        <v>1088</v>
       </c>
       <c r="T1005" t="n">
         <v>400</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80835,7 +80835,7 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
@@ -80844,32 +80844,32 @@
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N1006" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="O1006" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P1006" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>361</v>
+        <v>1062</v>
       </c>
       <c r="T1006" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1007">
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80915,41 +80915,41 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="N1007" t="n">
-        <v>120000</v>
+        <v>16000</v>
       </c>
       <c r="O1007" t="n">
-        <v>130000</v>
+        <v>16000</v>
       </c>
       <c r="P1007" t="n">
-        <v>125000</v>
+        <v>16000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>312</v>
+        <v>1000</v>
       </c>
       <c r="T1007" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1008">
@@ -80995,7 +80995,7 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
@@ -81004,32 +81004,32 @@
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N1008" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="O1008" t="n">
-        <v>7000</v>
+        <v>140000</v>
       </c>
       <c r="P1008" t="n">
-        <v>6500</v>
+        <v>135000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="T1008" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1009">
@@ -81075,7 +81075,7 @@
       </c>
       <c r="K1009" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1009" t="inlineStr">
@@ -81084,16 +81084,16 @@
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N1009" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="O1009" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="P1009" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81106,7 +81106,7 @@
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="T1009" t="n">
         <v>400</v>
@@ -81155,25 +81155,25 @@
       </c>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1010" t="n">
         <v>250</v>
       </c>
       <c r="N1010" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O1010" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P1010" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81186,7 +81186,7 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="T1010" t="n">
         <v>18</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81235,7 +81235,7 @@
       </c>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1011" t="inlineStr">
@@ -81244,20 +81244,20 @@
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="N1011" t="n">
-        <v>6000</v>
+        <v>120000</v>
       </c>
       <c r="O1011" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="P1011" t="n">
-        <v>6500</v>
+        <v>125000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1011" t="inlineStr">
@@ -81266,10 +81266,10 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="T1011" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1012">
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81315,25 +81315,25 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N1012" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O1012" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P1012" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81342,11 +81342,11 @@
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="T1012" t="n">
         <v>18</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81395,25 +81395,25 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N1013" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="O1013" t="n">
-        <v>130000</v>
+        <v>90000</v>
       </c>
       <c r="P1013" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81422,11 +81422,11 @@
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="T1013" t="n">
         <v>400</v>
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81475,12 +81475,12 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1014" t="n">
@@ -81490,10 +81490,10 @@
         <v>5000</v>
       </c>
       <c r="O1014" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P1014" t="n">
-        <v>5250</v>
+        <v>5000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81502,11 +81502,11 @@
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="T1014" t="n">
         <v>18</v>
@@ -81555,41 +81555,41 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="N1015" t="n">
-        <v>90000</v>
+        <v>6000</v>
       </c>
       <c r="O1015" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="P1015" t="n">
-        <v>90000</v>
+        <v>6500</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>225</v>
+        <v>361</v>
       </c>
       <c r="T1015" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1016">
@@ -81635,7 +81635,7 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
@@ -81644,16 +81644,16 @@
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N1016" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O1016" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P1016" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81662,11 +81662,11 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="T1016" t="n">
         <v>18</v>
@@ -81715,25 +81715,25 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N1017" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="O1017" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="P1017" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81746,7 +81746,7 @@
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="T1017" t="n">
         <v>400</v>
@@ -81795,7 +81795,7 @@
       </c>
       <c r="K1018" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1018" t="inlineStr">
@@ -81804,20 +81804,20 @@
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N1018" t="n">
-        <v>130000</v>
+        <v>5000</v>
       </c>
       <c r="O1018" t="n">
-        <v>130000</v>
+        <v>5500</v>
       </c>
       <c r="P1018" t="n">
-        <v>130000</v>
+        <v>5250</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1018" t="inlineStr">
@@ -81826,10 +81826,10 @@
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="T1018" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1019">
@@ -81875,25 +81875,25 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N1019" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="O1019" t="n">
-        <v>130000</v>
+        <v>90000</v>
       </c>
       <c r="P1019" t="n">
-        <v>125000</v>
+        <v>90000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81902,11 +81902,11 @@
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="T1019" t="n">
         <v>400</v>
@@ -81955,25 +81955,25 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="N1020" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O1020" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P1020" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81986,7 +81986,7 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="T1020" t="n">
         <v>18</v>
@@ -82040,20 +82040,20 @@
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N1021" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="O1021" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="P1021" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82066,7 +82066,7 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="T1021" t="n">
         <v>400</v>
@@ -82120,20 +82120,20 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N1022" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O1022" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P1022" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82142,11 +82142,11 @@
       </c>
       <c r="R1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="T1022" t="n">
         <v>400</v>
@@ -82195,40 +82195,360 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1023" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>130000</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q1023" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1023" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1023" t="n">
+        <v>312</v>
+      </c>
+      <c r="T1023" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1024" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1024" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1024" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1024" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1024" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1024" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q1024" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1024" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1024" t="n">
+        <v>361</v>
+      </c>
+      <c r="T1024" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1025" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1025" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1025" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1025" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1025" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1025" t="n">
+        <v>25</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q1025" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1025" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1025" t="n">
+        <v>250</v>
+      </c>
+      <c r="T1025" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1026" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1026" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1026" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1026" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1026" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1026" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1026" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q1026" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1026" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1026" t="n">
+        <v>250</v>
+      </c>
+      <c r="T1026" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1027" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1027" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1027" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1027" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
           <t>Thompson</t>
         </is>
       </c>
-      <c r="L1023" t="inlineStr">
+      <c r="L1027" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1023" t="n">
+      <c r="M1027" t="n">
         <v>630</v>
       </c>
-      <c r="N1023" t="n">
+      <c r="N1027" t="n">
         <v>9000</v>
       </c>
-      <c r="O1023" t="n">
+      <c r="O1027" t="n">
         <v>9000</v>
       </c>
-      <c r="P1023" t="n">
+      <c r="P1027" t="n">
         <v>9000</v>
       </c>
-      <c r="Q1023" t="inlineStr">
+      <c r="Q1027" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R1023" t="inlineStr">
+      <c r="R1027" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1023" t="n">
+      <c r="S1027" t="n">
         <v>600</v>
       </c>
-      <c r="T1023" t="n">
+      <c r="T1027" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1066"/>
+  <dimension ref="A1:T1071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -79075,25 +79075,25 @@
       </c>
       <c r="K984" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N984" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O984" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P984" t="n">
-        <v>200000</v>
+        <v>125806</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79102,11 +79102,11 @@
       </c>
       <c r="R984" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S984" t="n">
-        <v>500</v>
+        <v>315</v>
       </c>
       <c r="T984" t="n">
         <v>400</v>
@@ -79127,7 +79127,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -79155,7 +79155,7 @@
       </c>
       <c r="K985" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L985" t="inlineStr">
@@ -79164,16 +79164,16 @@
         </is>
       </c>
       <c r="M985" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N985" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O985" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P985" t="n">
-        <v>170000</v>
+        <v>132708</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
@@ -79186,7 +79186,7 @@
         </is>
       </c>
       <c r="S985" t="n">
-        <v>425</v>
+        <v>332</v>
       </c>
       <c r="T985" t="n">
         <v>400</v>
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -79235,7 +79235,7 @@
       </c>
       <c r="K986" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L986" t="inlineStr">
@@ -79244,16 +79244,16 @@
         </is>
       </c>
       <c r="M986" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N986" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O986" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="P986" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
@@ -79262,11 +79262,11 @@
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="T986" t="n">
         <v>400</v>
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79315,25 +79315,25 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M987" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N987" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="O987" t="n">
-        <v>190000</v>
+        <v>115000</v>
       </c>
       <c r="P987" t="n">
-        <v>184706</v>
+        <v>111667</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
@@ -79342,11 +79342,11 @@
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>462</v>
+        <v>279</v>
       </c>
       <c r="T987" t="n">
         <v>400</v>
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79395,25 +79395,25 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N988" t="n">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="O988" t="n">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="P988" t="n">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
@@ -79422,11 +79422,11 @@
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T988" t="n">
         <v>400</v>
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79475,7 +79475,7 @@
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
@@ -79484,16 +79484,16 @@
         </is>
       </c>
       <c r="M989" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N989" t="n">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="O989" t="n">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="P989" t="n">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79502,11 +79502,11 @@
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T989" t="n">
         <v>400</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79555,7 +79555,7 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
@@ -79564,16 +79564,16 @@
         </is>
       </c>
       <c r="M990" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N990" t="n">
-        <v>420000</v>
+        <v>170000</v>
       </c>
       <c r="O990" t="n">
-        <v>420000</v>
+        <v>170000</v>
       </c>
       <c r="P990" t="n">
-        <v>420000</v>
+        <v>170000</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79582,11 +79582,11 @@
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>1050</v>
+        <v>425</v>
       </c>
       <c r="T990" t="n">
         <v>400</v>
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79635,25 +79635,25 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M991" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N991" t="n">
-        <v>390000</v>
+        <v>150000</v>
       </c>
       <c r="O991" t="n">
-        <v>390000</v>
+        <v>150000</v>
       </c>
       <c r="P991" t="n">
-        <v>390000</v>
+        <v>150000</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79666,7 +79666,7 @@
         </is>
       </c>
       <c r="S991" t="n">
-        <v>975</v>
+        <v>375</v>
       </c>
       <c r="T991" t="n">
         <v>400</v>
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -79715,7 +79715,7 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
@@ -79724,32 +79724,32 @@
         </is>
       </c>
       <c r="M992" t="n">
-        <v>490</v>
+        <v>34</v>
       </c>
       <c r="N992" t="n">
-        <v>17000</v>
+        <v>180000</v>
       </c>
       <c r="O992" t="n">
-        <v>17000</v>
+        <v>190000</v>
       </c>
       <c r="P992" t="n">
-        <v>17000</v>
+        <v>184706</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>1133</v>
+        <v>462</v>
       </c>
       <c r="T992" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="993">
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79795,7 +79795,7 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
@@ -79804,16 +79804,16 @@
         </is>
       </c>
       <c r="M993" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N993" t="n">
-        <v>350000</v>
+        <v>160000</v>
       </c>
       <c r="O993" t="n">
-        <v>350000</v>
+        <v>160000</v>
       </c>
       <c r="P993" t="n">
-        <v>350000</v>
+        <v>160000</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
@@ -79822,11 +79822,11 @@
       </c>
       <c r="R993" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S993" t="n">
-        <v>875</v>
+        <v>400</v>
       </c>
       <c r="T993" t="n">
         <v>400</v>
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79880,20 +79880,20 @@
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N994" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="O994" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="P994" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
@@ -79906,7 +79906,7 @@
         </is>
       </c>
       <c r="S994" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T994" t="n">
         <v>400</v>
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79964,16 +79964,16 @@
         </is>
       </c>
       <c r="M995" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N995" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="O995" t="n">
-        <v>310000</v>
+        <v>420000</v>
       </c>
       <c r="P995" t="n">
-        <v>305000</v>
+        <v>420000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79982,11 +79982,11 @@
       </c>
       <c r="R995" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S995" t="n">
-        <v>762</v>
+        <v>1050</v>
       </c>
       <c r="T995" t="n">
         <v>400</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80035,25 +80035,25 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N996" t="n">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="O996" t="n">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="P996" t="n">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
@@ -80066,7 +80066,7 @@
         </is>
       </c>
       <c r="S996" t="n">
-        <v>650</v>
+        <v>975</v>
       </c>
       <c r="T996" t="n">
         <v>400</v>
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80124,32 +80124,32 @@
         </is>
       </c>
       <c r="M997" t="n">
-        <v>32</v>
+        <v>490</v>
       </c>
       <c r="N997" t="n">
-        <v>320000</v>
+        <v>17000</v>
       </c>
       <c r="O997" t="n">
-        <v>320000</v>
+        <v>17000</v>
       </c>
       <c r="P997" t="n">
-        <v>320000</v>
+        <v>17000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="T997" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="998">
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80195,25 +80195,25 @@
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N998" t="n">
-        <v>120000</v>
+        <v>350000</v>
       </c>
       <c r="O998" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="P998" t="n">
-        <v>125000</v>
+        <v>350000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80222,11 +80222,11 @@
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>312</v>
+        <v>875</v>
       </c>
       <c r="T998" t="n">
         <v>400</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80275,25 +80275,25 @@
       </c>
       <c r="K999" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N999" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="O999" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="P999" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="T999" t="n">
         <v>400</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80355,7 +80355,7 @@
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
@@ -80364,16 +80364,16 @@
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N1000" t="n">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="O1000" t="n">
-        <v>130000</v>
+        <v>310000</v>
       </c>
       <c r="P1000" t="n">
-        <v>125000</v>
+        <v>305000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
@@ -80382,11 +80382,11 @@
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>312</v>
+        <v>762</v>
       </c>
       <c r="T1000" t="n">
         <v>400</v>
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80435,7 +80435,7 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
@@ -80444,16 +80444,16 @@
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1001" t="n">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="O1001" t="n">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="P1001" t="n">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="T1001" t="n">
         <v>400</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80515,7 +80515,7 @@
       </c>
       <c r="K1002" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1002" t="inlineStr">
@@ -80524,16 +80524,16 @@
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N1002" t="n">
-        <v>110000</v>
+        <v>320000</v>
       </c>
       <c r="O1002" t="n">
-        <v>110000</v>
+        <v>320000</v>
       </c>
       <c r="P1002" t="n">
-        <v>110000</v>
+        <v>320000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80542,11 +80542,11 @@
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>275</v>
+        <v>800</v>
       </c>
       <c r="T1002" t="n">
         <v>400</v>
@@ -80595,7 +80595,7 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
@@ -80604,16 +80604,16 @@
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1003" t="n">
         <v>120000</v>
       </c>
       <c r="O1003" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P1003" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80622,11 +80622,11 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="T1003" t="n">
         <v>400</v>
@@ -80675,41 +80675,41 @@
       </c>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1004" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q1004" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1004" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1004" t="n">
         <v>250</v>
       </c>
-      <c r="N1004" t="n">
-        <v>6000</v>
-      </c>
-      <c r="O1004" t="n">
-        <v>6000</v>
-      </c>
-      <c r="P1004" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q1004" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1004" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S1004" t="n">
-        <v>333</v>
-      </c>
       <c r="T1004" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1005">
@@ -80755,25 +80755,25 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1005" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="O1005" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P1005" t="n">
-        <v>90000</v>
+        <v>125000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80786,7 +80786,7 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="T1005" t="n">
         <v>400</v>
@@ -80835,7 +80835,7 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
@@ -80844,7 +80844,7 @@
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1006" t="n">
         <v>100000</v>
@@ -80862,7 +80862,7 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1006" t="n">
@@ -80920,24 +80920,24 @@
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N1007" t="n">
-        <v>4000</v>
+        <v>110000</v>
       </c>
       <c r="O1007" t="n">
-        <v>4000</v>
+        <v>110000</v>
       </c>
       <c r="P1007" t="n">
-        <v>4000</v>
+        <v>110000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
@@ -80946,10 +80946,10 @@
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="T1007" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1008">
@@ -80995,7 +80995,7 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
@@ -81004,16 +81004,16 @@
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N1008" t="n">
         <v>120000</v>
       </c>
       <c r="O1008" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P1008" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81026,7 +81026,7 @@
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="T1008" t="n">
         <v>400</v>
@@ -81075,7 +81075,7 @@
       </c>
       <c r="K1009" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1009" t="inlineStr">
@@ -81084,16 +81084,16 @@
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="N1009" t="n">
         <v>6000</v>
       </c>
       <c r="O1009" t="n">
-        <v>120000</v>
+        <v>6000</v>
       </c>
       <c r="P1009" t="n">
-        <v>14444</v>
+        <v>6000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81106,7 +81106,7 @@
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>802</v>
+        <v>333</v>
       </c>
       <c r="T1009" t="n">
         <v>18</v>
@@ -81155,7 +81155,7 @@
       </c>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1010" t="inlineStr">
@@ -81164,20 +81164,20 @@
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="N1010" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="O1010" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="P1010" t="n">
-        <v>8861</v>
+        <v>90000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1010" t="inlineStr">
@@ -81186,10 +81186,10 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>492</v>
+        <v>225</v>
       </c>
       <c r="T1010" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1011">
@@ -81235,29 +81235,29 @@
       </c>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="N1011" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="O1011" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="P1011" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1011" t="inlineStr">
@@ -81266,10 +81266,10 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="T1011" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1012">
@@ -81315,41 +81315,41 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N1012" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O1012" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P1012" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>600</v>
+        <v>222</v>
       </c>
       <c r="T1012" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1013">
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81395,7 +81395,7 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
@@ -81404,7 +81404,7 @@
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N1013" t="n">
         <v>120000</v>
@@ -81413,7 +81413,7 @@
         <v>130000</v>
       </c>
       <c r="P1013" t="n">
-        <v>122593</v>
+        <v>125000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81426,7 +81426,7 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="T1013" t="n">
         <v>400</v>
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81475,41 +81475,41 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="N1014" t="n">
-        <v>80000</v>
+        <v>6000</v>
       </c>
       <c r="O1014" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="P1014" t="n">
-        <v>80000</v>
+        <v>14444</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>200</v>
+        <v>802</v>
       </c>
       <c r="T1014" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1015">
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81555,29 +81555,29 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="N1015" t="n">
-        <v>110000</v>
+        <v>4000</v>
       </c>
       <c r="O1015" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P1015" t="n">
-        <v>115000</v>
+        <v>8861</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
@@ -81586,10 +81586,10 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>288</v>
+        <v>492</v>
       </c>
       <c r="T1015" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1016">
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81635,7 +81635,7 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
@@ -81644,20 +81644,20 @@
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="N1016" t="n">
-        <v>120000</v>
+        <v>9000</v>
       </c>
       <c r="O1016" t="n">
-        <v>130000</v>
+        <v>9000</v>
       </c>
       <c r="P1016" t="n">
-        <v>125000</v>
+        <v>9000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1016" t="inlineStr">
@@ -81666,10 +81666,10 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>312</v>
+        <v>600</v>
       </c>
       <c r="T1016" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1017">
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81715,7 +81715,7 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
@@ -81724,20 +81724,20 @@
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N1017" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O1017" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P1017" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
@@ -81746,10 +81746,10 @@
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>306</v>
+        <v>600</v>
       </c>
       <c r="T1017" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1018">
@@ -81795,25 +81795,25 @@
       </c>
       <c r="K1018" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1018" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="O1018" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P1018" t="n">
-        <v>90000</v>
+        <v>122593</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81826,7 +81826,7 @@
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="T1018" t="n">
         <v>400</v>
@@ -81875,7 +81875,7 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
@@ -81884,20 +81884,20 @@
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N1019" t="n">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="O1019" t="n">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="P1019" t="n">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1019" t="inlineStr">
@@ -81906,10 +81906,10 @@
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="T1019" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1020">
@@ -81955,7 +81955,7 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
@@ -81964,7 +81964,7 @@
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N1020" t="n">
         <v>110000</v>
@@ -81982,7 +81982,7 @@
       </c>
       <c r="R1020" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1020" t="n">
@@ -82035,7 +82035,7 @@
       </c>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1021" t="inlineStr">
@@ -82044,32 +82044,32 @@
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N1021" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O1021" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="P1021" t="n">
-        <v>5500</v>
+        <v>125000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="T1021" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1022">
@@ -82115,29 +82115,29 @@
       </c>
       <c r="K1022" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N1022" t="n">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="O1022" t="n">
-        <v>80000</v>
+        <v>6000</v>
       </c>
       <c r="P1022" t="n">
-        <v>80000</v>
+        <v>5500</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1022" t="inlineStr">
@@ -82146,10 +82146,10 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="T1022" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1023">
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -82195,25 +82195,25 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N1023" t="n">
-        <v>470000</v>
+        <v>90000</v>
       </c>
       <c r="O1023" t="n">
-        <v>480000</v>
+        <v>90000</v>
       </c>
       <c r="P1023" t="n">
-        <v>475000</v>
+        <v>90000</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
@@ -82226,7 +82226,7 @@
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>1188</v>
+        <v>225</v>
       </c>
       <c r="T1023" t="n">
         <v>400</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -82275,29 +82275,29 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="N1024" t="n">
-        <v>480000</v>
+        <v>4000</v>
       </c>
       <c r="O1024" t="n">
-        <v>500000</v>
+        <v>4000</v>
       </c>
       <c r="P1024" t="n">
-        <v>490000</v>
+        <v>4000</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1024" t="inlineStr">
@@ -82306,10 +82306,10 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>1225</v>
+        <v>222</v>
       </c>
       <c r="T1024" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1025">
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -82355,7 +82355,7 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
@@ -82364,32 +82364,32 @@
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="N1025" t="n">
-        <v>17000</v>
+        <v>110000</v>
       </c>
       <c r="O1025" t="n">
-        <v>17000</v>
+        <v>120000</v>
       </c>
       <c r="P1025" t="n">
-        <v>17000</v>
+        <v>115000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>1062</v>
+        <v>288</v>
       </c>
       <c r="T1025" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1026">
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -82435,41 +82435,41 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N1026" t="n">
-        <v>440000</v>
+        <v>5000</v>
       </c>
       <c r="O1026" t="n">
-        <v>440000</v>
+        <v>6000</v>
       </c>
       <c r="P1026" t="n">
-        <v>440000</v>
+        <v>5500</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>1100</v>
+        <v>306</v>
       </c>
       <c r="T1026" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1027">
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82515,7 +82515,7 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
@@ -82524,32 +82524,32 @@
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="N1027" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="O1027" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="P1027" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>938</v>
+        <v>200</v>
       </c>
       <c r="T1027" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1028">
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82595,7 +82595,7 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
@@ -82604,16 +82604,16 @@
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N1028" t="n">
-        <v>320000</v>
+        <v>470000</v>
       </c>
       <c r="O1028" t="n">
-        <v>320000</v>
+        <v>480000</v>
       </c>
       <c r="P1028" t="n">
-        <v>320000</v>
+        <v>475000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82626,7 +82626,7 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>800</v>
+        <v>1188</v>
       </c>
       <c r="T1028" t="n">
         <v>400</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82675,25 +82675,25 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1029" t="n">
-        <v>300000</v>
+        <v>480000</v>
       </c>
       <c r="O1029" t="n">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="P1029" t="n">
-        <v>300000</v>
+        <v>490000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82706,7 +82706,7 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>750</v>
+        <v>1225</v>
       </c>
       <c r="T1029" t="n">
         <v>400</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82764,32 +82764,32 @@
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>18</v>
+        <v>370</v>
       </c>
       <c r="N1030" t="n">
-        <v>480000</v>
+        <v>17000</v>
       </c>
       <c r="O1030" t="n">
-        <v>480000</v>
+        <v>17000</v>
       </c>
       <c r="P1030" t="n">
-        <v>480000</v>
+        <v>17000</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>1200</v>
+        <v>1062</v>
       </c>
       <c r="T1030" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1031">
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82840,36 +82840,36 @@
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="N1031" t="n">
-        <v>17000</v>
+        <v>440000</v>
       </c>
       <c r="O1031" t="n">
-        <v>18000</v>
+        <v>440000</v>
       </c>
       <c r="P1031" t="n">
-        <v>17480</v>
+        <v>440000</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="T1031" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1032">
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82924,32 +82924,32 @@
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="N1032" t="n">
-        <v>440000</v>
+        <v>15000</v>
       </c>
       <c r="O1032" t="n">
-        <v>440000</v>
+        <v>15000</v>
       </c>
       <c r="P1032" t="n">
-        <v>440000</v>
+        <v>15000</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>1100</v>
+        <v>938</v>
       </c>
       <c r="T1032" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1033">
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -82995,41 +82995,41 @@
       </c>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>330</v>
+        <v>25</v>
       </c>
       <c r="N1033" t="n">
-        <v>14000</v>
+        <v>320000</v>
       </c>
       <c r="O1033" t="n">
-        <v>15000</v>
+        <v>320000</v>
       </c>
       <c r="P1033" t="n">
-        <v>14455</v>
+        <v>320000</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>903</v>
+        <v>800</v>
       </c>
       <c r="T1033" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1034">
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -83075,25 +83075,25 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N1034" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="O1034" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="P1034" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83102,11 +83102,11 @@
       </c>
       <c r="R1034" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>325</v>
+        <v>750</v>
       </c>
       <c r="T1034" t="n">
         <v>400</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83155,7 +83155,7 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
@@ -83164,16 +83164,16 @@
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N1035" t="n">
-        <v>130000</v>
+        <v>480000</v>
       </c>
       <c r="O1035" t="n">
-        <v>140000</v>
+        <v>480000</v>
       </c>
       <c r="P1035" t="n">
-        <v>135000</v>
+        <v>480000</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83186,7 +83186,7 @@
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>338</v>
+        <v>1200</v>
       </c>
       <c r="T1035" t="n">
         <v>400</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83235,7 +83235,7 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
@@ -83244,32 +83244,32 @@
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N1036" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O1036" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P1036" t="n">
-        <v>11000</v>
+        <v>17480</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>733</v>
+        <v>1092</v>
       </c>
       <c r="T1036" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1037">
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83315,7 +83315,7 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
@@ -83324,16 +83324,16 @@
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N1037" t="n">
-        <v>100000</v>
+        <v>440000</v>
       </c>
       <c r="O1037" t="n">
-        <v>100000</v>
+        <v>440000</v>
       </c>
       <c r="P1037" t="n">
-        <v>100000</v>
+        <v>440000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83342,11 +83342,11 @@
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="T1037" t="n">
         <v>400</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83395,7 +83395,7 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
@@ -83404,32 +83404,32 @@
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="N1038" t="n">
-        <v>120000</v>
+        <v>14000</v>
       </c>
       <c r="O1038" t="n">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="P1038" t="n">
-        <v>120000</v>
+        <v>14455</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>300</v>
+        <v>903</v>
       </c>
       <c r="T1038" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1039">
@@ -83475,7 +83475,7 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
@@ -83484,7 +83484,7 @@
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N1039" t="n">
         <v>130000</v>
@@ -83502,7 +83502,7 @@
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1039" t="n">
@@ -83555,7 +83555,7 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
@@ -83564,16 +83564,16 @@
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N1040" t="n">
         <v>130000</v>
       </c>
       <c r="O1040" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P1040" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83586,7 +83586,7 @@
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="T1040" t="n">
         <v>400</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83635,7 +83635,7 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
@@ -83644,20 +83644,20 @@
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="N1041" t="n">
-        <v>500000</v>
+        <v>11000</v>
       </c>
       <c r="O1041" t="n">
-        <v>530000</v>
+        <v>11000</v>
       </c>
       <c r="P1041" t="n">
-        <v>515000</v>
+        <v>11000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1041" t="inlineStr">
@@ -83666,10 +83666,10 @@
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>1288</v>
+        <v>733</v>
       </c>
       <c r="T1041" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1042">
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -83715,41 +83715,41 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="N1042" t="n">
-        <v>21000</v>
+        <v>100000</v>
       </c>
       <c r="O1042" t="n">
-        <v>21000</v>
+        <v>100000</v>
       </c>
       <c r="P1042" t="n">
-        <v>21000</v>
+        <v>100000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>1167</v>
+        <v>250</v>
       </c>
       <c r="T1042" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1043">
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -83795,41 +83795,41 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="N1043" t="n">
-        <v>19000</v>
+        <v>120000</v>
       </c>
       <c r="O1043" t="n">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="P1043" t="n">
-        <v>19500</v>
+        <v>120000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>1083</v>
+        <v>300</v>
       </c>
       <c r="T1043" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1044">
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -83875,7 +83875,7 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
@@ -83884,16 +83884,16 @@
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N1044" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="O1044" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P1044" t="n">
-        <v>155000</v>
+        <v>130000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
@@ -83902,11 +83902,11 @@
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="T1044" t="n">
         <v>400</v>
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -83955,16 +83955,16 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N1045" t="n">
         <v>130000</v>
@@ -83982,7 +83982,7 @@
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1045" t="n">
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84035,7 +84035,7 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
@@ -84044,16 +84044,16 @@
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1046" t="n">
-        <v>180000</v>
+        <v>500000</v>
       </c>
       <c r="O1046" t="n">
-        <v>180000</v>
+        <v>530000</v>
       </c>
       <c r="P1046" t="n">
-        <v>180000</v>
+        <v>515000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84062,11 +84062,11 @@
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>450</v>
+        <v>1288</v>
       </c>
       <c r="T1046" t="n">
         <v>400</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84115,41 +84115,41 @@
       </c>
       <c r="K1047" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N1047" t="n">
-        <v>160000</v>
+        <v>21000</v>
       </c>
       <c r="O1047" t="n">
-        <v>160000</v>
+        <v>21000</v>
       </c>
       <c r="P1047" t="n">
-        <v>160000</v>
+        <v>21000</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>400</v>
+        <v>1167</v>
       </c>
       <c r="T1047" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1048">
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84195,7 +84195,7 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
@@ -84204,32 +84204,32 @@
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N1048" t="n">
-        <v>180000</v>
+        <v>19000</v>
       </c>
       <c r="O1048" t="n">
-        <v>180000</v>
+        <v>20000</v>
       </c>
       <c r="P1048" t="n">
-        <v>180000</v>
+        <v>19500</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>450</v>
+        <v>1083</v>
       </c>
       <c r="T1048" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1049">
@@ -84275,25 +84275,25 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N1049" t="n">
         <v>150000</v>
       </c>
       <c r="O1049" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P1049" t="n">
-        <v>150000</v>
+        <v>155000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84302,11 +84302,11 @@
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="T1049" t="n">
         <v>400</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -84355,25 +84355,25 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N1050" t="n">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="O1050" t="n">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="P1050" t="n">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84382,11 +84382,11 @@
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>1250</v>
+        <v>325</v>
       </c>
       <c r="T1050" t="n">
         <v>400</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84435,7 +84435,7 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
@@ -84444,16 +84444,16 @@
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N1051" t="n">
-        <v>470000</v>
+        <v>180000</v>
       </c>
       <c r="O1051" t="n">
-        <v>470000</v>
+        <v>180000</v>
       </c>
       <c r="P1051" t="n">
-        <v>470000</v>
+        <v>180000</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84462,11 +84462,11 @@
       </c>
       <c r="R1051" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>1175</v>
+        <v>450</v>
       </c>
       <c r="T1051" t="n">
         <v>400</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84515,7 +84515,7 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
@@ -84524,16 +84524,16 @@
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1052" t="n">
-        <v>430000</v>
+        <v>160000</v>
       </c>
       <c r="O1052" t="n">
-        <v>430000</v>
+        <v>160000</v>
       </c>
       <c r="P1052" t="n">
-        <v>430000</v>
+        <v>160000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84542,11 +84542,11 @@
       </c>
       <c r="R1052" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>1075</v>
+        <v>400</v>
       </c>
       <c r="T1052" t="n">
         <v>400</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84595,25 +84595,25 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N1053" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O1053" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P1053" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="T1053" t="n">
         <v>400</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84675,25 +84675,25 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N1054" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O1054" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P1054" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84706,7 +84706,7 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="T1054" t="n">
         <v>400</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84755,25 +84755,25 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N1055" t="n">
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="O1055" t="n">
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="P1055" t="n">
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84786,7 +84786,7 @@
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>300</v>
+        <v>1250</v>
       </c>
       <c r="T1055" t="n">
         <v>400</v>
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -84835,7 +84835,7 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
@@ -84844,16 +84844,16 @@
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N1056" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="O1056" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="P1056" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84862,11 +84862,11 @@
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>300</v>
+        <v>1175</v>
       </c>
       <c r="T1056" t="n">
         <v>400</v>
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -84915,25 +84915,25 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N1057" t="n">
-        <v>120000</v>
+        <v>430000</v>
       </c>
       <c r="O1057" t="n">
-        <v>130000</v>
+        <v>430000</v>
       </c>
       <c r="P1057" t="n">
-        <v>125000</v>
+        <v>430000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84942,11 +84942,11 @@
       </c>
       <c r="R1057" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>312</v>
+        <v>1075</v>
       </c>
       <c r="T1057" t="n">
         <v>400</v>
@@ -84995,41 +84995,41 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="N1058" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O1058" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="P1058" t="n">
-        <v>5500</v>
+        <v>150000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1058" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="T1058" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1059">
@@ -85075,25 +85075,25 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1059" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O1059" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P1059" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85102,11 +85102,11 @@
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="T1059" t="n">
         <v>400</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85164,16 +85164,16 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N1060" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O1060" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P1060" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85182,11 +85182,11 @@
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T1060" t="n">
         <v>400</v>
@@ -85240,36 +85240,36 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="N1061" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="O1061" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="P1061" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="T1061" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1062">
@@ -85320,20 +85320,20 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1062" t="n">
-        <v>70000</v>
+        <v>120000</v>
       </c>
       <c r="O1062" t="n">
-        <v>70000</v>
+        <v>130000</v>
       </c>
       <c r="P1062" t="n">
-        <v>70000</v>
+        <v>125000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85346,7 +85346,7 @@
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="T1062" t="n">
         <v>400</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85395,7 +85395,7 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
@@ -85404,32 +85404,32 @@
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="N1063" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="O1063" t="n">
-        <v>270000</v>
+        <v>6000</v>
       </c>
       <c r="P1063" t="n">
-        <v>270000</v>
+        <v>5500</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>675</v>
+        <v>306</v>
       </c>
       <c r="T1063" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1064">
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85475,7 +85475,7 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
@@ -85487,13 +85487,13 @@
         <v>12</v>
       </c>
       <c r="N1064" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="O1064" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="P1064" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85502,11 +85502,11 @@
       </c>
       <c r="R1064" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="T1064" t="n">
         <v>400</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85555,25 +85555,25 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1065" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="O1065" t="n">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="P1065" t="n">
-        <v>255000</v>
+        <v>100000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85582,11 +85582,11 @@
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>638</v>
+        <v>250</v>
       </c>
       <c r="T1065" t="n">
         <v>400</v>
@@ -85607,68 +85607,468 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1066" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1066" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1066" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1066" t="n">
+        <v>180</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q1066" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1066" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1066" t="n">
+        <v>222</v>
+      </c>
+      <c r="T1066" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1067" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1067" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1067" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1067" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1067" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M1067" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>70000</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>70000</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>70000</v>
+      </c>
+      <c r="Q1067" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1067" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1067" t="n">
+        <v>175</v>
+      </c>
+      <c r="T1067" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1068" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E1066" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1066" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1066" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1066" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J1066" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K1066" t="inlineStr">
+      <c r="E1068" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1068" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1068" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1068" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L1068" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1068" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>270000</v>
+      </c>
+      <c r="Q1068" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1068" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S1068" t="n">
+        <v>675</v>
+      </c>
+      <c r="T1068" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1069" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1069" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1069" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1069" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L1069" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1069" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>240000</v>
+      </c>
+      <c r="Q1069" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1069" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S1069" t="n">
+        <v>600</v>
+      </c>
+      <c r="T1069" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1070" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1070" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1070" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1070" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1070" t="inlineStr">
         <is>
           <t>New Hall</t>
         </is>
       </c>
-      <c r="L1066" t="inlineStr">
+      <c r="L1070" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1070" t="n">
+        <v>24</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>255000</v>
+      </c>
+      <c r="Q1070" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1070" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1070" t="n">
+        <v>638</v>
+      </c>
+      <c r="T1070" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1071" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1071" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1071" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1071" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>New Hall</t>
+        </is>
+      </c>
+      <c r="L1071" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M1066" t="n">
+      <c r="M1071" t="n">
         <v>17</v>
       </c>
-      <c r="N1066" t="n">
+      <c r="N1071" t="n">
         <v>230000</v>
       </c>
-      <c r="O1066" t="n">
+      <c r="O1071" t="n">
         <v>230000</v>
       </c>
-      <c r="P1066" t="n">
+      <c r="P1071" t="n">
         <v>230000</v>
       </c>
-      <c r="Q1066" t="inlineStr">
+      <c r="Q1071" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
         </is>
       </c>
-      <c r="R1066" t="inlineStr">
+      <c r="R1071" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1066" t="n">
+      <c r="S1071" t="n">
         <v>575</v>
       </c>
-      <c r="T1066" t="n">
+      <c r="T1071" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1113"/>
+  <dimension ref="A1:T1118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77447,7 +77447,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -77484,16 +77484,16 @@
         </is>
       </c>
       <c r="M964" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N964" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="O964" t="n">
         <v>140000</v>
       </c>
       <c r="P964" t="n">
-        <v>135455</v>
+        <v>137500</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
@@ -77502,11 +77502,11 @@
       </c>
       <c r="R964" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S964" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="T964" t="n">
         <v>400</v>
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -77560,20 +77560,20 @@
       </c>
       <c r="L965" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M965" t="n">
         <v>24</v>
       </c>
       <c r="N965" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="O965" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P965" t="n">
-        <v>110000</v>
+        <v>145000</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77582,11 +77582,11 @@
       </c>
       <c r="R965" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S965" t="n">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="T965" t="n">
         <v>400</v>
@@ -77607,7 +77607,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -77635,7 +77635,7 @@
       </c>
       <c r="K966" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L966" t="inlineStr">
@@ -77644,32 +77644,32 @@
         </is>
       </c>
       <c r="M966" t="n">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="N966" t="n">
-        <v>120000</v>
+        <v>7000</v>
       </c>
       <c r="O966" t="n">
-        <v>120000</v>
+        <v>7000</v>
       </c>
       <c r="P966" t="n">
-        <v>120000</v>
+        <v>7000</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R966" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S966" t="n">
-        <v>300</v>
+        <v>467</v>
       </c>
       <c r="T966" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="967">
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -77715,7 +77715,7 @@
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L967" t="inlineStr">
@@ -77724,20 +77724,20 @@
         </is>
       </c>
       <c r="M967" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N967" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="O967" t="n">
-        <v>130000</v>
+        <v>6000</v>
       </c>
       <c r="P967" t="n">
-        <v>125000</v>
+        <v>5500</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R967" t="inlineStr">
@@ -77746,10 +77746,10 @@
         </is>
       </c>
       <c r="S967" t="n">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="T967" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="968">
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -77795,41 +77795,41 @@
       </c>
       <c r="K968" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M968" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="N968" t="n">
-        <v>4000</v>
+        <v>110000</v>
       </c>
       <c r="O968" t="n">
-        <v>4500</v>
+        <v>110000</v>
       </c>
       <c r="P968" t="n">
-        <v>4250</v>
+        <v>110000</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R968" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S968" t="n">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="T968" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="969">
@@ -77875,7 +77875,7 @@
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
@@ -77884,20 +77884,20 @@
         </is>
       </c>
       <c r="M969" t="n">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="N969" t="n">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="O969" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="P969" t="n">
-        <v>5000</v>
+        <v>135455</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R969" t="inlineStr">
@@ -77906,10 +77906,10 @@
         </is>
       </c>
       <c r="S969" t="n">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="T969" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="970">
@@ -77955,7 +77955,7 @@
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
@@ -77964,16 +77964,16 @@
         </is>
       </c>
       <c r="M970" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N970" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="O970" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P970" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77982,11 +77982,11 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S970" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="T970" t="n">
         <v>400</v>
@@ -78040,20 +78040,20 @@
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M971" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N971" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O971" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P971" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
@@ -78062,11 +78062,11 @@
       </c>
       <c r="R971" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S971" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T971" t="n">
         <v>400</v>
@@ -78120,24 +78120,24 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="N972" t="n">
-        <v>3500</v>
+        <v>120000</v>
       </c>
       <c r="O972" t="n">
-        <v>3500</v>
+        <v>130000</v>
       </c>
       <c r="P972" t="n">
-        <v>3500</v>
+        <v>125000</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R972" t="inlineStr">
@@ -78146,10 +78146,10 @@
         </is>
       </c>
       <c r="S972" t="n">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="T972" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="973">
@@ -78200,20 +78200,20 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M973" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N973" t="n">
         <v>4000</v>
       </c>
       <c r="O973" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P973" t="n">
-        <v>4000</v>
+        <v>4250</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
@@ -78222,11 +78222,11 @@
       </c>
       <c r="R973" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S973" t="n">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="T973" t="n">
         <v>18</v>
@@ -78280,20 +78280,20 @@
       </c>
       <c r="L974" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M974" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N974" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O974" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P974" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
@@ -78302,11 +78302,11 @@
       </c>
       <c r="R974" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S974" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="T974" t="n">
         <v>18</v>
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -78355,25 +78355,25 @@
       </c>
       <c r="K975" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N975" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="O975" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="P975" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
@@ -78386,7 +78386,7 @@
         </is>
       </c>
       <c r="S975" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="T975" t="n">
         <v>400</v>
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -78435,7 +78435,7 @@
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L976" t="inlineStr">
@@ -78444,16 +78444,16 @@
         </is>
       </c>
       <c r="M976" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="N976" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O976" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P976" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
@@ -78462,11 +78462,11 @@
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="T976" t="n">
         <v>400</v>
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -78515,41 +78515,41 @@
       </c>
       <c r="K977" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="N977" t="n">
-        <v>100000</v>
+        <v>3500</v>
       </c>
       <c r="O977" t="n">
-        <v>100000</v>
+        <v>3500</v>
       </c>
       <c r="P977" t="n">
-        <v>100000</v>
+        <v>3500</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R977" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S977" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="T977" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="978">
@@ -78567,7 +78567,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -78600,24 +78600,24 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M978" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N978" t="n">
-        <v>150000</v>
+        <v>4000</v>
       </c>
       <c r="O978" t="n">
-        <v>150000</v>
+        <v>4000</v>
       </c>
       <c r="P978" t="n">
-        <v>150000</v>
+        <v>4000</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R978" t="inlineStr">
@@ -78626,10 +78626,10 @@
         </is>
       </c>
       <c r="S978" t="n">
-        <v>375</v>
+        <v>222</v>
       </c>
       <c r="T978" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="979">
@@ -78647,7 +78647,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -78680,20 +78680,20 @@
       </c>
       <c r="L979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M979" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N979" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="O979" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="P979" t="n">
-        <v>8500</v>
+        <v>2500</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
@@ -78702,11 +78702,11 @@
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S979" t="n">
-        <v>472</v>
+        <v>139</v>
       </c>
       <c r="T979" t="n">
         <v>18</v>
@@ -78755,25 +78755,25 @@
       </c>
       <c r="K980" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M980" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N980" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O980" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P980" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
@@ -78782,11 +78782,11 @@
       </c>
       <c r="R980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S980" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="T980" t="n">
         <v>400</v>
@@ -78807,7 +78807,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -78835,25 +78835,25 @@
       </c>
       <c r="K981" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N981" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="O981" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="P981" t="n">
-        <v>480000</v>
+        <v>120000</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78866,7 +78866,7 @@
         </is>
       </c>
       <c r="S981" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="T981" t="n">
         <v>400</v>
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -78915,25 +78915,25 @@
       </c>
       <c r="K982" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L982" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M982" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N982" t="n">
-        <v>470000</v>
+        <v>100000</v>
       </c>
       <c r="O982" t="n">
-        <v>480000</v>
+        <v>100000</v>
       </c>
       <c r="P982" t="n">
-        <v>475000</v>
+        <v>100000</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78942,11 +78942,11 @@
       </c>
       <c r="R982" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S982" t="n">
-        <v>1188</v>
+        <v>250</v>
       </c>
       <c r="T982" t="n">
         <v>400</v>
@@ -78967,7 +78967,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -78995,7 +78995,7 @@
       </c>
       <c r="K983" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L983" t="inlineStr">
@@ -79004,32 +79004,32 @@
         </is>
       </c>
       <c r="M983" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="N983" t="n">
-        <v>16000</v>
+        <v>150000</v>
       </c>
       <c r="O983" t="n">
-        <v>16000</v>
+        <v>150000</v>
       </c>
       <c r="P983" t="n">
-        <v>16000</v>
+        <v>150000</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S983" t="n">
-        <v>889</v>
+        <v>375</v>
       </c>
       <c r="T983" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="984">
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -79075,29 +79075,29 @@
       </c>
       <c r="K984" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="N984" t="n">
-        <v>420000</v>
+        <v>8000</v>
       </c>
       <c r="O984" t="n">
-        <v>420000</v>
+        <v>9000</v>
       </c>
       <c r="P984" t="n">
-        <v>420000</v>
+        <v>8500</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R984" t="inlineStr">
@@ -79106,10 +79106,10 @@
         </is>
       </c>
       <c r="S984" t="n">
-        <v>1050</v>
+        <v>472</v>
       </c>
       <c r="T984" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="985">
@@ -79127,7 +79127,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -79155,25 +79155,25 @@
       </c>
       <c r="K985" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M985" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="N985" t="n">
-        <v>430000</v>
+        <v>130000</v>
       </c>
       <c r="O985" t="n">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="P985" t="n">
-        <v>476429</v>
+        <v>130000</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
@@ -79186,7 +79186,7 @@
         </is>
       </c>
       <c r="S985" t="n">
-        <v>1191</v>
+        <v>325</v>
       </c>
       <c r="T985" t="n">
         <v>400</v>
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -79240,20 +79240,20 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M986" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N986" t="n">
-        <v>450000</v>
+        <v>480000</v>
       </c>
       <c r="O986" t="n">
-        <v>450000</v>
+        <v>480000</v>
       </c>
       <c r="P986" t="n">
-        <v>450000</v>
+        <v>480000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
@@ -79262,11 +79262,11 @@
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>1125</v>
+        <v>1200</v>
       </c>
       <c r="T986" t="n">
         <v>400</v>
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79315,25 +79315,25 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M987" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N987" t="n">
-        <v>200000</v>
+        <v>470000</v>
       </c>
       <c r="O987" t="n">
-        <v>200000</v>
+        <v>480000</v>
       </c>
       <c r="P987" t="n">
-        <v>200000</v>
+        <v>475000</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
@@ -79346,7 +79346,7 @@
         </is>
       </c>
       <c r="S987" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T987" t="n">
         <v>400</v>
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79395,7 +79395,7 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
@@ -79404,20 +79404,20 @@
         </is>
       </c>
       <c r="M988" t="n">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="N988" t="n">
-        <v>200000</v>
+        <v>16000</v>
       </c>
       <c r="O988" t="n">
-        <v>200000</v>
+        <v>16000</v>
       </c>
       <c r="P988" t="n">
-        <v>200000</v>
+        <v>16000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R988" t="inlineStr">
@@ -79426,10 +79426,10 @@
         </is>
       </c>
       <c r="S988" t="n">
-        <v>500</v>
+        <v>889</v>
       </c>
       <c r="T988" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="989">
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79475,25 +79475,25 @@
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N989" t="n">
-        <v>170000</v>
+        <v>420000</v>
       </c>
       <c r="O989" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="P989" t="n">
-        <v>175000</v>
+        <v>420000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79506,7 +79506,7 @@
         </is>
       </c>
       <c r="S989" t="n">
-        <v>438</v>
+        <v>1050</v>
       </c>
       <c r="T989" t="n">
         <v>400</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79555,25 +79555,25 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N990" t="n">
-        <v>180000</v>
+        <v>430000</v>
       </c>
       <c r="O990" t="n">
-        <v>180000</v>
+        <v>500000</v>
       </c>
       <c r="P990" t="n">
-        <v>180000</v>
+        <v>476429</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79582,11 +79582,11 @@
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>450</v>
+        <v>1191</v>
       </c>
       <c r="T990" t="n">
         <v>400</v>
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79635,25 +79635,25 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M991" t="n">
         <v>12</v>
       </c>
       <c r="N991" t="n">
-        <v>140000</v>
+        <v>450000</v>
       </c>
       <c r="O991" t="n">
-        <v>140000</v>
+        <v>450000</v>
       </c>
       <c r="P991" t="n">
-        <v>140000</v>
+        <v>450000</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79662,11 +79662,11 @@
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>350</v>
+        <v>1125</v>
       </c>
       <c r="T991" t="n">
         <v>400</v>
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -79715,25 +79715,25 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M992" t="n">
         <v>12</v>
       </c>
       <c r="N992" t="n">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="O992" t="n">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="P992" t="n">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79746,7 +79746,7 @@
         </is>
       </c>
       <c r="S992" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="T992" t="n">
         <v>400</v>
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79795,25 +79795,25 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M993" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N993" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O993" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P993" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
@@ -79822,11 +79822,11 @@
       </c>
       <c r="R993" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S993" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T993" t="n">
         <v>400</v>
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79875,7 +79875,7 @@
       </c>
       <c r="K994" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L994" t="inlineStr">
@@ -79884,16 +79884,16 @@
         </is>
       </c>
       <c r="M994" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N994" t="n">
-        <v>320000</v>
+        <v>170000</v>
       </c>
       <c r="O994" t="n">
-        <v>330000</v>
+        <v>180000</v>
       </c>
       <c r="P994" t="n">
-        <v>325000</v>
+        <v>175000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
@@ -79906,7 +79906,7 @@
         </is>
       </c>
       <c r="S994" t="n">
-        <v>812</v>
+        <v>438</v>
       </c>
       <c r="T994" t="n">
         <v>400</v>
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79955,7 +79955,7 @@
       </c>
       <c r="K995" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L995" t="inlineStr">
@@ -79964,16 +79964,16 @@
         </is>
       </c>
       <c r="M995" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N995" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="O995" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="P995" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79982,11 +79982,11 @@
       </c>
       <c r="R995" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S995" t="n">
-        <v>675</v>
+        <v>450</v>
       </c>
       <c r="T995" t="n">
         <v>400</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80035,25 +80035,25 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N996" t="n">
-        <v>320000</v>
+        <v>140000</v>
       </c>
       <c r="O996" t="n">
-        <v>320000</v>
+        <v>140000</v>
       </c>
       <c r="P996" t="n">
-        <v>320000</v>
+        <v>140000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
@@ -80066,7 +80066,7 @@
         </is>
       </c>
       <c r="S996" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="T996" t="n">
         <v>400</v>
@@ -80115,7 +80115,7 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
@@ -80124,16 +80124,16 @@
         </is>
       </c>
       <c r="M997" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N997" t="n">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="O997" t="n">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="P997" t="n">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80142,11 +80142,11 @@
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="T997" t="n">
         <v>400</v>
@@ -80195,41 +80195,41 @@
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="N998" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="O998" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P998" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="T998" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="999">
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80275,25 +80275,25 @@
       </c>
       <c r="K999" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N999" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O999" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P999" t="n">
-        <v>200000</v>
+        <v>325000</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>500</v>
+        <v>812</v>
       </c>
       <c r="T999" t="n">
         <v>400</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80355,25 +80355,25 @@
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1000" t="n">
-        <v>150000</v>
+        <v>270000</v>
       </c>
       <c r="O1000" t="n">
-        <v>150000</v>
+        <v>270000</v>
       </c>
       <c r="P1000" t="n">
-        <v>150000</v>
+        <v>270000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
@@ -80382,11 +80382,11 @@
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>375</v>
+        <v>675</v>
       </c>
       <c r="T1000" t="n">
         <v>400</v>
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80435,7 +80435,7 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
@@ -80444,16 +80444,16 @@
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1001" t="n">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="O1001" t="n">
-        <v>170000</v>
+        <v>320000</v>
       </c>
       <c r="P1001" t="n">
-        <v>165000</v>
+        <v>320000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>412</v>
+        <v>800</v>
       </c>
       <c r="T1001" t="n">
         <v>400</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80515,25 +80515,25 @@
       </c>
       <c r="K1002" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N1002" t="n">
-        <v>140000</v>
+        <v>320000</v>
       </c>
       <c r="O1002" t="n">
-        <v>140000</v>
+        <v>320000</v>
       </c>
       <c r="P1002" t="n">
-        <v>140000</v>
+        <v>320000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80542,11 +80542,11 @@
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="T1002" t="n">
         <v>400</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80595,41 +80595,41 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="N1003" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="O1003" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="P1003" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>325</v>
+        <v>800</v>
       </c>
       <c r="T1003" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1004">
@@ -80675,25 +80675,25 @@
       </c>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1004" t="n">
         <v>15</v>
       </c>
       <c r="N1004" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O1004" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P1004" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80702,11 +80702,11 @@
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="T1004" t="n">
         <v>400</v>
@@ -80755,25 +80755,25 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N1005" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O1005" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P1005" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80782,11 +80782,11 @@
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="T1005" t="n">
         <v>400</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80847,13 +80847,13 @@
         <v>24</v>
       </c>
       <c r="N1006" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O1006" t="n">
         <v>170000</v>
       </c>
       <c r="P1006" t="n">
-        <v>170000</v>
+        <v>165000</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80866,7 +80866,7 @@
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="T1006" t="n">
         <v>400</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80924,7 +80924,7 @@
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1007" t="n">
         <v>140000</v>
@@ -80942,7 +80942,7 @@
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1007" t="n">
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -80995,25 +80995,25 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N1008" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O1008" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P1008" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81022,11 +81022,11 @@
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="T1008" t="n">
         <v>400</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -81075,7 +81075,7 @@
       </c>
       <c r="K1009" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1009" t="inlineStr">
@@ -81084,7 +81084,7 @@
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N1009" t="n">
         <v>150000</v>
@@ -81102,7 +81102,7 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1009" t="n">
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81155,25 +81155,25 @@
       </c>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N1010" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O1010" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P1010" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81186,7 +81186,7 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="T1010" t="n">
         <v>400</v>
@@ -81235,25 +81235,25 @@
       </c>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1011" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O1011" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P1011" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81262,11 +81262,11 @@
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="T1011" t="n">
         <v>400</v>
@@ -81315,7 +81315,7 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
@@ -81324,16 +81324,16 @@
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N1012" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O1012" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P1012" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81346,7 +81346,7 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="T1012" t="n">
         <v>400</v>
@@ -81395,16 +81395,16 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N1013" t="n">
         <v>170000</v>
@@ -81475,7 +81475,7 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
@@ -81484,16 +81484,16 @@
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N1014" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O1014" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P1014" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81502,11 +81502,11 @@
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T1014" t="n">
         <v>400</v>
@@ -81555,25 +81555,25 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1015" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O1015" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P1015" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81582,11 +81582,11 @@
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="T1015" t="n">
         <v>400</v>
@@ -81635,7 +81635,7 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
@@ -81644,16 +81644,16 @@
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N1016" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O1016" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P1016" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81662,11 +81662,11 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="T1016" t="n">
         <v>400</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81715,25 +81715,25 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N1017" t="n">
-        <v>350000</v>
+        <v>150000</v>
       </c>
       <c r="O1017" t="n">
-        <v>360000</v>
+        <v>150000</v>
       </c>
       <c r="P1017" t="n">
-        <v>355000</v>
+        <v>150000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81742,11 +81742,11 @@
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>888</v>
+        <v>375</v>
       </c>
       <c r="T1017" t="n">
         <v>400</v>
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81795,7 +81795,7 @@
       </c>
       <c r="K1018" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1018" t="inlineStr">
@@ -81804,32 +81804,32 @@
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="N1018" t="n">
-        <v>20000</v>
+        <v>170000</v>
       </c>
       <c r="O1018" t="n">
-        <v>20000</v>
+        <v>170000</v>
       </c>
       <c r="P1018" t="n">
-        <v>20000</v>
+        <v>170000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>1111</v>
+        <v>425</v>
       </c>
       <c r="T1018" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1019">
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -81875,41 +81875,41 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N1019" t="n">
-        <v>18000</v>
+        <v>160000</v>
       </c>
       <c r="O1019" t="n">
-        <v>18000</v>
+        <v>160000</v>
       </c>
       <c r="P1019" t="n">
-        <v>18000</v>
+        <v>160000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T1019" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1020">
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -81955,25 +81955,25 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N1020" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="O1020" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="P1020" t="n">
-        <v>480000</v>
+        <v>140000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81986,7 +81986,7 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="T1020" t="n">
         <v>400</v>
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -82035,25 +82035,25 @@
       </c>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N1021" t="n">
-        <v>480000</v>
+        <v>130000</v>
       </c>
       <c r="O1021" t="n">
-        <v>520000</v>
+        <v>130000</v>
       </c>
       <c r="P1021" t="n">
-        <v>498571</v>
+        <v>130000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82066,7 +82066,7 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>1246</v>
+        <v>325</v>
       </c>
       <c r="T1021" t="n">
         <v>400</v>
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -82115,25 +82115,25 @@
       </c>
       <c r="K1022" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N1022" t="n">
-        <v>450000</v>
+        <v>350000</v>
       </c>
       <c r="O1022" t="n">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="P1022" t="n">
-        <v>450000</v>
+        <v>355000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82146,7 +82146,7 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>1125</v>
+        <v>888</v>
       </c>
       <c r="T1022" t="n">
         <v>400</v>
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -82200,36 +82200,36 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N1023" t="n">
-        <v>450000</v>
+        <v>20000</v>
       </c>
       <c r="O1023" t="n">
-        <v>450000</v>
+        <v>20000</v>
       </c>
       <c r="P1023" t="n">
-        <v>450000</v>
+        <v>20000</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="T1023" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1024">
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -82280,36 +82280,36 @@
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="N1024" t="n">
-        <v>315000</v>
+        <v>18000</v>
       </c>
       <c r="O1024" t="n">
-        <v>350000</v>
+        <v>18000</v>
       </c>
       <c r="P1024" t="n">
-        <v>334091</v>
+        <v>18000</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>835</v>
+        <v>1000</v>
       </c>
       <c r="T1024" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1025">
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -82360,20 +82360,20 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N1025" t="n">
-        <v>270000</v>
+        <v>480000</v>
       </c>
       <c r="O1025" t="n">
-        <v>320000</v>
+        <v>480000</v>
       </c>
       <c r="P1025" t="n">
-        <v>292222</v>
+        <v>480000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82382,11 +82382,11 @@
       </c>
       <c r="R1025" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>731</v>
+        <v>1200</v>
       </c>
       <c r="T1025" t="n">
         <v>400</v>
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -82435,7 +82435,7 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
@@ -82444,16 +82444,16 @@
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N1026" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="O1026" t="n">
-        <v>130000</v>
+        <v>520000</v>
       </c>
       <c r="P1026" t="n">
-        <v>125806</v>
+        <v>498571</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82462,11 +82462,11 @@
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>315</v>
+        <v>1246</v>
       </c>
       <c r="T1026" t="n">
         <v>400</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82515,25 +82515,25 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="N1027" t="n">
-        <v>130000</v>
+        <v>450000</v>
       </c>
       <c r="O1027" t="n">
-        <v>140000</v>
+        <v>450000</v>
       </c>
       <c r="P1027" t="n">
-        <v>132708</v>
+        <v>450000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82542,11 +82542,11 @@
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>332</v>
+        <v>1125</v>
       </c>
       <c r="T1027" t="n">
         <v>400</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82595,7 +82595,7 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
@@ -82604,16 +82604,16 @@
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N1028" t="n">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="O1028" t="n">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="P1028" t="n">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82622,11 +82622,11 @@
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T1028" t="n">
         <v>400</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82675,25 +82675,25 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N1029" t="n">
-        <v>110000</v>
+        <v>315000</v>
       </c>
       <c r="O1029" t="n">
-        <v>115000</v>
+        <v>350000</v>
       </c>
       <c r="P1029" t="n">
-        <v>111667</v>
+        <v>334091</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82706,7 +82706,7 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>279</v>
+        <v>835</v>
       </c>
       <c r="T1029" t="n">
         <v>400</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82755,25 +82755,25 @@
       </c>
       <c r="K1030" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="N1030" t="n">
-        <v>80000</v>
+        <v>270000</v>
       </c>
       <c r="O1030" t="n">
-        <v>80000</v>
+        <v>320000</v>
       </c>
       <c r="P1030" t="n">
-        <v>80000</v>
+        <v>292222</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82786,7 +82786,7 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>200</v>
+        <v>731</v>
       </c>
       <c r="T1030" t="n">
         <v>400</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82835,25 +82835,25 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N1031" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O1031" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P1031" t="n">
-        <v>200000</v>
+        <v>125806</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82862,11 +82862,11 @@
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>500</v>
+        <v>315</v>
       </c>
       <c r="T1031" t="n">
         <v>400</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82915,7 +82915,7 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
@@ -82924,16 +82924,16 @@
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N1032" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O1032" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P1032" t="n">
-        <v>170000</v>
+        <v>132708</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82946,7 +82946,7 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>425</v>
+        <v>332</v>
       </c>
       <c r="T1032" t="n">
         <v>400</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -82995,7 +82995,7 @@
       </c>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1033" t="inlineStr">
@@ -83004,16 +83004,16 @@
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N1033" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O1033" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="P1033" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83022,11 +83022,11 @@
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="T1033" t="n">
         <v>400</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -83075,25 +83075,25 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N1034" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="O1034" t="n">
-        <v>190000</v>
+        <v>115000</v>
       </c>
       <c r="P1034" t="n">
-        <v>184706</v>
+        <v>111667</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83102,11 +83102,11 @@
       </c>
       <c r="R1034" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>462</v>
+        <v>279</v>
       </c>
       <c r="T1034" t="n">
         <v>400</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83155,25 +83155,25 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N1035" t="n">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="O1035" t="n">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="P1035" t="n">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83182,11 +83182,11 @@
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T1035" t="n">
         <v>400</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83235,7 +83235,7 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
@@ -83244,16 +83244,16 @@
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1036" t="n">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="O1036" t="n">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="P1036" t="n">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T1036" t="n">
         <v>400</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83315,7 +83315,7 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
@@ -83324,16 +83324,16 @@
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N1037" t="n">
-        <v>420000</v>
+        <v>170000</v>
       </c>
       <c r="O1037" t="n">
-        <v>420000</v>
+        <v>170000</v>
       </c>
       <c r="P1037" t="n">
-        <v>420000</v>
+        <v>170000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83342,11 +83342,11 @@
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>1050</v>
+        <v>425</v>
       </c>
       <c r="T1037" t="n">
         <v>400</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83395,25 +83395,25 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N1038" t="n">
-        <v>390000</v>
+        <v>150000</v>
       </c>
       <c r="O1038" t="n">
-        <v>390000</v>
+        <v>150000</v>
       </c>
       <c r="P1038" t="n">
-        <v>390000</v>
+        <v>150000</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
@@ -83426,7 +83426,7 @@
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>975</v>
+        <v>375</v>
       </c>
       <c r="T1038" t="n">
         <v>400</v>
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83475,7 +83475,7 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
@@ -83484,32 +83484,32 @@
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>490</v>
+        <v>34</v>
       </c>
       <c r="N1039" t="n">
-        <v>17000</v>
+        <v>180000</v>
       </c>
       <c r="O1039" t="n">
-        <v>17000</v>
+        <v>190000</v>
       </c>
       <c r="P1039" t="n">
-        <v>17000</v>
+        <v>184706</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>1133</v>
+        <v>462</v>
       </c>
       <c r="T1039" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1040">
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -83555,7 +83555,7 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
@@ -83564,16 +83564,16 @@
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N1040" t="n">
-        <v>350000</v>
+        <v>160000</v>
       </c>
       <c r="O1040" t="n">
-        <v>350000</v>
+        <v>160000</v>
       </c>
       <c r="P1040" t="n">
-        <v>350000</v>
+        <v>160000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83582,11 +83582,11 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>875</v>
+        <v>400</v>
       </c>
       <c r="T1040" t="n">
         <v>400</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83640,20 +83640,20 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1041" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="O1041" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="P1041" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83666,7 +83666,7 @@
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T1041" t="n">
         <v>400</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -83724,16 +83724,16 @@
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N1042" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="O1042" t="n">
-        <v>310000</v>
+        <v>420000</v>
       </c>
       <c r="P1042" t="n">
-        <v>305000</v>
+        <v>420000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83742,11 +83742,11 @@
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>762</v>
+        <v>1050</v>
       </c>
       <c r="T1042" t="n">
         <v>400</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -83795,25 +83795,25 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N1043" t="n">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="O1043" t="n">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="P1043" t="n">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83826,7 +83826,7 @@
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>650</v>
+        <v>975</v>
       </c>
       <c r="T1043" t="n">
         <v>400</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -83884,32 +83884,32 @@
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>32</v>
+        <v>490</v>
       </c>
       <c r="N1044" t="n">
-        <v>320000</v>
+        <v>17000</v>
       </c>
       <c r="O1044" t="n">
-        <v>320000</v>
+        <v>17000</v>
       </c>
       <c r="P1044" t="n">
-        <v>320000</v>
+        <v>17000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="T1044" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1045">
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -83955,25 +83955,25 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N1045" t="n">
-        <v>120000</v>
+        <v>350000</v>
       </c>
       <c r="O1045" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="P1045" t="n">
-        <v>125000</v>
+        <v>350000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83982,11 +83982,11 @@
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>312</v>
+        <v>875</v>
       </c>
       <c r="T1045" t="n">
         <v>400</v>
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84035,25 +84035,25 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N1046" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="O1046" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="P1046" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84062,11 +84062,11 @@
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="T1046" t="n">
         <v>400</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84115,7 +84115,7 @@
       </c>
       <c r="K1047" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1047" t="inlineStr">
@@ -84124,16 +84124,16 @@
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N1047" t="n">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="O1047" t="n">
-        <v>130000</v>
+        <v>310000</v>
       </c>
       <c r="P1047" t="n">
-        <v>125000</v>
+        <v>305000</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84142,11 +84142,11 @@
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>312</v>
+        <v>762</v>
       </c>
       <c r="T1047" t="n">
         <v>400</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84195,7 +84195,7 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
@@ -84204,16 +84204,16 @@
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1048" t="n">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="O1048" t="n">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="P1048" t="n">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84222,11 +84222,11 @@
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="T1048" t="n">
         <v>400</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84275,7 +84275,7 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
@@ -84284,16 +84284,16 @@
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N1049" t="n">
-        <v>110000</v>
+        <v>320000</v>
       </c>
       <c r="O1049" t="n">
-        <v>110000</v>
+        <v>320000</v>
       </c>
       <c r="P1049" t="n">
-        <v>110000</v>
+        <v>320000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84302,11 +84302,11 @@
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>275</v>
+        <v>800</v>
       </c>
       <c r="T1049" t="n">
         <v>400</v>
@@ -84355,7 +84355,7 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
@@ -84364,16 +84364,16 @@
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1050" t="n">
         <v>120000</v>
       </c>
       <c r="O1050" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P1050" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84382,11 +84382,11 @@
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="T1050" t="n">
         <v>400</v>
@@ -84435,41 +84435,41 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1051" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q1051" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1051" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S1051" t="n">
         <v>250</v>
       </c>
-      <c r="N1051" t="n">
-        <v>6000</v>
-      </c>
-      <c r="O1051" t="n">
-        <v>6000</v>
-      </c>
-      <c r="P1051" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q1051" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1051" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S1051" t="n">
-        <v>333</v>
-      </c>
       <c r="T1051" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1052">
@@ -84515,25 +84515,25 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1052" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="O1052" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P1052" t="n">
-        <v>90000</v>
+        <v>125000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84546,7 +84546,7 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="T1052" t="n">
         <v>400</v>
@@ -84595,7 +84595,7 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
@@ -84604,7 +84604,7 @@
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1053" t="n">
         <v>100000</v>
@@ -84622,7 +84622,7 @@
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1053" t="n">
@@ -84680,24 +84680,24 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N1054" t="n">
-        <v>4000</v>
+        <v>110000</v>
       </c>
       <c r="O1054" t="n">
-        <v>4000</v>
+        <v>110000</v>
       </c>
       <c r="P1054" t="n">
-        <v>4000</v>
+        <v>110000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1054" t="inlineStr">
@@ -84706,10 +84706,10 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="T1054" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1055">
@@ -84755,7 +84755,7 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
@@ -84764,16 +84764,16 @@
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N1055" t="n">
         <v>120000</v>
       </c>
       <c r="O1055" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P1055" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84786,7 +84786,7 @@
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="T1055" t="n">
         <v>400</v>
@@ -84835,7 +84835,7 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
@@ -84844,16 +84844,16 @@
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="N1056" t="n">
         <v>6000</v>
       </c>
       <c r="O1056" t="n">
-        <v>120000</v>
+        <v>6000</v>
       </c>
       <c r="P1056" t="n">
-        <v>14444</v>
+        <v>6000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>802</v>
+        <v>333</v>
       </c>
       <c r="T1056" t="n">
         <v>18</v>
@@ -84915,7 +84915,7 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
@@ -84924,20 +84924,20 @@
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="N1057" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="O1057" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="P1057" t="n">
-        <v>8861</v>
+        <v>90000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1057" t="inlineStr">
@@ -84946,10 +84946,10 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>492</v>
+        <v>225</v>
       </c>
       <c r="T1057" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1058">
@@ -84995,29 +84995,29 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="N1058" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="O1058" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="P1058" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1058" t="inlineStr">
@@ -85026,10 +85026,10 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="T1058" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1059">
@@ -85075,41 +85075,41 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N1059" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O1059" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P1059" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>600</v>
+        <v>222</v>
       </c>
       <c r="T1059" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1060">
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85164,7 +85164,7 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N1060" t="n">
         <v>120000</v>
@@ -85173,7 +85173,7 @@
         <v>130000</v>
       </c>
       <c r="P1060" t="n">
-        <v>122593</v>
+        <v>125000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85186,7 +85186,7 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="T1060" t="n">
         <v>400</v>
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85235,41 +85235,41 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="N1061" t="n">
-        <v>80000</v>
+        <v>6000</v>
       </c>
       <c r="O1061" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="P1061" t="n">
-        <v>80000</v>
+        <v>14444</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>200</v>
+        <v>802</v>
       </c>
       <c r="T1061" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1062">
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85315,29 +85315,29 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="N1062" t="n">
-        <v>110000</v>
+        <v>4000</v>
       </c>
       <c r="O1062" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P1062" t="n">
-        <v>115000</v>
+        <v>8861</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1062" t="inlineStr">
@@ -85346,10 +85346,10 @@
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>288</v>
+        <v>492</v>
       </c>
       <c r="T1062" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1063">
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85395,7 +85395,7 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
@@ -85404,20 +85404,20 @@
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="N1063" t="n">
-        <v>120000</v>
+        <v>9000</v>
       </c>
       <c r="O1063" t="n">
-        <v>130000</v>
+        <v>9000</v>
       </c>
       <c r="P1063" t="n">
-        <v>125000</v>
+        <v>9000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1063" t="inlineStr">
@@ -85426,10 +85426,10 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>312</v>
+        <v>600</v>
       </c>
       <c r="T1063" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1064">
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85475,7 +85475,7 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
@@ -85484,20 +85484,20 @@
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N1064" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O1064" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P1064" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1064" t="inlineStr">
@@ -85506,10 +85506,10 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>306</v>
+        <v>600</v>
       </c>
       <c r="T1064" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1065">
@@ -85555,25 +85555,25 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1065" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="O1065" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P1065" t="n">
-        <v>90000</v>
+        <v>122593</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="T1065" t="n">
         <v>400</v>
@@ -85635,7 +85635,7 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
@@ -85644,20 +85644,20 @@
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N1066" t="n">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="O1066" t="n">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="P1066" t="n">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
@@ -85666,10 +85666,10 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="T1066" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1067">
@@ -85715,7 +85715,7 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
@@ -85724,7 +85724,7 @@
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N1067" t="n">
         <v>110000</v>
@@ -85742,7 +85742,7 @@
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1067" t="n">
@@ -85795,7 +85795,7 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
@@ -85804,32 +85804,32 @@
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N1068" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O1068" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="P1068" t="n">
-        <v>5500</v>
+        <v>125000</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="T1068" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1069">
@@ -85875,29 +85875,29 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N1069" t="n">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="O1069" t="n">
-        <v>80000</v>
+        <v>6000</v>
       </c>
       <c r="P1069" t="n">
-        <v>80000</v>
+        <v>5500</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1069" t="inlineStr">
@@ -85906,10 +85906,10 @@
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="T1069" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1070">
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85955,25 +85955,25 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N1070" t="n">
-        <v>470000</v>
+        <v>90000</v>
       </c>
       <c r="O1070" t="n">
-        <v>480000</v>
+        <v>90000</v>
       </c>
       <c r="P1070" t="n">
-        <v>475000</v>
+        <v>90000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
@@ -85986,7 +85986,7 @@
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>1188</v>
+        <v>225</v>
       </c>
       <c r="T1070" t="n">
         <v>400</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86035,29 +86035,29 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="N1071" t="n">
-        <v>480000</v>
+        <v>4000</v>
       </c>
       <c r="O1071" t="n">
-        <v>500000</v>
+        <v>4000</v>
       </c>
       <c r="P1071" t="n">
-        <v>490000</v>
+        <v>4000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
@@ -86066,10 +86066,10 @@
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>1225</v>
+        <v>222</v>
       </c>
       <c r="T1071" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1072">
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86115,7 +86115,7 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
@@ -86124,32 +86124,32 @@
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="N1072" t="n">
-        <v>17000</v>
+        <v>110000</v>
       </c>
       <c r="O1072" t="n">
-        <v>17000</v>
+        <v>120000</v>
       </c>
       <c r="P1072" t="n">
-        <v>17000</v>
+        <v>115000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>1062</v>
+        <v>288</v>
       </c>
       <c r="T1072" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1073">
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86195,41 +86195,41 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N1073" t="n">
-        <v>440000</v>
+        <v>5000</v>
       </c>
       <c r="O1073" t="n">
-        <v>440000</v>
+        <v>6000</v>
       </c>
       <c r="P1073" t="n">
-        <v>440000</v>
+        <v>5500</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>1100</v>
+        <v>306</v>
       </c>
       <c r="T1073" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1074">
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86275,7 +86275,7 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
@@ -86284,32 +86284,32 @@
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="N1074" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="O1074" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="P1074" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>938</v>
+        <v>200</v>
       </c>
       <c r="T1074" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1075">
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86355,7 +86355,7 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
@@ -86364,16 +86364,16 @@
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N1075" t="n">
-        <v>320000</v>
+        <v>470000</v>
       </c>
       <c r="O1075" t="n">
-        <v>320000</v>
+        <v>480000</v>
       </c>
       <c r="P1075" t="n">
-        <v>320000</v>
+        <v>475000</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86386,7 +86386,7 @@
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>800</v>
+        <v>1188</v>
       </c>
       <c r="T1075" t="n">
         <v>400</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86435,25 +86435,25 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1076" t="n">
-        <v>300000</v>
+        <v>480000</v>
       </c>
       <c r="O1076" t="n">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="P1076" t="n">
-        <v>300000</v>
+        <v>490000</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86466,7 +86466,7 @@
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>750</v>
+        <v>1225</v>
       </c>
       <c r="T1076" t="n">
         <v>400</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86524,32 +86524,32 @@
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>18</v>
+        <v>370</v>
       </c>
       <c r="N1077" t="n">
-        <v>480000</v>
+        <v>17000</v>
       </c>
       <c r="O1077" t="n">
-        <v>480000</v>
+        <v>17000</v>
       </c>
       <c r="P1077" t="n">
-        <v>480000</v>
+        <v>17000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>1200</v>
+        <v>1062</v>
       </c>
       <c r="T1077" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1078">
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -86600,36 +86600,36 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="N1078" t="n">
-        <v>17000</v>
+        <v>440000</v>
       </c>
       <c r="O1078" t="n">
-        <v>18000</v>
+        <v>440000</v>
       </c>
       <c r="P1078" t="n">
-        <v>17480</v>
+        <v>440000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="T1078" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1079">
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -86684,32 +86684,32 @@
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="N1079" t="n">
-        <v>440000</v>
+        <v>15000</v>
       </c>
       <c r="O1079" t="n">
-        <v>440000</v>
+        <v>15000</v>
       </c>
       <c r="P1079" t="n">
-        <v>440000</v>
+        <v>15000</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>1100</v>
+        <v>938</v>
       </c>
       <c r="T1079" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1080">
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86755,41 +86755,41 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>330</v>
+        <v>25</v>
       </c>
       <c r="N1080" t="n">
-        <v>14000</v>
+        <v>320000</v>
       </c>
       <c r="O1080" t="n">
-        <v>15000</v>
+        <v>320000</v>
       </c>
       <c r="P1080" t="n">
-        <v>14455</v>
+        <v>320000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>903</v>
+        <v>800</v>
       </c>
       <c r="T1080" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1081">
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86835,25 +86835,25 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N1081" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="O1081" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="P1081" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86862,11 +86862,11 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>325</v>
+        <v>750</v>
       </c>
       <c r="T1081" t="n">
         <v>400</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86915,7 +86915,7 @@
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1082" t="inlineStr">
@@ -86924,16 +86924,16 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N1082" t="n">
-        <v>130000</v>
+        <v>480000</v>
       </c>
       <c r="O1082" t="n">
-        <v>140000</v>
+        <v>480000</v>
       </c>
       <c r="P1082" t="n">
-        <v>135000</v>
+        <v>480000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86946,7 +86946,7 @@
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>338</v>
+        <v>1200</v>
       </c>
       <c r="T1082" t="n">
         <v>400</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -86995,7 +86995,7 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
@@ -87004,32 +87004,32 @@
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N1083" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O1083" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P1083" t="n">
-        <v>11000</v>
+        <v>17480</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>733</v>
+        <v>1092</v>
       </c>
       <c r="T1083" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1084">
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87075,7 +87075,7 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
@@ -87084,16 +87084,16 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N1084" t="n">
-        <v>100000</v>
+        <v>440000</v>
       </c>
       <c r="O1084" t="n">
-        <v>100000</v>
+        <v>440000</v>
       </c>
       <c r="P1084" t="n">
-        <v>100000</v>
+        <v>440000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="T1084" t="n">
         <v>400</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87155,7 +87155,7 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
@@ -87164,32 +87164,32 @@
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="N1085" t="n">
-        <v>120000</v>
+        <v>14000</v>
       </c>
       <c r="O1085" t="n">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="P1085" t="n">
-        <v>120000</v>
+        <v>14455</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>300</v>
+        <v>903</v>
       </c>
       <c r="T1085" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1086">
@@ -87235,7 +87235,7 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
@@ -87244,7 +87244,7 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N1086" t="n">
         <v>130000</v>
@@ -87262,7 +87262,7 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1086" t="n">
@@ -87315,7 +87315,7 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
@@ -87324,16 +87324,16 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N1087" t="n">
         <v>130000</v>
       </c>
       <c r="O1087" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P1087" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87346,7 +87346,7 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="T1087" t="n">
         <v>400</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87395,7 +87395,7 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
@@ -87404,20 +87404,20 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="N1088" t="n">
-        <v>500000</v>
+        <v>11000</v>
       </c>
       <c r="O1088" t="n">
-        <v>530000</v>
+        <v>11000</v>
       </c>
       <c r="P1088" t="n">
-        <v>515000</v>
+        <v>11000</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
@@ -87426,10 +87426,10 @@
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>1288</v>
+        <v>733</v>
       </c>
       <c r="T1088" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1089">
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87475,41 +87475,41 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="N1089" t="n">
-        <v>21000</v>
+        <v>100000</v>
       </c>
       <c r="O1089" t="n">
-        <v>21000</v>
+        <v>100000</v>
       </c>
       <c r="P1089" t="n">
-        <v>21000</v>
+        <v>100000</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>1167</v>
+        <v>250</v>
       </c>
       <c r="T1089" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1090">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87555,41 +87555,41 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="N1090" t="n">
-        <v>19000</v>
+        <v>120000</v>
       </c>
       <c r="O1090" t="n">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="P1090" t="n">
-        <v>19500</v>
+        <v>120000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>1083</v>
+        <v>300</v>
       </c>
       <c r="T1090" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1091">
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87635,7 +87635,7 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
@@ -87644,16 +87644,16 @@
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N1091" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="O1091" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P1091" t="n">
-        <v>155000</v>
+        <v>130000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87662,11 +87662,11 @@
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="T1091" t="n">
         <v>400</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87715,16 +87715,16 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N1092" t="n">
         <v>130000</v>
@@ -87742,7 +87742,7 @@
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1092" t="n">
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87795,7 +87795,7 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
@@ -87804,16 +87804,16 @@
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1093" t="n">
-        <v>180000</v>
+        <v>500000</v>
       </c>
       <c r="O1093" t="n">
-        <v>180000</v>
+        <v>530000</v>
       </c>
       <c r="P1093" t="n">
-        <v>180000</v>
+        <v>515000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87822,11 +87822,11 @@
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>450</v>
+        <v>1288</v>
       </c>
       <c r="T1093" t="n">
         <v>400</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87875,41 +87875,41 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N1094" t="n">
-        <v>160000</v>
+        <v>21000</v>
       </c>
       <c r="O1094" t="n">
-        <v>160000</v>
+        <v>21000</v>
       </c>
       <c r="P1094" t="n">
-        <v>160000</v>
+        <v>21000</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>400</v>
+        <v>1167</v>
       </c>
       <c r="T1094" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1095">
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87955,7 +87955,7 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
@@ -87964,32 +87964,32 @@
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N1095" t="n">
-        <v>180000</v>
+        <v>19000</v>
       </c>
       <c r="O1095" t="n">
-        <v>180000</v>
+        <v>20000</v>
       </c>
       <c r="P1095" t="n">
-        <v>180000</v>
+        <v>19500</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>450</v>
+        <v>1083</v>
       </c>
       <c r="T1095" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1096">
@@ -88035,25 +88035,25 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N1096" t="n">
         <v>150000</v>
       </c>
       <c r="O1096" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P1096" t="n">
-        <v>150000</v>
+        <v>155000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
@@ -88062,11 +88062,11 @@
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="T1096" t="n">
         <v>400</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -88115,25 +88115,25 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N1097" t="n">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="O1097" t="n">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="P1097" t="n">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88142,11 +88142,11 @@
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>1250</v>
+        <v>325</v>
       </c>
       <c r="T1097" t="n">
         <v>400</v>
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88195,7 +88195,7 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
@@ -88204,16 +88204,16 @@
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N1098" t="n">
-        <v>470000</v>
+        <v>180000</v>
       </c>
       <c r="O1098" t="n">
-        <v>470000</v>
+        <v>180000</v>
       </c>
       <c r="P1098" t="n">
-        <v>470000</v>
+        <v>180000</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
@@ -88222,11 +88222,11 @@
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>1175</v>
+        <v>450</v>
       </c>
       <c r="T1098" t="n">
         <v>400</v>
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88275,7 +88275,7 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
@@ -88284,16 +88284,16 @@
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1099" t="n">
-        <v>430000</v>
+        <v>160000</v>
       </c>
       <c r="O1099" t="n">
-        <v>430000</v>
+        <v>160000</v>
       </c>
       <c r="P1099" t="n">
-        <v>430000</v>
+        <v>160000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88302,11 +88302,11 @@
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>1075</v>
+        <v>400</v>
       </c>
       <c r="T1099" t="n">
         <v>400</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88355,25 +88355,25 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N1100" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O1100" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P1100" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88386,7 +88386,7 @@
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="T1100" t="n">
         <v>400</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88435,25 +88435,25 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N1101" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O1101" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P1101" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
@@ -88466,7 +88466,7 @@
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="T1101" t="n">
         <v>400</v>
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88515,25 +88515,25 @@
       </c>
       <c r="K1102" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N1102" t="n">
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="O1102" t="n">
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="P1102" t="n">
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88546,7 +88546,7 @@
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>300</v>
+        <v>1250</v>
       </c>
       <c r="T1102" t="n">
         <v>400</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88595,7 +88595,7 @@
       </c>
       <c r="K1103" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1103" t="inlineStr">
@@ -88604,16 +88604,16 @@
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N1103" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="O1103" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="P1103" t="n">
-        <v>120000</v>
+        <v>470000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88622,11 +88622,11 @@
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>300</v>
+        <v>1175</v>
       </c>
       <c r="T1103" t="n">
         <v>400</v>
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88675,25 +88675,25 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N1104" t="n">
-        <v>120000</v>
+        <v>430000</v>
       </c>
       <c r="O1104" t="n">
-        <v>130000</v>
+        <v>430000</v>
       </c>
       <c r="P1104" t="n">
-        <v>125000</v>
+        <v>430000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88702,11 +88702,11 @@
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>312</v>
+        <v>1075</v>
       </c>
       <c r="T1104" t="n">
         <v>400</v>
@@ -88755,41 +88755,41 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="N1105" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O1105" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="P1105" t="n">
-        <v>5500</v>
+        <v>150000</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="T1105" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1106">
@@ -88835,25 +88835,25 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1106" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O1106" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P1106" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
@@ -88862,11 +88862,11 @@
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="T1106" t="n">
         <v>400</v>
@@ -88915,7 +88915,7 @@
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1107" t="inlineStr">
@@ -88924,16 +88924,16 @@
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N1107" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O1107" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P1107" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88942,11 +88942,11 @@
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T1107" t="n">
         <v>400</v>
@@ -89000,36 +89000,36 @@
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="N1108" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="O1108" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="P1108" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="T1108" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1109">
@@ -89080,20 +89080,20 @@
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1109" t="n">
-        <v>70000</v>
+        <v>120000</v>
       </c>
       <c r="O1109" t="n">
-        <v>70000</v>
+        <v>130000</v>
       </c>
       <c r="P1109" t="n">
-        <v>70000</v>
+        <v>125000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
@@ -89106,7 +89106,7 @@
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="T1109" t="n">
         <v>400</v>
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89155,7 +89155,7 @@
       </c>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1110" t="inlineStr">
@@ -89164,32 +89164,32 @@
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="N1110" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="O1110" t="n">
-        <v>270000</v>
+        <v>6000</v>
       </c>
       <c r="P1110" t="n">
-        <v>270000</v>
+        <v>5500</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>675</v>
+        <v>306</v>
       </c>
       <c r="T1110" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1111">
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89235,7 +89235,7 @@
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1111" t="inlineStr">
@@ -89247,13 +89247,13 @@
         <v>12</v>
       </c>
       <c r="N1111" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="O1111" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="P1111" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89262,11 +89262,11 @@
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="T1111" t="n">
         <v>400</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -89315,25 +89315,25 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1112" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="O1112" t="n">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="P1112" t="n">
-        <v>255000</v>
+        <v>100000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89342,11 +89342,11 @@
       </c>
       <c r="R1112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>638</v>
+        <v>250</v>
       </c>
       <c r="T1112" t="n">
         <v>400</v>
@@ -89367,68 +89367,468 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1113" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1113" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1113" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1113" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1113" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1113" t="n">
+        <v>180</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q1113" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1113" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1113" t="n">
+        <v>222</v>
+      </c>
+      <c r="T1113" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1114" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1114" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1114" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1114" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1114" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1114" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M1114" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>70000</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>70000</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>70000</v>
+      </c>
+      <c r="Q1114" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1114" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1114" t="n">
+        <v>175</v>
+      </c>
+      <c r="T1114" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1115" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E1113" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1113" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1113" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1113" t="n">
-        <v>100102005</v>
-      </c>
-      <c r="J1113" t="inlineStr">
-        <is>
-          <t>Naranja</t>
-        </is>
-      </c>
-      <c r="K1113" t="inlineStr">
+      <c r="E1115" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1115" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1115" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1115" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1115" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L1115" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1115" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>270000</v>
+      </c>
+      <c r="Q1115" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1115" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S1115" t="n">
+        <v>675</v>
+      </c>
+      <c r="T1115" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1116" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1116" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1116" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1116" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1116" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>Fukumoto</t>
+        </is>
+      </c>
+      <c r="L1116" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1116" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>240000</v>
+      </c>
+      <c r="Q1116" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1116" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S1116" t="n">
+        <v>600</v>
+      </c>
+      <c r="T1116" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1117" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1117" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1117" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1117" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1117" t="inlineStr">
         <is>
           <t>New Hall</t>
         </is>
       </c>
-      <c r="L1113" t="inlineStr">
+      <c r="L1117" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1117" t="n">
+        <v>24</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>255000</v>
+      </c>
+      <c r="Q1117" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1117" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1117" t="n">
+        <v>638</v>
+      </c>
+      <c r="T1117" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1118" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1118" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1118" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1118" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>New Hall</t>
+        </is>
+      </c>
+      <c r="L1118" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M1113" t="n">
+      <c r="M1118" t="n">
         <v>17</v>
       </c>
-      <c r="N1113" t="n">
+      <c r="N1118" t="n">
         <v>230000</v>
       </c>
-      <c r="O1113" t="n">
+      <c r="O1118" t="n">
         <v>230000</v>
       </c>
-      <c r="P1113" t="n">
+      <c r="P1118" t="n">
         <v>230000</v>
       </c>
-      <c r="Q1113" t="inlineStr">
+      <c r="Q1118" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
         </is>
       </c>
-      <c r="R1113" t="inlineStr">
+      <c r="R1118" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1113" t="n">
+      <c r="S1118" t="n">
         <v>575</v>
       </c>
-      <c r="T1113" t="n">
+      <c r="T1118" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Naranja.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Naranja.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1199"/>
+  <dimension ref="A1:T1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82515,7 +82515,7 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
@@ -82527,13 +82527,13 @@
         <v>24</v>
       </c>
       <c r="N1027" t="n">
-        <v>300000</v>
+        <v>160000</v>
       </c>
       <c r="O1027" t="n">
-        <v>300000</v>
+        <v>170000</v>
       </c>
       <c r="P1027" t="n">
-        <v>300000</v>
+        <v>165000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82542,11 +82542,11 @@
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>750</v>
+        <v>412</v>
       </c>
       <c r="T1027" t="n">
         <v>400</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82595,7 +82595,7 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
@@ -82604,16 +82604,16 @@
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N1028" t="n">
-        <v>320000</v>
+        <v>150000</v>
       </c>
       <c r="O1028" t="n">
-        <v>330000</v>
+        <v>160000</v>
       </c>
       <c r="P1028" t="n">
-        <v>325000</v>
+        <v>154545</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82622,11 +82622,11 @@
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>812</v>
+        <v>386</v>
       </c>
       <c r="T1028" t="n">
         <v>400</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82675,29 +82675,29 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>20</v>
+        <v>630</v>
       </c>
       <c r="N1029" t="n">
-        <v>270000</v>
+        <v>6500</v>
       </c>
       <c r="O1029" t="n">
-        <v>270000</v>
+        <v>7000</v>
       </c>
       <c r="P1029" t="n">
-        <v>270000</v>
+        <v>6698</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1029" t="inlineStr">
@@ -82706,10 +82706,10 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>675</v>
+        <v>372</v>
       </c>
       <c r="T1029" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1030">
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82755,29 +82755,29 @@
       </c>
       <c r="K1030" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>30</v>
+        <v>630</v>
       </c>
       <c r="N1030" t="n">
-        <v>320000</v>
+        <v>4500</v>
       </c>
       <c r="O1030" t="n">
-        <v>330000</v>
+        <v>5000</v>
       </c>
       <c r="P1030" t="n">
-        <v>325000</v>
+        <v>4802</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1030" t="inlineStr">
@@ -82786,10 +82786,10 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>812</v>
+        <v>267</v>
       </c>
       <c r="T1030" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1031">
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82835,25 +82835,25 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N1031" t="n">
-        <v>280000</v>
+        <v>130000</v>
       </c>
       <c r="O1031" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P1031" t="n">
-        <v>280000</v>
+        <v>135000</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82866,7 +82866,7 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>700</v>
+        <v>338</v>
       </c>
       <c r="T1031" t="n">
         <v>400</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82915,7 +82915,7 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
@@ -82924,16 +82924,16 @@
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N1032" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="O1032" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="P1032" t="n">
-        <v>390909</v>
+        <v>300000</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82942,11 +82942,11 @@
       </c>
       <c r="R1032" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>977</v>
+        <v>750</v>
       </c>
       <c r="T1032" t="n">
         <v>400</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -82995,25 +82995,25 @@
       </c>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N1033" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="O1033" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P1033" t="n">
-        <v>350000</v>
+        <v>325000</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83026,7 +83026,7 @@
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T1033" t="n">
         <v>400</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -83075,25 +83075,25 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N1034" t="n">
-        <v>380000</v>
+        <v>270000</v>
       </c>
       <c r="O1034" t="n">
-        <v>380000</v>
+        <v>270000</v>
       </c>
       <c r="P1034" t="n">
-        <v>380000</v>
+        <v>270000</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83102,11 +83102,11 @@
       </c>
       <c r="R1034" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="T1034" t="n">
         <v>400</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83155,25 +83155,25 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N1035" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="O1035" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P1035" t="n">
-        <v>350000</v>
+        <v>325000</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83182,11 +83182,11 @@
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T1035" t="n">
         <v>400</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83240,20 +83240,20 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N1036" t="n">
-        <v>500000</v>
+        <v>280000</v>
       </c>
       <c r="O1036" t="n">
-        <v>500000</v>
+        <v>280000</v>
       </c>
       <c r="P1036" t="n">
-        <v>500000</v>
+        <v>280000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83266,7 +83266,7 @@
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="T1036" t="n">
         <v>400</v>
@@ -83315,7 +83315,7 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
@@ -83324,16 +83324,16 @@
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N1037" t="n">
-        <v>470000</v>
+        <v>380000</v>
       </c>
       <c r="O1037" t="n">
-        <v>470000</v>
+        <v>400000</v>
       </c>
       <c r="P1037" t="n">
-        <v>470000</v>
+        <v>390909</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83346,7 +83346,7 @@
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>1175</v>
+        <v>977</v>
       </c>
       <c r="T1037" t="n">
         <v>400</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83400,20 +83400,20 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N1038" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="O1038" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="P1038" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
@@ -83426,7 +83426,7 @@
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T1038" t="n">
         <v>400</v>
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83475,7 +83475,7 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
@@ -83484,16 +83484,16 @@
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N1039" t="n">
-        <v>170000</v>
+        <v>380000</v>
       </c>
       <c r="O1039" t="n">
-        <v>170000</v>
+        <v>380000</v>
       </c>
       <c r="P1039" t="n">
-        <v>170000</v>
+        <v>380000</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
@@ -83502,11 +83502,11 @@
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>425</v>
+        <v>950</v>
       </c>
       <c r="T1039" t="n">
         <v>400</v>
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -83555,7 +83555,7 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
@@ -83564,16 +83564,16 @@
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N1040" t="n">
-        <v>150000</v>
+        <v>350000</v>
       </c>
       <c r="O1040" t="n">
-        <v>150000</v>
+        <v>350000</v>
       </c>
       <c r="P1040" t="n">
-        <v>150000</v>
+        <v>350000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83582,11 +83582,11 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>375</v>
+        <v>875</v>
       </c>
       <c r="T1040" t="n">
         <v>400</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83635,25 +83635,25 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N1041" t="n">
-        <v>180000</v>
+        <v>500000</v>
       </c>
       <c r="O1041" t="n">
-        <v>190000</v>
+        <v>500000</v>
       </c>
       <c r="P1041" t="n">
-        <v>184706</v>
+        <v>500000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83662,11 +83662,11 @@
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>462</v>
+        <v>1250</v>
       </c>
       <c r="T1041" t="n">
         <v>400</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -83715,25 +83715,25 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N1042" t="n">
-        <v>160000</v>
+        <v>470000</v>
       </c>
       <c r="O1042" t="n">
-        <v>160000</v>
+        <v>470000</v>
       </c>
       <c r="P1042" t="n">
-        <v>160000</v>
+        <v>470000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83742,11 +83742,11 @@
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>400</v>
+        <v>1175</v>
       </c>
       <c r="T1042" t="n">
         <v>400</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -83800,20 +83800,20 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N1043" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O1043" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P1043" t="n">
-        <v>235625</v>
+        <v>200000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83822,11 +83822,11 @@
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>589</v>
+        <v>500</v>
       </c>
       <c r="T1043" t="n">
         <v>400</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -83884,20 +83884,20 @@
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="N1044" t="n">
-        <v>15000</v>
+        <v>170000</v>
       </c>
       <c r="O1044" t="n">
-        <v>15000</v>
+        <v>170000</v>
       </c>
       <c r="P1044" t="n">
-        <v>15000</v>
+        <v>170000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
@@ -83906,10 +83906,10 @@
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>1000</v>
+        <v>425</v>
       </c>
       <c r="T1044" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1045">
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -83964,16 +83964,16 @@
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N1045" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O1045" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P1045" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83982,11 +83982,11 @@
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="T1045" t="n">
         <v>400</v>
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84044,16 +84044,16 @@
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N1046" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O1046" t="n">
-        <v>260000</v>
+        <v>190000</v>
       </c>
       <c r="P1046" t="n">
-        <v>255000</v>
+        <v>184706</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84066,7 +84066,7 @@
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>638</v>
+        <v>462</v>
       </c>
       <c r="T1046" t="n">
         <v>400</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84115,25 +84115,25 @@
       </c>
       <c r="K1047" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N1047" t="n">
-        <v>300000</v>
+        <v>160000</v>
       </c>
       <c r="O1047" t="n">
-        <v>300000</v>
+        <v>160000</v>
       </c>
       <c r="P1047" t="n">
-        <v>300000</v>
+        <v>160000</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84142,11 +84142,11 @@
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T1047" t="n">
         <v>400</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84204,16 +84204,16 @@
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N1048" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O1048" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P1048" t="n">
-        <v>313750</v>
+        <v>235625</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84222,11 +84222,11 @@
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>784</v>
+        <v>589</v>
       </c>
       <c r="T1048" t="n">
         <v>400</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84280,36 +84280,36 @@
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="N1049" t="n">
-        <v>260000</v>
+        <v>15000</v>
       </c>
       <c r="O1049" t="n">
-        <v>260000</v>
+        <v>15000</v>
       </c>
       <c r="P1049" t="n">
-        <v>260000</v>
+        <v>15000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T1049" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1050">
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -84364,16 +84364,16 @@
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N1050" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O1050" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P1050" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84382,11 +84382,11 @@
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T1050" t="n">
         <v>400</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84435,25 +84435,25 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N1051" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="O1051" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P1051" t="n">
-        <v>180000</v>
+        <v>255000</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84462,11 +84462,11 @@
       </c>
       <c r="R1051" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>450</v>
+        <v>638</v>
       </c>
       <c r="T1051" t="n">
         <v>400</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84515,7 +84515,7 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
@@ -84524,16 +84524,16 @@
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N1052" t="n">
-        <v>480000</v>
+        <v>300000</v>
       </c>
       <c r="O1052" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="P1052" t="n">
-        <v>490000</v>
+        <v>300000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84542,11 +84542,11 @@
       </c>
       <c r="R1052" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>1225</v>
+        <v>750</v>
       </c>
       <c r="T1052" t="n">
         <v>400</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84595,7 +84595,7 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
@@ -84604,20 +84604,20 @@
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="N1053" t="n">
-        <v>17000</v>
+        <v>280000</v>
       </c>
       <c r="O1053" t="n">
-        <v>17000</v>
+        <v>330000</v>
       </c>
       <c r="P1053" t="n">
-        <v>17000</v>
+        <v>313750</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1053" t="inlineStr">
@@ -84626,10 +84626,10 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>1133</v>
+        <v>784</v>
       </c>
       <c r="T1053" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1054">
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84675,7 +84675,7 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1054" t="inlineStr">
@@ -84684,16 +84684,16 @@
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N1054" t="n">
-        <v>430000</v>
+        <v>260000</v>
       </c>
       <c r="O1054" t="n">
-        <v>430000</v>
+        <v>260000</v>
       </c>
       <c r="P1054" t="n">
-        <v>430000</v>
+        <v>260000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84702,11 +84702,11 @@
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>1075</v>
+        <v>650</v>
       </c>
       <c r="T1054" t="n">
         <v>400</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84760,20 +84760,20 @@
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N1055" t="n">
-        <v>430000</v>
+        <v>250000</v>
       </c>
       <c r="O1055" t="n">
-        <v>450000</v>
+        <v>250000</v>
       </c>
       <c r="P1055" t="n">
-        <v>440000</v>
+        <v>250000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84782,11 +84782,11 @@
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="T1055" t="n">
         <v>400</v>
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -84840,20 +84840,20 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1056" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="O1056" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="P1056" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84862,11 +84862,11 @@
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="T1056" t="n">
         <v>400</v>
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -84915,7 +84915,7 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
@@ -84924,16 +84924,16 @@
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N1057" t="n">
-        <v>140000</v>
+        <v>480000</v>
       </c>
       <c r="O1057" t="n">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="P1057" t="n">
-        <v>145000</v>
+        <v>490000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84942,11 +84942,11 @@
       </c>
       <c r="R1057" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>362</v>
+        <v>1225</v>
       </c>
       <c r="T1057" t="n">
         <v>400</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -84995,41 +84995,41 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1058" t="n">
+        <v>140</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q1058" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1058" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1058" t="n">
+        <v>1133</v>
+      </c>
+      <c r="T1058" t="n">
         <v>15</v>
-      </c>
-      <c r="N1058" t="n">
-        <v>110000</v>
-      </c>
-      <c r="O1058" t="n">
-        <v>110000</v>
-      </c>
-      <c r="P1058" t="n">
-        <v>110000</v>
-      </c>
-      <c r="Q1058" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1058" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1058" t="n">
-        <v>275</v>
-      </c>
-      <c r="T1058" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="1059">
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85075,25 +85075,25 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N1059" t="n">
-        <v>120000</v>
+        <v>430000</v>
       </c>
       <c r="O1059" t="n">
-        <v>130000</v>
+        <v>430000</v>
       </c>
       <c r="P1059" t="n">
-        <v>127273</v>
+        <v>430000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85102,11 +85102,11 @@
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>318</v>
+        <v>1075</v>
       </c>
       <c r="T1059" t="n">
         <v>400</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85164,32 +85164,32 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="N1060" t="n">
-        <v>6000</v>
+        <v>430000</v>
       </c>
       <c r="O1060" t="n">
-        <v>7000</v>
+        <v>450000</v>
       </c>
       <c r="P1060" t="n">
-        <v>6500</v>
+        <v>440000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>361</v>
+        <v>1100</v>
       </c>
       <c r="T1060" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1061">
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85235,7 +85235,7 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
@@ -85244,16 +85244,16 @@
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N1061" t="n">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="O1061" t="n">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="P1061" t="n">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85266,7 +85266,7 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T1061" t="n">
         <v>400</v>
@@ -85315,41 +85315,41 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="N1062" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="O1062" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="P1062" t="n">
-        <v>5000</v>
+        <v>145000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="T1062" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1063">
@@ -85395,25 +85395,25 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Spring Nabel</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N1063" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="O1063" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="P1063" t="n">
-        <v>145000</v>
+        <v>110000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85422,11 +85422,11 @@
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="T1063" t="n">
         <v>400</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85484,16 +85484,16 @@
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N1064" t="n">
         <v>120000</v>
       </c>
       <c r="O1064" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P1064" t="n">
-        <v>120000</v>
+        <v>127273</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="T1064" t="n">
         <v>400</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85564,32 +85564,32 @@
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="N1065" t="n">
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="O1065" t="n">
-        <v>120000</v>
+        <v>7000</v>
       </c>
       <c r="P1065" t="n">
-        <v>116000</v>
+        <v>6500</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="T1065" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1066">
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85640,24 +85640,24 @@
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>320</v>
+        <v>18</v>
       </c>
       <c r="N1066" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="O1066" t="n">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="P1066" t="n">
-        <v>5500</v>
+        <v>100000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
@@ -85666,10 +85666,10 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="T1066" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1067">
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85724,32 +85724,32 @@
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N1067" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="O1067" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="P1067" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="T1067" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1068">
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85795,25 +85795,25 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Spring Nabel</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N1068" t="n">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="O1068" t="n">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="P1068" t="n">
-        <v>90000</v>
+        <v>145000</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85822,11 +85822,11 @@
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>225</v>
+        <v>362</v>
       </c>
       <c r="T1068" t="n">
         <v>400</v>
@@ -85880,24 +85880,24 @@
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="N1069" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="O1069" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="P1069" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1069" t="inlineStr">
@@ -85906,10 +85906,10 @@
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="T1069" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1070">
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85955,7 +85955,7 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
@@ -85964,16 +85964,16 @@
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N1070" t="n">
-        <v>260000</v>
+        <v>110000</v>
       </c>
       <c r="O1070" t="n">
-        <v>270000</v>
+        <v>120000</v>
       </c>
       <c r="P1070" t="n">
-        <v>265000</v>
+        <v>116000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
@@ -85982,11 +85982,11 @@
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>662</v>
+        <v>290</v>
       </c>
       <c r="T1070" t="n">
         <v>400</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86035,7 +86035,7 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
@@ -86044,32 +86044,32 @@
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="N1071" t="n">
-        <v>240000</v>
+        <v>5000</v>
       </c>
       <c r="O1071" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="P1071" t="n">
-        <v>245000</v>
+        <v>5500</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>612</v>
+        <v>306</v>
       </c>
       <c r="T1071" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1072">
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86115,41 +86115,41 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="N1072" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="O1072" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="P1072" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="T1072" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1073">
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86195,25 +86195,25 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N1073" t="n">
-        <v>260000</v>
+        <v>90000</v>
       </c>
       <c r="O1073" t="n">
-        <v>270000</v>
+        <v>90000</v>
       </c>
       <c r="P1073" t="n">
-        <v>265000</v>
+        <v>90000</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86226,7 +86226,7 @@
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>662</v>
+        <v>225</v>
       </c>
       <c r="T1073" t="n">
         <v>400</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86275,41 +86275,41 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N1074" t="n">
-        <v>360000</v>
+        <v>4000</v>
       </c>
       <c r="O1074" t="n">
-        <v>370000</v>
+        <v>4000</v>
       </c>
       <c r="P1074" t="n">
-        <v>365000</v>
+        <v>4000</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>912</v>
+        <v>222</v>
       </c>
       <c r="T1074" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1075">
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86364,16 +86364,16 @@
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N1075" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="O1075" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P1075" t="n">
-        <v>350000</v>
+        <v>265000</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>875</v>
+        <v>662</v>
       </c>
       <c r="T1075" t="n">
         <v>400</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86444,32 +86444,32 @@
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N1076" t="n">
-        <v>15000</v>
+        <v>240000</v>
       </c>
       <c r="O1076" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="P1076" t="n">
-        <v>15000</v>
+        <v>245000</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>833</v>
+        <v>612</v>
       </c>
       <c r="T1076" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1077">
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86520,36 +86520,36 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="N1077" t="n">
-        <v>300000</v>
+        <v>15000</v>
       </c>
       <c r="O1077" t="n">
-        <v>300000</v>
+        <v>15000</v>
       </c>
       <c r="P1077" t="n">
-        <v>300000</v>
+        <v>15000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T1077" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1078">
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -86595,41 +86595,41 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="N1078" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="O1078" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="P1078" t="n">
-        <v>12500</v>
+        <v>265000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="T1078" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1079">
@@ -86675,7 +86675,7 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1079" t="inlineStr">
@@ -86684,32 +86684,32 @@
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>420</v>
+        <v>24</v>
       </c>
       <c r="N1079" t="n">
-        <v>16000</v>
+        <v>360000</v>
       </c>
       <c r="O1079" t="n">
-        <v>16000</v>
+        <v>370000</v>
       </c>
       <c r="P1079" t="n">
-        <v>16000</v>
+        <v>365000</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>1067</v>
+        <v>912</v>
       </c>
       <c r="T1079" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1080">
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86755,7 +86755,7 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>Cara cara</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
@@ -86764,16 +86764,16 @@
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1080" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="O1080" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="P1080" t="n">
-        <v>135000</v>
+        <v>350000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86782,11 +86782,11 @@
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>338</v>
+        <v>875</v>
       </c>
       <c r="T1080" t="n">
         <v>400</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86844,20 +86844,20 @@
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="N1081" t="n">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="O1081" t="n">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="P1081" t="n">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1081" t="inlineStr">
@@ -86866,10 +86866,10 @@
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>300</v>
+        <v>833</v>
       </c>
       <c r="T1081" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1082">
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86920,36 +86920,36 @@
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="N1082" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="O1082" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="P1082" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="T1082" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1083">
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -87004,20 +87004,20 @@
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="N1083" t="n">
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="O1083" t="n">
-        <v>100000</v>
+        <v>13000</v>
       </c>
       <c r="P1083" t="n">
-        <v>100000</v>
+        <v>12500</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
@@ -87026,10 +87026,10 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>250</v>
+        <v>694</v>
       </c>
       <c r="T1083" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1084">
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87075,7 +87075,7 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
@@ -87084,16 +87084,16 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N1084" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O1084" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P1084" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87106,7 +87106,7 @@
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T1084" t="n">
         <v>15</v>
@@ -87155,7 +87155,7 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Cara cara</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
@@ -87164,16 +87164,16 @@
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N1085" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O1085" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P1085" t="n">
-        <v>120000</v>
+        <v>135000</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="T1085" t="n">
         <v>400</v>
@@ -87235,7 +87235,7 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
@@ -87244,32 +87244,32 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="N1086" t="n">
-        <v>11000</v>
+        <v>120000</v>
       </c>
       <c r="O1086" t="n">
-        <v>11000</v>
+        <v>120000</v>
       </c>
       <c r="P1086" t="n">
-        <v>11000</v>
+        <v>120000</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>733</v>
+        <v>300</v>
       </c>
       <c r="T1086" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1087">
@@ -87315,7 +87315,7 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
@@ -87324,20 +87324,20 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N1087" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O1087" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P1087" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1087" t="inlineStr">
@@ -87346,10 +87346,10 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>361</v>
+        <v>733</v>
       </c>
       <c r="T1087" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1088">
@@ -87395,7 +87395,7 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
@@ -87404,7 +87404,7 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N1088" t="n">
         <v>100000</v>
@@ -87422,7 +87422,7 @@
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1088" t="n">
@@ -87475,29 +87475,29 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Golden</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N1089" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O1089" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P1089" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
@@ -87506,10 +87506,10 @@
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>250</v>
+        <v>733</v>
       </c>
       <c r="T1089" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1090">
@@ -87560,20 +87560,20 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N1090" t="n">
-        <v>70000</v>
+        <v>120000</v>
       </c>
       <c r="O1090" t="n">
-        <v>70000</v>
+        <v>120000</v>
       </c>
       <c r="P1090" t="n">
-        <v>70000</v>
+        <v>120000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="T1090" t="n">
         <v>400</v>
@@ -87640,24 +87640,24 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N1091" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="O1091" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="P1091" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
@@ -87666,10 +87666,10 @@
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>167</v>
+        <v>733</v>
       </c>
       <c r="T1091" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1092">
@@ -87715,7 +87715,7 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
@@ -87724,32 +87724,32 @@
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="N1092" t="n">
-        <v>120000</v>
+        <v>6000</v>
       </c>
       <c r="O1092" t="n">
-        <v>120000</v>
+        <v>7000</v>
       </c>
       <c r="P1092" t="n">
-        <v>120000</v>
+        <v>6500</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="T1092" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1093">
@@ -87795,25 +87795,25 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N1093" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O1093" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P1093" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87822,11 +87822,11 @@
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="T1093" t="n">
         <v>400</v>
@@ -87875,29 +87875,29 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="N1094" t="n">
-        <v>140000</v>
+        <v>4000</v>
       </c>
       <c r="O1094" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="P1094" t="n">
-        <v>140000</v>
+        <v>4500</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1094" t="inlineStr">
@@ -87906,10 +87906,10 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="T1094" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1095">
@@ -87955,41 +87955,41 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="N1095" t="n">
-        <v>6000</v>
+        <v>70000</v>
       </c>
       <c r="O1095" t="n">
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="P1095" t="n">
-        <v>6500</v>
+        <v>70000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="T1095" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1096">
@@ -88035,41 +88035,41 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="N1096" t="n">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="O1096" t="n">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="P1096" t="n">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="T1096" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1097">
@@ -88120,20 +88120,20 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N1097" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="O1097" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P1097" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88142,11 +88142,11 @@
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="T1097" t="n">
         <v>400</v>
@@ -88195,7 +88195,7 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
@@ -88204,7 +88204,7 @@
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N1098" t="n">
         <v>120000</v>
@@ -88222,7 +88222,7 @@
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1098" t="n">
@@ -88275,25 +88275,25 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N1099" t="n">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="O1099" t="n">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="P1099" t="n">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88306,7 +88306,7 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="T1099" t="n">
         <v>400</v>
@@ -88355,7 +88355,7 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Washington parent</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
@@ -88364,32 +88364,32 @@
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="N1100" t="n">
-        <v>130000</v>
+        <v>6000</v>
       </c>
       <c r="O1100" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="P1100" t="n">
-        <v>130000</v>
+        <v>6500</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="T1100" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1101">
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88435,25 +88435,25 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N1101" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O1101" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="P1101" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
@@ -88462,11 +88462,11 @@
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="T1101" t="n">
         <v>400</v>
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88515,25 +88515,25 @@
       </c>
       <c r="K1102" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N1102" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="O1102" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P1102" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88546,7 +88546,7 @@
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="T1102" t="n">
         <v>400</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88595,16 +88595,16 @@
       </c>
       <c r="K1103" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N1103" t="n">
         <v>120000</v>
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88675,25 +88675,25 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N1104" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="O1104" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P1104" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88702,11 +88702,11 @@
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="T1104" t="n">
         <v>400</v>
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -88755,7 +88755,7 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Washington parent</t>
         </is>
       </c>
       <c r="L1105" t="inlineStr">
@@ -88767,13 +88767,13 @@
         <v>24</v>
       </c>
       <c r="N1105" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O1105" t="n">
         <v>130000</v>
       </c>
       <c r="P1105" t="n">
-        <v>125000</v>
+        <v>130000</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
@@ -88786,7 +88786,7 @@
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="T1105" t="n">
         <v>400</v>
@@ -88835,41 +88835,41 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="N1106" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O1106" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="P1106" t="n">
-        <v>5500</v>
+        <v>150000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="T1106" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1107">
@@ -88915,25 +88915,25 @@
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1107" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O1107" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P1107" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88942,11 +88942,11 @@
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="T1107" t="n">
         <v>400</v>
@@ -88995,7 +88995,7 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
@@ -89004,16 +89004,16 @@
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N1108" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O1108" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P1108" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
@@ -89022,11 +89022,11 @@
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T1108" t="n">
         <v>400</v>
@@ -89080,36 +89080,36 @@
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="N1109" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="O1109" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="P1109" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="T1109" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1110">
@@ -89160,20 +89160,20 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1110" t="n">
-        <v>70000</v>
+        <v>120000</v>
       </c>
       <c r="O1110" t="n">
-        <v>70000</v>
+        <v>130000</v>
       </c>
       <c r="P1110" t="n">
-        <v>70000</v>
+        <v>125000</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89186,7 +89186,7 @@
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="T1110" t="n">
         <v>400</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89235,7 +89235,7 @@
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1111" t="inlineStr">
@@ -89244,32 +89244,32 @@
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N1111" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O1111" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P1111" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>733</v>
+        <v>306</v>
       </c>
       <c r="T1111" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1112">
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -89315,41 +89315,41 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="N1112" t="n">
-        <v>11000</v>
+        <v>100000</v>
       </c>
       <c r="O1112" t="n">
-        <v>11000</v>
+        <v>100000</v>
       </c>
       <c r="P1112" t="n">
-        <v>11000</v>
+        <v>100000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>733</v>
+        <v>250</v>
       </c>
       <c r="T1112" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1113">
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -89395,41 +89395,41 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="N1113" t="n">
-        <v>11000</v>
+        <v>100000</v>
       </c>
       <c r="O1113" t="n">
-        <v>11000</v>
+        <v>100000</v>
       </c>
       <c r="P1113" t="n">
-        <v>11000</v>
+        <v>100000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>733</v>
+        <v>250</v>
       </c>
       <c r="T1113" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1114">
@@ -89447,7 +89447,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -89480,36 +89480,36 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="N1114" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="O1114" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="P1114" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="T1114" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1115">
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -89560,20 +89560,20 @@
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N1115" t="n">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="O1115" t="n">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="P1115" t="n">
-        <v>115000</v>
+        <v>70000</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89586,7 +89586,7 @@
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="T1115" t="n">
         <v>400</v>
@@ -89635,7 +89635,7 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1116" t="inlineStr">
@@ -89644,32 +89644,32 @@
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N1116" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O1116" t="n">
-        <v>60000</v>
+        <v>11000</v>
       </c>
       <c r="P1116" t="n">
-        <v>33500</v>
+        <v>11000</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>1861</v>
+        <v>733</v>
       </c>
       <c r="T1116" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1117">
@@ -89715,7 +89715,7 @@
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Golden</t>
         </is>
       </c>
       <c r="L1117" t="inlineStr">
@@ -89724,32 +89724,32 @@
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N1117" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O1117" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P1117" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>333</v>
+        <v>733</v>
       </c>
       <c r="T1117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1118">
@@ -89795,41 +89795,41 @@
       </c>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="N1118" t="n">
-        <v>100000</v>
+        <v>11000</v>
       </c>
       <c r="O1118" t="n">
-        <v>100000</v>
+        <v>11000</v>
       </c>
       <c r="P1118" t="n">
-        <v>100000</v>
+        <v>11000</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>250</v>
+        <v>733</v>
       </c>
       <c r="T1118" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1119">
@@ -89880,24 +89880,24 @@
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="N1119" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O1119" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="P1119" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1119" t="inlineStr">
@@ -89906,10 +89906,10 @@
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="T1119" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1120">
@@ -89955,7 +89955,7 @@
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1120" t="inlineStr">
@@ -89964,32 +89964,32 @@
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="N1120" t="n">
-        <v>11000</v>
+        <v>110000</v>
       </c>
       <c r="O1120" t="n">
-        <v>11000</v>
+        <v>120000</v>
       </c>
       <c r="P1120" t="n">
-        <v>11000</v>
+        <v>115000</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>733</v>
+        <v>288</v>
       </c>
       <c r="T1120" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1121">
@@ -90007,7 +90007,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -90035,7 +90035,7 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
@@ -90044,32 +90044,32 @@
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="N1121" t="n">
-        <v>390000</v>
+        <v>7000</v>
       </c>
       <c r="O1121" t="n">
-        <v>390000</v>
+        <v>60000</v>
       </c>
       <c r="P1121" t="n">
-        <v>390000</v>
+        <v>33500</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>975</v>
+        <v>1861</v>
       </c>
       <c r="T1121" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1122">
@@ -90087,7 +90087,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -90115,7 +90115,7 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
@@ -90124,32 +90124,32 @@
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="N1122" t="n">
-        <v>380000</v>
+        <v>6000</v>
       </c>
       <c r="O1122" t="n">
-        <v>400000</v>
+        <v>6000</v>
       </c>
       <c r="P1122" t="n">
-        <v>390000</v>
+        <v>6000</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>975</v>
+        <v>333</v>
       </c>
       <c r="T1122" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1123">
@@ -90167,7 +90167,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -90195,41 +90195,41 @@
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="N1123" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="O1123" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P1123" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>1133</v>
+        <v>250</v>
       </c>
       <c r="T1123" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1124">
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90275,7 +90275,7 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
@@ -90284,32 +90284,32 @@
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="N1124" t="n">
-        <v>350000</v>
+        <v>5000</v>
       </c>
       <c r="O1124" t="n">
-        <v>350000</v>
+        <v>5000</v>
       </c>
       <c r="P1124" t="n">
-        <v>350000</v>
+        <v>5000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>875</v>
+        <v>278</v>
       </c>
       <c r="T1124" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1125">
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -90355,29 +90355,29 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="N1125" t="n">
-        <v>300000</v>
+        <v>11000</v>
       </c>
       <c r="O1125" t="n">
-        <v>300000</v>
+        <v>11000</v>
       </c>
       <c r="P1125" t="n">
-        <v>300000</v>
+        <v>11000</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1125" t="inlineStr">
@@ -90386,10 +90386,10 @@
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="T1125" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1126">
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -90435,7 +90435,7 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1126" t="inlineStr">
@@ -90444,16 +90444,16 @@
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N1126" t="n">
-        <v>135000</v>
+        <v>390000</v>
       </c>
       <c r="O1126" t="n">
-        <v>140000</v>
+        <v>390000</v>
       </c>
       <c r="P1126" t="n">
-        <v>137500</v>
+        <v>390000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
@@ -90462,11 +90462,11 @@
       </c>
       <c r="R1126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>344</v>
+        <v>975</v>
       </c>
       <c r="T1126" t="n">
         <v>400</v>
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -90515,25 +90515,25 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N1127" t="n">
-        <v>110000</v>
+        <v>380000</v>
       </c>
       <c r="O1127" t="n">
-        <v>110000</v>
+        <v>400000</v>
       </c>
       <c r="P1127" t="n">
-        <v>110000</v>
+        <v>390000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90546,7 +90546,7 @@
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>275</v>
+        <v>975</v>
       </c>
       <c r="T1127" t="n">
         <v>400</v>
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -90595,7 +90595,7 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
@@ -90604,20 +90604,20 @@
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="N1128" t="n">
-        <v>140000</v>
+        <v>17000</v>
       </c>
       <c r="O1128" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P1128" t="n">
-        <v>145000</v>
+        <v>17000</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1128" t="inlineStr">
@@ -90626,10 +90626,10 @@
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>362</v>
+        <v>1133</v>
       </c>
       <c r="T1128" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1129">
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -90675,7 +90675,7 @@
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1129" t="inlineStr">
@@ -90684,16 +90684,16 @@
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N1129" t="n">
-        <v>115000</v>
+        <v>350000</v>
       </c>
       <c r="O1129" t="n">
-        <v>115000</v>
+        <v>350000</v>
       </c>
       <c r="P1129" t="n">
-        <v>115000</v>
+        <v>350000</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90706,7 +90706,7 @@
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>288</v>
+        <v>875</v>
       </c>
       <c r="T1129" t="n">
         <v>400</v>
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -90760,20 +90760,20 @@
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N1130" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="O1130" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="P1130" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90782,11 +90782,11 @@
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>1150</v>
+        <v>750</v>
       </c>
       <c r="T1130" t="n">
         <v>400</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -90835,7 +90835,7 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
@@ -90844,16 +90844,16 @@
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N1131" t="n">
-        <v>430000</v>
+        <v>135000</v>
       </c>
       <c r="O1131" t="n">
-        <v>500000</v>
+        <v>140000</v>
       </c>
       <c r="P1131" t="n">
-        <v>469211</v>
+        <v>137500</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90862,11 +90862,11 @@
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>1173</v>
+        <v>344</v>
       </c>
       <c r="T1131" t="n">
         <v>400</v>
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -90915,29 +90915,29 @@
       </c>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>1050</v>
+        <v>22</v>
       </c>
       <c r="N1132" t="n">
-        <v>15000</v>
+        <v>110000</v>
       </c>
       <c r="O1132" t="n">
-        <v>15000</v>
+        <v>110000</v>
       </c>
       <c r="P1132" t="n">
-        <v>15000</v>
+        <v>110000</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1132" t="inlineStr">
@@ -90946,10 +90946,10 @@
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>1000</v>
+        <v>275</v>
       </c>
       <c r="T1132" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1133">
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -90995,7 +90995,7 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
@@ -91004,32 +91004,32 @@
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N1133" t="n">
-        <v>16000</v>
+        <v>140000</v>
       </c>
       <c r="O1133" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="P1133" t="n">
-        <v>16500</v>
+        <v>145000</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>917</v>
+        <v>362</v>
       </c>
       <c r="T1133" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1134">
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -91075,7 +91075,7 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
@@ -91084,16 +91084,16 @@
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1134" t="n">
-        <v>450000</v>
+        <v>115000</v>
       </c>
       <c r="O1134" t="n">
-        <v>450000</v>
+        <v>115000</v>
       </c>
       <c r="P1134" t="n">
-        <v>450000</v>
+        <v>115000</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91102,11 +91102,11 @@
       </c>
       <c r="R1134" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>1125</v>
+        <v>288</v>
       </c>
       <c r="T1134" t="n">
         <v>400</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -91160,20 +91160,20 @@
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N1135" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="O1135" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="P1135" t="n">
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91186,7 +91186,7 @@
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="T1135" t="n">
         <v>400</v>
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -91244,7 +91244,7 @@
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N1136" t="n">
         <v>430000</v>
@@ -91253,7 +91253,7 @@
         <v>500000</v>
       </c>
       <c r="P1136" t="n">
-        <v>452258</v>
+        <v>469211</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91262,11 +91262,11 @@
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>1131</v>
+        <v>1173</v>
       </c>
       <c r="T1136" t="n">
         <v>400</v>
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -91324,16 +91324,16 @@
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>70</v>
+        <v>1050</v>
       </c>
       <c r="N1137" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O1137" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P1137" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91346,7 +91346,7 @@
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="T1137" t="n">
         <v>15</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91400,24 +91400,24 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="N1138" t="n">
-        <v>400000</v>
+        <v>16000</v>
       </c>
       <c r="O1138" t="n">
-        <v>400000</v>
+        <v>17000</v>
       </c>
       <c r="P1138" t="n">
-        <v>400000</v>
+        <v>16500</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1138" t="inlineStr">
@@ -91426,10 +91426,10 @@
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>1000</v>
+        <v>917</v>
       </c>
       <c r="T1138" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1139">
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91484,16 +91484,16 @@
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N1139" t="n">
-        <v>380000</v>
+        <v>450000</v>
       </c>
       <c r="O1139" t="n">
         <v>450000</v>
       </c>
       <c r="P1139" t="n">
-        <v>405789</v>
+        <v>450000</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91502,11 +91502,11 @@
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>1014</v>
+        <v>1125</v>
       </c>
       <c r="T1139" t="n">
         <v>400</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91555,7 +91555,7 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1140" t="inlineStr">
@@ -91564,16 +91564,16 @@
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N1140" t="n">
-        <v>130000</v>
+        <v>420000</v>
       </c>
       <c r="O1140" t="n">
-        <v>140000</v>
+        <v>420000</v>
       </c>
       <c r="P1140" t="n">
-        <v>135455</v>
+        <v>420000</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -91582,11 +91582,11 @@
       </c>
       <c r="R1140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>339</v>
+        <v>1050</v>
       </c>
       <c r="T1140" t="n">
         <v>400</v>
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91635,25 +91635,25 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N1141" t="n">
-        <v>110000</v>
+        <v>430000</v>
       </c>
       <c r="O1141" t="n">
-        <v>110000</v>
+        <v>500000</v>
       </c>
       <c r="P1141" t="n">
-        <v>110000</v>
+        <v>452258</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91666,7 +91666,7 @@
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>275</v>
+        <v>1131</v>
       </c>
       <c r="T1141" t="n">
         <v>400</v>
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -91715,7 +91715,7 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
@@ -91724,32 +91724,32 @@
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="N1142" t="n">
-        <v>120000</v>
+        <v>17000</v>
       </c>
       <c r="O1142" t="n">
-        <v>120000</v>
+        <v>17000</v>
       </c>
       <c r="P1142" t="n">
-        <v>120000</v>
+        <v>17000</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>300</v>
+        <v>1133</v>
       </c>
       <c r="T1142" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1143">
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -91795,25 +91795,25 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N1143" t="n">
-        <v>120000</v>
+        <v>400000</v>
       </c>
       <c r="O1143" t="n">
-        <v>130000</v>
+        <v>400000</v>
       </c>
       <c r="P1143" t="n">
-        <v>125000</v>
+        <v>400000</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91822,11 +91822,11 @@
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>312</v>
+        <v>1000</v>
       </c>
       <c r="T1143" t="n">
         <v>400</v>
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91875,41 +91875,41 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="N1144" t="n">
-        <v>4000</v>
+        <v>380000</v>
       </c>
       <c r="O1144" t="n">
-        <v>4500</v>
+        <v>450000</v>
       </c>
       <c r="P1144" t="n">
-        <v>4250</v>
+        <v>405789</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>236</v>
+        <v>1014</v>
       </c>
       <c r="T1144" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1145">
@@ -91955,7 +91955,7 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1145" t="inlineStr">
@@ -91964,20 +91964,20 @@
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="N1145" t="n">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="O1145" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="P1145" t="n">
-        <v>5000</v>
+        <v>135455</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1145" t="inlineStr">
@@ -91986,10 +91986,10 @@
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="T1145" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1146">
@@ -92035,7 +92035,7 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
@@ -92044,16 +92044,16 @@
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1146" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="O1146" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="P1146" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
@@ -92062,11 +92062,11 @@
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="T1146" t="n">
         <v>400</v>
@@ -92120,20 +92120,20 @@
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N1147" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O1147" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P1147" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92142,11 +92142,11 @@
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T1147" t="n">
         <v>400</v>
@@ -92200,24 +92200,24 @@
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="N1148" t="n">
-        <v>3500</v>
+        <v>120000</v>
       </c>
       <c r="O1148" t="n">
-        <v>3500</v>
+        <v>130000</v>
       </c>
       <c r="P1148" t="n">
-        <v>3500</v>
+        <v>125000</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1148" t="inlineStr">
@@ -92226,10 +92226,10 @@
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="T1148" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1149">
@@ -92280,20 +92280,20 @@
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N1149" t="n">
         <v>4000</v>
       </c>
       <c r="O1149" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P1149" t="n">
-        <v>4000</v>
+        <v>4250</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
@@ -92302,11 +92302,11 @@
       </c>
       <c r="R1149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="T1149" t="n">
         <v>18</v>
@@ -92360,20 +92360,20 @@
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N1150" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O1150" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P1150" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92382,11 +92382,11 @@
       </c>
       <c r="R1150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="T1150" t="n">
         <v>18</v>
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -92435,25 +92435,25 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N1151" t="n">
-        <v>420000</v>
+        <v>100000</v>
       </c>
       <c r="O1151" t="n">
-        <v>420000</v>
+        <v>100000</v>
       </c>
       <c r="P1151" t="n">
-        <v>420000</v>
+        <v>100000</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92466,7 +92466,7 @@
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>1050</v>
+        <v>250</v>
       </c>
       <c r="T1151" t="n">
         <v>400</v>
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -92515,25 +92515,25 @@
       </c>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N1152" t="n">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="O1152" t="n">
-        <v>420000</v>
+        <v>100000</v>
       </c>
       <c r="P1152" t="n">
-        <v>408750</v>
+        <v>100000</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92542,11 +92542,11 @@
       </c>
       <c r="R1152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>1022</v>
+        <v>250</v>
       </c>
       <c r="T1152" t="n">
         <v>400</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -92595,41 +92595,41 @@
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
       <c r="N1153" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O1153" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P1153" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>1133</v>
+        <v>194</v>
       </c>
       <c r="T1153" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1154">
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92675,7 +92675,7 @@
       </c>
       <c r="K1154" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1154" t="inlineStr">
@@ -92684,20 +92684,20 @@
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="N1154" t="n">
-        <v>360000</v>
+        <v>4000</v>
       </c>
       <c r="O1154" t="n">
-        <v>360000</v>
+        <v>4000</v>
       </c>
       <c r="P1154" t="n">
-        <v>360000</v>
+        <v>4000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1154" t="inlineStr">
@@ -92706,10 +92706,10 @@
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>900</v>
+        <v>222</v>
       </c>
       <c r="T1154" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1155">
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92755,41 +92755,41 @@
       </c>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="N1155" t="n">
-        <v>120000</v>
+        <v>2500</v>
       </c>
       <c r="O1155" t="n">
-        <v>130000</v>
+        <v>2500</v>
       </c>
       <c r="P1155" t="n">
-        <v>125806</v>
+        <v>2500</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="T1155" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1156">
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -92835,7 +92835,7 @@
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1156" t="inlineStr">
@@ -92844,16 +92844,16 @@
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N1156" t="n">
-        <v>130000</v>
+        <v>420000</v>
       </c>
       <c r="O1156" t="n">
-        <v>140000</v>
+        <v>420000</v>
       </c>
       <c r="P1156" t="n">
-        <v>132708</v>
+        <v>420000</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92862,11 +92862,11 @@
       </c>
       <c r="R1156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>332</v>
+        <v>1050</v>
       </c>
       <c r="T1156" t="n">
         <v>400</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -92915,25 +92915,25 @@
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N1157" t="n">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="O1157" t="n">
-        <v>100000</v>
+        <v>420000</v>
       </c>
       <c r="P1157" t="n">
-        <v>100000</v>
+        <v>408750</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
@@ -92942,11 +92942,11 @@
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>250</v>
+        <v>1022</v>
       </c>
       <c r="T1157" t="n">
         <v>400</v>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -92995,29 +92995,29 @@
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="N1158" t="n">
-        <v>110000</v>
+        <v>17000</v>
       </c>
       <c r="O1158" t="n">
-        <v>115000</v>
+        <v>17000</v>
       </c>
       <c r="P1158" t="n">
-        <v>111667</v>
+        <v>17000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1158" t="inlineStr">
@@ -93026,10 +93026,10 @@
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>279</v>
+        <v>1133</v>
       </c>
       <c r="T1158" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1159">
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -93075,25 +93075,25 @@
       </c>
       <c r="K1159" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N1159" t="n">
-        <v>80000</v>
+        <v>360000</v>
       </c>
       <c r="O1159" t="n">
-        <v>80000</v>
+        <v>360000</v>
       </c>
       <c r="P1159" t="n">
-        <v>80000</v>
+        <v>360000</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93106,7 +93106,7 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="T1159" t="n">
         <v>400</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93155,7 +93155,7 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
@@ -93164,16 +93164,16 @@
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N1160" t="n">
-        <v>400000</v>
+        <v>120000</v>
       </c>
       <c r="O1160" t="n">
-        <v>420000</v>
+        <v>130000</v>
       </c>
       <c r="P1160" t="n">
-        <v>410588</v>
+        <v>125806</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93182,11 +93182,11 @@
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>1026</v>
+        <v>315</v>
       </c>
       <c r="T1160" t="n">
         <v>400</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93235,7 +93235,7 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1161" t="inlineStr">
@@ -93244,20 +93244,20 @@
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>700</v>
+        <v>48</v>
       </c>
       <c r="N1161" t="n">
-        <v>17000</v>
+        <v>130000</v>
       </c>
       <c r="O1161" t="n">
-        <v>17000</v>
+        <v>140000</v>
       </c>
       <c r="P1161" t="n">
-        <v>17000</v>
+        <v>132708</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1161" t="inlineStr">
@@ -93266,10 +93266,10 @@
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>1133</v>
+        <v>332</v>
       </c>
       <c r="T1161" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1162">
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -93315,7 +93315,7 @@
       </c>
       <c r="K1162" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1162" t="inlineStr">
@@ -93327,13 +93327,13 @@
         <v>14</v>
       </c>
       <c r="N1162" t="n">
-        <v>350000</v>
+        <v>100000</v>
       </c>
       <c r="O1162" t="n">
-        <v>350000</v>
+        <v>100000</v>
       </c>
       <c r="P1162" t="n">
-        <v>350000</v>
+        <v>100000</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
@@ -93342,11 +93342,11 @@
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>875</v>
+        <v>250</v>
       </c>
       <c r="T1162" t="n">
         <v>400</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93395,25 +93395,25 @@
       </c>
       <c r="K1163" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N1163" t="n">
-        <v>480000</v>
+        <v>110000</v>
       </c>
       <c r="O1163" t="n">
-        <v>480000</v>
+        <v>115000</v>
       </c>
       <c r="P1163" t="n">
-        <v>480000</v>
+        <v>111667</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
@@ -93422,11 +93422,11 @@
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>1200</v>
+        <v>279</v>
       </c>
       <c r="T1163" t="n">
         <v>400</v>
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93475,25 +93475,25 @@
       </c>
       <c r="K1164" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N1164" t="n">
-        <v>470000</v>
+        <v>80000</v>
       </c>
       <c r="O1164" t="n">
-        <v>480000</v>
+        <v>80000</v>
       </c>
       <c r="P1164" t="n">
-        <v>475000</v>
+        <v>80000</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
@@ -93506,7 +93506,7 @@
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>1188</v>
+        <v>200</v>
       </c>
       <c r="T1164" t="n">
         <v>400</v>
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93564,32 +93564,32 @@
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="N1165" t="n">
-        <v>16000</v>
+        <v>400000</v>
       </c>
       <c r="O1165" t="n">
-        <v>16000</v>
+        <v>420000</v>
       </c>
       <c r="P1165" t="n">
-        <v>16000</v>
+        <v>410588</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>889</v>
+        <v>1026</v>
       </c>
       <c r="T1165" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1166">
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -93640,24 +93640,24 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>7</v>
+        <v>700</v>
       </c>
       <c r="N1166" t="n">
-        <v>420000</v>
+        <v>17000</v>
       </c>
       <c r="O1166" t="n">
-        <v>420000</v>
+        <v>17000</v>
       </c>
       <c r="P1166" t="n">
-        <v>420000</v>
+        <v>17000</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1166" t="inlineStr">
@@ -93666,10 +93666,10 @@
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>1050</v>
+        <v>1133</v>
       </c>
       <c r="T1166" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1167">
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -93715,25 +93715,25 @@
       </c>
       <c r="K1167" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N1167" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="O1167" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="P1167" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93742,11 +93742,11 @@
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>350</v>
+        <v>875</v>
       </c>
       <c r="T1167" t="n">
         <v>400</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93795,7 +93795,7 @@
       </c>
       <c r="K1168" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1168" t="inlineStr">
@@ -93804,16 +93804,16 @@
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N1168" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="O1168" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="P1168" t="n">
-        <v>120000</v>
+        <v>480000</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93822,11 +93822,11 @@
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="T1168" t="n">
         <v>400</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93875,7 +93875,7 @@
       </c>
       <c r="K1169" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1169" t="inlineStr">
@@ -93884,32 +93884,32 @@
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N1169" t="n">
-        <v>7000</v>
+        <v>470000</v>
       </c>
       <c r="O1169" t="n">
-        <v>7000</v>
+        <v>480000</v>
       </c>
       <c r="P1169" t="n">
-        <v>7000</v>
+        <v>475000</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>389</v>
+        <v>1188</v>
       </c>
       <c r="T1169" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1170">
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93955,29 +93955,29 @@
       </c>
       <c r="K1170" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="N1170" t="n">
-        <v>120000</v>
+        <v>16000</v>
       </c>
       <c r="O1170" t="n">
-        <v>120000</v>
+        <v>16000</v>
       </c>
       <c r="P1170" t="n">
-        <v>120000</v>
+        <v>16000</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
@@ -93986,10 +93986,10 @@
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>300</v>
+        <v>889</v>
       </c>
       <c r="T1170" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94035,7 +94035,7 @@
       </c>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1171" t="inlineStr">
@@ -94044,32 +94044,32 @@
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="N1171" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="O1171" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="P1171" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>278</v>
+        <v>1050</v>
       </c>
       <c r="T1171" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1172">
@@ -94115,7 +94115,7 @@
       </c>
       <c r="K1172" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1172" t="inlineStr">
@@ -94124,16 +94124,16 @@
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1172" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O1172" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P1172" t="n">
-        <v>125000</v>
+        <v>140000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94142,11 +94142,11 @@
       </c>
       <c r="R1172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="T1172" t="n">
         <v>400</v>
@@ -94195,7 +94195,7 @@
       </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1173" t="inlineStr">
@@ -94204,32 +94204,32 @@
         </is>
       </c>
       <c r="M1173" t="n">
+        <v>30</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>120000</v>
+      </c>
+      <c r="Q1173" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1173" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1173" t="n">
         <v>300</v>
       </c>
-      <c r="N1173" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O1173" t="n">
-        <v>8000</v>
-      </c>
-      <c r="P1173" t="n">
-        <v>7500</v>
-      </c>
-      <c r="Q1173" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1173" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S1173" t="n">
-        <v>417</v>
-      </c>
       <c r="T1173" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1174">
@@ -94275,25 +94275,25 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N1174" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O1174" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P1174" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94306,7 +94306,7 @@
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="T1174" t="n">
         <v>18</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -94360,20 +94360,20 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N1175" t="n">
-        <v>380000</v>
+        <v>120000</v>
       </c>
       <c r="O1175" t="n">
-        <v>380000</v>
+        <v>120000</v>
       </c>
       <c r="P1175" t="n">
-        <v>380000</v>
+        <v>120000</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94382,11 +94382,11 @@
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="T1175" t="n">
         <v>400</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94440,36 +94440,36 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="N1176" t="n">
-        <v>360000</v>
+        <v>5000</v>
       </c>
       <c r="O1176" t="n">
-        <v>370000</v>
+        <v>5000</v>
       </c>
       <c r="P1176" t="n">
-        <v>365000</v>
+        <v>5000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>912</v>
+        <v>278</v>
       </c>
       <c r="T1176" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1177">
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94515,7 +94515,7 @@
       </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1177" t="inlineStr">
@@ -94524,16 +94524,16 @@
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1177" t="n">
-        <v>370000</v>
+        <v>120000</v>
       </c>
       <c r="O1177" t="n">
-        <v>370000</v>
+        <v>130000</v>
       </c>
       <c r="P1177" t="n">
-        <v>370000</v>
+        <v>125000</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94542,11 +94542,11 @@
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>925</v>
+        <v>312</v>
       </c>
       <c r="T1177" t="n">
         <v>400</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -94595,41 +94595,41 @@
       </c>
       <c r="K1178" t="inlineStr">
         <is>
-          <t>New Hall</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="N1178" t="n">
-        <v>340000</v>
+        <v>7000</v>
       </c>
       <c r="O1178" t="n">
-        <v>340000</v>
+        <v>8000</v>
       </c>
       <c r="P1178" t="n">
-        <v>340000</v>
+        <v>7500</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1178" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>850</v>
+        <v>417</v>
       </c>
       <c r="T1178" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1179">
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -94675,41 +94675,41 @@
       </c>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Navel Late</t>
         </is>
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1179" t="n">
+        <v>180</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q1179" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1179" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1179" t="n">
+        <v>333</v>
+      </c>
+      <c r="T1179" t="n">
         <v>18</v>
-      </c>
-      <c r="N1179" t="n">
-        <v>460000</v>
-      </c>
-      <c r="O1179" t="n">
-        <v>470000</v>
-      </c>
-      <c r="P1179" t="n">
-        <v>465000</v>
-      </c>
-      <c r="Q1179" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1179" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1179" t="n">
-        <v>1162</v>
-      </c>
-      <c r="T1179" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="1180">
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -94764,16 +94764,16 @@
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N1180" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="O1180" t="n">
-        <v>320000</v>
+        <v>380000</v>
       </c>
       <c r="P1180" t="n">
-        <v>310000</v>
+        <v>380000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="T1180" t="n">
         <v>400</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -94844,20 +94844,20 @@
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>910</v>
+        <v>24</v>
       </c>
       <c r="N1181" t="n">
-        <v>16000</v>
+        <v>360000</v>
       </c>
       <c r="O1181" t="n">
-        <v>16000</v>
+        <v>370000</v>
       </c>
       <c r="P1181" t="n">
-        <v>16000</v>
+        <v>365000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1181" t="inlineStr">
@@ -94866,10 +94866,10 @@
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>1067</v>
+        <v>912</v>
       </c>
       <c r="T1181" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1182">
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -94924,16 +94924,16 @@
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N1182" t="n">
-        <v>320000</v>
+        <v>370000</v>
       </c>
       <c r="O1182" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="P1182" t="n">
-        <v>325000</v>
+        <v>370000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94942,11 +94942,11 @@
       </c>
       <c r="R1182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>812</v>
+        <v>925</v>
       </c>
       <c r="T1182" t="n">
         <v>400</v>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -94995,25 +94995,25 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N1183" t="n">
-        <v>160000</v>
+        <v>340000</v>
       </c>
       <c r="O1183" t="n">
-        <v>160000</v>
+        <v>340000</v>
       </c>
       <c r="P1183" t="n">
-        <v>160000</v>
+        <v>340000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95022,11 +95022,11 @@
       </c>
       <c r="R1183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="T1183" t="n">
         <v>400</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -95075,7 +95075,7 @@
       </c>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>Fukumoto</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="L1184" t="inlineStr">
@@ -95087,13 +95087,13 @@
         <v>18</v>
       </c>
       <c r="N1184" t="n">
-        <v>150000</v>
+        <v>460000</v>
       </c>
       <c r="O1184" t="n">
-        <v>150000</v>
+        <v>470000</v>
       </c>
       <c r="P1184" t="n">
-        <v>150000</v>
+        <v>465000</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95102,11 +95102,11 @@
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>375</v>
+        <v>1162</v>
       </c>
       <c r="T1184" t="n">
         <v>400</v>
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -95160,20 +95160,20 @@
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N1185" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="O1185" t="n">
-        <v>130000</v>
+        <v>320000</v>
       </c>
       <c r="P1185" t="n">
-        <v>130000</v>
+        <v>310000</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95182,11 +95182,11 @@
       </c>
       <c r="R1185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>325</v>
+        <v>775</v>
       </c>
       <c r="T1185" t="n">
         <v>400</v>
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -95235,7 +95235,7 @@
       </c>
       <c r="K1186" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1186" t="inlineStr">
@@ -95244,32 +95244,32 @@
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>32</v>
+        <v>910</v>
       </c>
       <c r="N1186" t="n">
-        <v>120000</v>
+        <v>16000</v>
       </c>
       <c r="O1186" t="n">
-        <v>130000</v>
+        <v>16000</v>
       </c>
       <c r="P1186" t="n">
-        <v>125000</v>
+        <v>16000</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1186" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>312</v>
+        <v>1067</v>
       </c>
       <c r="T1186" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1187">
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -95315,7 +95315,7 @@
       </c>
       <c r="K1187" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>New Hall</t>
         </is>
       </c>
       <c r="L1187" t="inlineStr">
@@ -95324,16 +95324,16 @@
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N1187" t="n">
-        <v>110000</v>
+        <v>320000</v>
       </c>
       <c r="O1187" t="n">
-        <v>120000</v>
+        <v>330000</v>
       </c>
       <c r="P1187" t="n">
-        <v>115000</v>
+        <v>325000</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95342,11 +95342,11 @@
       </c>
       <c r="R1187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>288</v>
+        <v>812</v>
       </c>
       <c r="T1187" t="n">
         <v>400</v>
@@ -95395,25 +95395,25 @@
       </c>
       <c r="K1188" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N1188" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O1188" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P1188" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95422,11 +95422,11 @@
       </c>
       <c r="R1188" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="T1188" t="n">
         <v>400</v>
@@ -95475,25 +95475,25 @@
       </c>
       <c r="K1189" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1189" t="n">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="O1189" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="P1189" t="n">
-        <v>95000</v>
+        <v>150000</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95506,7 +95506,7 @@
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="T1189" t="n">
         <v>400</v>
@@ -95555,25 +95555,25 @@
       </c>
       <c r="K1190" t="inlineStr">
         <is>
-          <t>Lane Late</t>
+          <t>Fukumoto</t>
         </is>
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1190" t="n">
-        <v>70000</v>
+        <v>130000</v>
       </c>
       <c r="O1190" t="n">
-        <v>70000</v>
+        <v>130000</v>
       </c>
       <c r="P1190" t="n">
-        <v>70000</v>
+        <v>130000</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
@@ -95582,11 +95582,11 @@
       </c>
       <c r="R1190" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="T1190" t="n">
         <v>400</v>
@@ -95635,7 +95635,7 @@
       </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1191" t="inlineStr">
@@ -95662,7 +95662,7 @@
       </c>
       <c r="R1191" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1191" t="n">
@@ -95715,7 +95715,7 @@
       </c>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1192" t="inlineStr">
@@ -95724,16 +95724,16 @@
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N1192" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="O1192" t="n">
         <v>120000</v>
       </c>
       <c r="P1192" t="n">
-        <v>120000</v>
+        <v>115000</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
@@ -95746,7 +95746,7 @@
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="T1192" t="n">
         <v>400</v>
@@ -95795,41 +95795,41 @@
       </c>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="N1193" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="O1193" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="P1193" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="T1193" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1194">
@@ -95875,41 +95875,41 @@
       </c>
       <c r="K1194" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="N1194" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="O1194" t="n">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="P1194" t="n">
-        <v>5500</v>
+        <v>95000</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="T1194" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1195">
@@ -95955,25 +95955,25 @@
       </c>
       <c r="K1195" t="inlineStr">
         <is>
-          <t>Navel Late</t>
+          <t>Lane Late</t>
         </is>
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1195" t="n">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="O1195" t="n">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="P1195" t="n">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
@@ -95982,11 +95982,11 @@
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="T1195" t="n">
         <v>400</v>
@@ -96040,20 +96040,20 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N1196" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O1196" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P1196" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
@@ -96062,11 +96062,11 @@
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="T1196" t="n">
         <v>400</v>
@@ -96120,24 +96120,24 @@
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="N1197" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="O1197" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="P1197" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1197" t="inlineStr">
@@ -96146,10 +96146,10 @@
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="T1197" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1198">
@@ -96200,20 +96200,20 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N1198" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1198" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1198" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96222,11 +96222,11 @@
       </c>
       <c r="R1198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="T1198" t="n">
         <v>18</v>
@@ -96280,35 +96280,435 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1199" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q1199" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1199" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1199" t="n">
+        <v>306</v>
+      </c>
+      <c r="T1199" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1200" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1200" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1200" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1200" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1200" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1200" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q1200" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1200" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1200" t="n">
+        <v>250</v>
+      </c>
+      <c r="T1200" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1201" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1201" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1201" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1201" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1201" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1201" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1201" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q1201" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1201" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1201" t="n">
+        <v>250</v>
+      </c>
+      <c r="T1201" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1202" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1202" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1202" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1202" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1202" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1202" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1202" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1202" t="n">
+        <v>250</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q1202" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1202" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1202" t="n">
+        <v>222</v>
+      </c>
+      <c r="T1202" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1203" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1203" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1203" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1203" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1203" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1203" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1203" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1203" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q1203" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1203" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1203" t="n">
+        <v>222</v>
+      </c>
+      <c r="T1203" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1204" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1204" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1204" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1204" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1204" t="n">
+        <v>100102005</v>
+      </c>
+      <c r="J1204" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>Navel Late</t>
+        </is>
+      </c>
+      <c r="L1204" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M1199" t="n">
+      <c r="M1204" t="n">
         <v>12</v>
       </c>
-      <c r="N1199" t="n">
+      <c r="N1204" t="n">
         <v>70000</v>
       </c>
-      <c r="O1199" t="n">
+      <c r="O1204" t="n">
         <v>70000</v>
       </c>
-      <c r="P1199" t="n">
+      <c r="P1204" t="n">
         <v>70000</v>
       </c>
-      <c r="Q1199" t="inlineStr">
+      <c r="Q1204" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
         </is>
       </c>
-      <c r="R1199" t="inlineStr">
+      <c r="R1204" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S1199" t="n">
+      <c r="S1204" t="n">
         <v>175</v>
       </c>
-      <c r="T1199" t="n">
+      <c r="T1204" t="n">
         <v>400</v>
       </c>
     </row>
